--- a/config_Release/vip2_config.xlsx
+++ b/config_Release/vip2_config.xlsx
@@ -21,13 +21,14 @@
     <sheet name="yjtz_new|新版赢金挑战" sheetId="15" r:id="rId7"/>
     <sheet name="yjtz_three|赢金挑战三期" sheetId="16" r:id="rId8"/>
     <sheet name="qys|千元赛" sheetId="12" r:id="rId9"/>
+    <sheet name="gift|VIP礼包" sheetId="17" r:id="rId10"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="257">
   <si>
     <t>total|总共充值</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -131,22 +132,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>"com_icon_gold","com_award_icon_qys","bag_icon_jipaiqi"</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"com_icon_gold","com_award_icon_qys","bag_icon_jipaiqi"</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"com_icon_gold","com_award_icon_qys","bag_icon_jipaiqi"</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"com_icon_gold","com_award_icon_qys","bag_icon_jipaiqi"</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>isreal|是否是实物奖励</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -393,42 +378,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>"1.66万鲸币","千元赛门票*1","记牌器*1"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"3.66万鲸币","千元赛门票*1","记牌器*1"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"6.66万鲸币","千元赛门票*1","记牌器*2"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"12.66万鲸币","千元赛门票*1","记牌器*2"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"16.66万鲸币","千元赛门票*1","记牌器*3"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"18.66万鲸币","千元赛门票*1","记牌器*3"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"28.66万鲸币","千元赛门票*1","记牌器*4"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"38.66万鲸币","千元赛门票*1","记牌器*4"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"48.66万鲸币","千元赛门票*1","记牌器*5"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>vip|Vip等级</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -629,30 +578,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>"com_icon_gold","com_award_icon_qys","bag_icon_jipaiqi"</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"58.66万鲸币","千元赛门票*1","记牌器*5"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"78.66万鲸币","千元赛门票*1","记牌器*5"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"68.66万鲸币","千元赛门票*1","记牌器*5"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"com_icon_gold","com_award_icon_qys","bag_icon_jipaiqi"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"com_icon_gold","com_award_icon_qys","bag_icon_jipaiqi"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>小米空气净化器</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -665,26 +590,6 @@
   </si>
   <si>
     <t>activity_icon_gift162_kt</t>
-  </si>
-  <si>
-    <t>"3万鱼币","太阳*6","千元赛门票*1"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"6.6万鱼币","太阳*10","千元赛门票*1"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"com_award_icon_yb1","zpg_icon_yg","com_award_icon_qys"</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>"com_award_icon_yb1","zpg_icon_yg","com_award_icon_qys"</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>"1万鱼币","太阳*2","千元赛门票*1"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>vip&lt;color=#e41a1a&gt;2&lt;/color&gt;福利</t>
@@ -927,10 +832,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>2、福利券容量提升为&lt;color=#C86715&gt;2000万福利券&lt;/color&gt;</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>3、享受vip7所有特权并提高部分特权奖励</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -948,6 +849,191 @@
   </si>
   <si>
     <t>3、享受vip9所有特权并提高部分特权奖励</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"30万鱼币","太阳*6","锁定*1"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"66万鱼币","太阳*10","锁定*1"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"com_award_icon_yb1","zpg_icon_yg","3dby_btn_sd"</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"10万鱼币","太阳*2","锁定*1"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1.66万鲸币","锁定*1","记牌器*1"</t>
+  </si>
+  <si>
+    <t>"3.66万鲸币","锁定*1","记牌器*1"</t>
+  </si>
+  <si>
+    <t>"6.66万鲸币","锁定*1","记牌器*2"</t>
+  </si>
+  <si>
+    <t>"12.66万鲸币","锁定*1","记牌器*2"</t>
+  </si>
+  <si>
+    <t>"16.66万鲸币","锁定*1","记牌器*3"</t>
+  </si>
+  <si>
+    <t>"18.66万鲸币","锁定*1","记牌器*3"</t>
+  </si>
+  <si>
+    <t>"28.66万鲸币","锁定*1","记牌器*4"</t>
+  </si>
+  <si>
+    <t>"38.66万鲸币","锁定*1","记牌器*4"</t>
+  </si>
+  <si>
+    <t>"48.66万鲸币","锁定*1","记牌器*5"</t>
+  </si>
+  <si>
+    <t>"58.66万鲸币","锁定*1","记牌器*5"</t>
+  </si>
+  <si>
+    <t>"68.66万鲸币","锁定*1","记牌器*5"</t>
+  </si>
+  <si>
+    <t>"78.66万鲸币","锁定*1","记牌器*5"</t>
+  </si>
+  <si>
+    <t>"com_icon_gold","prop_3d_fish_lock","bag_icon_jipaiqi"</t>
+  </si>
+  <si>
+    <t>gift_id|礼包ID</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>title|名字</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>price|价格</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>award_img|图片</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>award_txt|描述</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"75万","1","1",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"318万","5","5",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"538万","10","10",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1108万","20","20",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2218万","40","40",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"3288万","68","60",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4388万","88","80",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"5488万","110","100",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"6488万","148","100",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"7688万","158","100",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"VIP1礼包","(购买条件:VIP等级≥1)",</t>
+  </si>
+  <si>
+    <t>"VIP2礼包","(购买条件:VIP等级≥2)",</t>
+  </si>
+  <si>
+    <t>"VIP3礼包","(购买条件:VIP等级≥3)",</t>
+  </si>
+  <si>
+    <t>"VIP4礼包","(购买条件:VIP等级≥4)",</t>
+  </si>
+  <si>
+    <t>"VIP5礼包","(购买条件:VIP等级≥5)",</t>
+  </si>
+  <si>
+    <t>"VIP6礼包","(购买条件:VIP等级≥6)",</t>
+  </si>
+  <si>
+    <t>"VIP7礼包","(购买条件:VIP等级≥7)",</t>
+  </si>
+  <si>
+    <t>"VIP8礼包","(购买条件:VIP等级≥8)",</t>
+  </si>
+  <si>
+    <t>"VIP9礼包","(购买条件:VIP等级≥9)",</t>
+  </si>
+  <si>
+    <t>"VIP10礼包","(购买条件:VIP等级≥10)",</t>
+  </si>
+  <si>
+    <t>origin_price|价格</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_48y","3dby_btn_zh","3dby_btn_sd",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_198y","3dby_btn_zh","3dby_btn_sd",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_198y","3dby_btn_zh","3dby_btn_sd",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_98y","3dby_btn_zh","3dby_btn_sd",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_98y","3dby_btn_zh","3dby_btn_sd",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_50y","3dby_btn_zh","3dby_btn_sd",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_50y","3dby_btn_zh","3dby_btn_sd",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_50y","3dby_btn_zh","3dby_btn_sd",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、福利券容量提升为&lt;color=#C86715&gt;200万福利券&lt;/color&gt;</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1096,7 +1182,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1166,6 +1252,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1446,8 +1535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A33"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1462,10 +1551,10 @@
   <sheetData>
     <row r="1" spans="1:7" ht="27" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -1474,13 +1563,13 @@
         <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -1491,16 +1580,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -1511,14 +1600,14 @@
         <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="E3" s="5"/>
       <c r="G3" s="5" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1529,14 +1618,14 @@
         <v>1</v>
       </c>
       <c r="C4" s="1">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="E4" s="13"/>
       <c r="G4" s="5" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1547,14 +1636,14 @@
         <v>1</v>
       </c>
       <c r="C5" s="1">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E5" s="5"/>
       <c r="G5" s="5" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -1568,13 +1657,13 @@
         <v>200</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1588,11 +1677,11 @@
         <v>200</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="E7" s="14"/>
       <c r="G7" s="5" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1606,11 +1695,11 @@
         <v>200</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="E8" s="5"/>
       <c r="G8" s="5" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1624,13 +1713,13 @@
         <v>500</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1644,10 +1733,10 @@
         <v>500</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1661,10 +1750,10 @@
         <v>500</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1678,13 +1767,13 @@
         <v>1000</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1698,10 +1787,10 @@
         <v>1000</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1715,10 +1804,10 @@
         <v>1000</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1732,13 +1821,13 @@
         <v>2000</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1752,11 +1841,11 @@
         <v>2000</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="E16" s="22"/>
       <c r="G16" s="21" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -1770,11 +1859,11 @@
         <v>2000</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="E17" s="21"/>
       <c r="G17" s="19" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -1788,11 +1877,11 @@
         <v>2000</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="E18" s="21"/>
       <c r="G18" s="21" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -1806,13 +1895,13 @@
         <v>5000</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -1826,10 +1915,10 @@
         <v>5000</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="G20" s="21" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -1843,11 +1932,11 @@
         <v>5000</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="E21" s="21"/>
       <c r="G21" s="21" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -1861,13 +1950,13 @@
         <v>10000</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -1881,11 +1970,11 @@
         <v>10000</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="E23" s="22"/>
       <c r="G23" s="21" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -1899,11 +1988,11 @@
         <v>10000</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>223</v>
+        <v>199</v>
       </c>
       <c r="E24" s="21"/>
       <c r="G24" s="19" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -1917,13 +2006,13 @@
         <v>20000</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G25" s="21" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -1937,11 +2026,11 @@
         <v>20000</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>224</v>
+        <v>256</v>
       </c>
       <c r="E26" s="22"/>
       <c r="G26" s="21" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -1955,11 +2044,11 @@
         <v>20000</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="E27" s="21"/>
       <c r="G27" s="21" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -1973,13 +2062,13 @@
         <v>30000</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G28" s="21" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -1993,11 +2082,11 @@
         <v>30000</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>226</v>
+        <v>201</v>
       </c>
       <c r="E29" s="22"/>
       <c r="G29" s="21" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -2011,11 +2100,11 @@
         <v>30000</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>227</v>
+        <v>202</v>
       </c>
       <c r="E30" s="21"/>
       <c r="G30" s="21" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -2029,13 +2118,13 @@
         <v>50000</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G31" s="21" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -2049,11 +2138,11 @@
         <v>50000</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
       <c r="E32" s="22"/>
       <c r="G32" s="19" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -2067,11 +2156,11 @@
         <v>50000</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
       <c r="E33" s="21"/>
       <c r="G33" s="21" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -2093,6 +2182,263 @@
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="20.375" customWidth="1"/>
+    <col min="3" max="3" width="32.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.875" customWidth="1"/>
+    <col min="5" max="5" width="13.125" customWidth="1"/>
+    <col min="6" max="6" width="65" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="27" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>10244</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="D2" s="17"/>
+      <c r="E2">
+        <v>6</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>10245</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="D3" s="17"/>
+      <c r="E3">
+        <v>28</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>10246</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="D4" s="17"/>
+      <c r="E4">
+        <v>48</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>10247</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="D5" s="17"/>
+      <c r="E5">
+        <v>99</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>10248</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="D6" s="17"/>
+      <c r="E6">
+        <v>198</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>10249</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="D7" s="17"/>
+      <c r="E7">
+        <v>298</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>10250</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="D8" s="17"/>
+      <c r="E8">
+        <v>398</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>10251</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="D9" s="17"/>
+      <c r="E9">
+        <v>498</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>10252</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="D10" s="17"/>
+      <c r="E10">
+        <v>598</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>10253</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="D11" s="17"/>
+      <c r="E11">
+        <v>698</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>236</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -2101,7 +2447,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2113,16 +2459,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="27" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2130,13 +2476,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>164</v>
+        <v>207</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>166</v>
+        <v>208</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2144,13 +2490,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>164</v>
+        <v>207</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>162</v>
+        <v>205</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2158,13 +2504,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>165</v>
+        <v>207</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>163</v>
+        <v>206</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -2223,7 +2569,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2286,7 +2632,7 @@
         <v>18</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2409,10 +2755,10 @@
         <v>21016</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -2423,10 +2769,10 @@
         <v>21017</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -2437,10 +2783,10 @@
         <v>21243</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -2451,10 +2797,10 @@
         <v>21244</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -2465,10 +2811,10 @@
         <v>21248</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -2479,10 +2825,10 @@
         <v>21249</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -2493,10 +2839,10 @@
         <v>21250</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -2507,10 +2853,10 @@
         <v>21251</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -2521,10 +2867,10 @@
         <v>21314</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -2532,13 +2878,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>21315</v>
+        <v>21340</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -2583,7 +2929,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D2" s="1"/>
     </row>
@@ -2718,7 +3064,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2744,10 +3090,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>25</v>
+        <v>221</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>92</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2755,10 +3101,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>25</v>
+        <v>221</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>93</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -2766,10 +3112,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>25</v>
+        <v>221</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>94</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -2777,10 +3123,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>26</v>
+        <v>221</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>95</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -2788,10 +3134,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>221</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>96</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -2799,10 +3145,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>27</v>
+        <v>221</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>97</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -2810,10 +3156,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>27</v>
+        <v>221</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>98</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -2821,10 +3167,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>25</v>
+        <v>221</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>99</v>
+        <v>216</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -2832,10 +3178,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>28</v>
+        <v>221</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>100</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -2843,10 +3189,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>152</v>
+        <v>221</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>153</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -2854,10 +3200,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>156</v>
+        <v>221</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>155</v>
+        <v>219</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -2865,10 +3211,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>157</v>
+        <v>221</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>154</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -2904,10 +3250,10 @@
         <v>23</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -2915,10 +3261,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D2" s="8">
         <v>1000000</v>
@@ -2932,10 +3278,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D3" s="8">
         <v>2000000</v>
@@ -2949,10 +3295,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D4" s="8">
         <v>5000000</v>
@@ -2966,13 +3312,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2983,13 +3329,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -3000,10 +3346,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D7" s="8">
         <v>50000000</v>
@@ -3017,10 +3363,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D8" s="8">
         <v>100000000</v>
@@ -3034,13 +3380,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -3051,13 +3397,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -3068,10 +3414,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D11" s="8">
         <v>1000000000</v>
@@ -3085,10 +3431,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D12" s="8">
         <v>2000000000</v>
@@ -3102,10 +3448,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D13" s="8">
         <v>5000000000</v>
@@ -3119,10 +3465,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D14" s="8">
         <v>10000000000</v>
@@ -3136,10 +3482,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8">
         <v>20000000000</v>
@@ -3153,10 +3499,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D16" s="8">
         <v>50000000000</v>
@@ -3202,13 +3548,13 @@
         <v>23</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -3216,13 +3562,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -3233,13 +3579,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -3250,13 +3596,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -3267,13 +3613,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3284,13 +3630,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -3301,13 +3647,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -3318,13 +3664,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -3335,13 +3681,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -3352,13 +3698,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -3369,13 +3715,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -3386,13 +3732,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -3403,13 +3749,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -3420,13 +3766,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -3437,10 +3783,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="D15" s="8">
         <v>20000000000</v>
@@ -3454,10 +3800,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="D16" s="8">
         <v>50000000000</v>
@@ -3466,7 +3812,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.2">
@@ -3506,13 +3852,13 @@
         <v>23</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -3520,13 +3866,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -3537,13 +3883,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -3554,13 +3900,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -3571,13 +3917,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3588,13 +3934,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -3605,13 +3951,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -3622,13 +3968,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -3639,13 +3985,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -3656,13 +4002,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -3673,13 +4019,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>199</v>
+        <v>175</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -3690,13 +4036,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -3707,13 +4053,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>197</v>
+        <v>173</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -3724,13 +4070,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>202</v>
+        <v>178</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -3741,13 +4087,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -3758,10 +4104,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>200</v>
+        <v>176</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="D16" s="8">
         <v>50000000000</v>
@@ -3770,7 +4116,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.2">
@@ -3788,7 +4134,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3809,7 +4155,7 @@
         <v>23</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E1" s="6"/>
     </row>
@@ -3818,13 +4164,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -3832,13 +4178,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -3846,13 +4192,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -3860,13 +4206,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -3874,13 +4220,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -3888,13 +4234,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -3902,13 +4248,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -3916,13 +4262,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/vip2_config.xlsx
+++ b/config_Release/vip2_config.xlsx
@@ -366,10 +366,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>"xycj","panel"</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>4、享受vip专享福利</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -967,36 +963,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>"VIP1礼包","(购买条件:VIP等级≥1)",</t>
-  </si>
-  <si>
-    <t>"VIP2礼包","(购买条件:VIP等级≥2)",</t>
-  </si>
-  <si>
-    <t>"VIP3礼包","(购买条件:VIP等级≥3)",</t>
-  </si>
-  <si>
-    <t>"VIP4礼包","(购买条件:VIP等级≥4)",</t>
-  </si>
-  <si>
-    <t>"VIP5礼包","(购买条件:VIP等级≥5)",</t>
-  </si>
-  <si>
-    <t>"VIP6礼包","(购买条件:VIP等级≥6)",</t>
-  </si>
-  <si>
-    <t>"VIP7礼包","(购买条件:VIP等级≥7)",</t>
-  </si>
-  <si>
-    <t>"VIP8礼包","(购买条件:VIP等级≥8)",</t>
-  </si>
-  <si>
-    <t>"VIP9礼包","(购买条件:VIP等级≥9)",</t>
-  </si>
-  <si>
-    <t>"VIP10礼包","(购买条件:VIP等级≥10)",</t>
-  </si>
-  <si>
     <t>origin_price|价格</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1035,6 +1001,39 @@
   <si>
     <t>2、福利券容量提升为&lt;color=#C86715&gt;200万福利券&lt;/color&gt;</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"VIP1礼包","(购买条件:&lt;color=#EDD112&gt;VIP等级≥1&lt;/color&gt;)",</t>
+  </si>
+  <si>
+    <t>"VIP2礼包","(购买条件:&lt;color=#EDD112&gt;VIP等级≥2&lt;/color&gt;)",</t>
+  </si>
+  <si>
+    <t>"VIP3礼包","(购买条件:&lt;color=#EDD112&gt;VIP等级≥3&lt;/color&gt;)",</t>
+  </si>
+  <si>
+    <t>"VIP4礼包","(购买条件:&lt;color=#EDD112&gt;VIP等级≥4&lt;/color&gt;)",</t>
+  </si>
+  <si>
+    <t>"VIP5礼包","(购买条件:&lt;color=#EDD112&gt;VIP等级≥5&lt;/color&gt;)",</t>
+  </si>
+  <si>
+    <t>"VIP6礼包","(购买条件:&lt;color=#EDD112&gt;VIP等级≥6&lt;/color&gt;)",</t>
+  </si>
+  <si>
+    <t>"VIP7礼包","(购买条件:&lt;color=#EDD112&gt;VIP等级≥7&lt;/color&gt;)",</t>
+  </si>
+  <si>
+    <t>"VIP8礼包","(购买条件:&lt;color=#EDD112&gt;VIP等级≥8&lt;/color&gt;)",</t>
+  </si>
+  <si>
+    <t>"VIP9礼包","(购买条件:&lt;color=#EDD112&gt;VIP等级≥9&lt;/color&gt;)",</t>
+  </si>
+  <si>
+    <t>"VIP10礼包","(购买条件:&lt;color=#EDD112&gt;VIP等级≥10&lt;/color&gt;)",</t>
+  </si>
+  <si>
+    <t>"sys_flqcj","panel"</t>
   </si>
 </sst>
 </file>
@@ -1535,8 +1534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1554,7 +1553,7 @@
         <v>76</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -1566,10 +1565,10 @@
         <v>77</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -1583,13 +1582,13 @@
         <v>10</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>85</v>
+        <v>256</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -1603,11 +1602,11 @@
         <v>10</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E3" s="5"/>
       <c r="G3" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1621,11 +1620,11 @@
         <v>10</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E4" s="13"/>
       <c r="G4" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1639,11 +1638,11 @@
         <v>10</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E5" s="5"/>
       <c r="G5" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -1657,13 +1656,13 @@
         <v>200</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>85</v>
+        <v>256</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1677,11 +1676,11 @@
         <v>200</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E7" s="14"/>
       <c r="G7" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1695,11 +1694,11 @@
         <v>200</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E8" s="5"/>
       <c r="G8" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1713,13 +1712,13 @@
         <v>500</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>85</v>
+        <v>256</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1733,10 +1732,10 @@
         <v>500</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1750,10 +1749,10 @@
         <v>500</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1767,13 +1766,13 @@
         <v>1000</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>85</v>
+        <v>256</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1787,10 +1786,10 @@
         <v>1000</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1804,10 +1803,10 @@
         <v>1000</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1821,13 +1820,13 @@
         <v>2000</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>85</v>
+        <v>256</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1841,11 +1840,11 @@
         <v>2000</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E16" s="22"/>
       <c r="G16" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -1859,11 +1858,11 @@
         <v>2000</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E17" s="21"/>
       <c r="G17" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -1877,11 +1876,11 @@
         <v>2000</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E18" s="21"/>
       <c r="G18" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -1895,13 +1894,13 @@
         <v>5000</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>85</v>
+        <v>256</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -1915,10 +1914,10 @@
         <v>5000</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G20" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -1932,11 +1931,11 @@
         <v>5000</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E21" s="21"/>
       <c r="G21" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -1950,13 +1949,13 @@
         <v>10000</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>85</v>
+        <v>256</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -1970,11 +1969,11 @@
         <v>10000</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E23" s="22"/>
       <c r="G23" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -1988,11 +1987,11 @@
         <v>10000</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E24" s="21"/>
       <c r="G24" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -2006,13 +2005,13 @@
         <v>20000</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>85</v>
+        <v>256</v>
       </c>
       <c r="G25" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -2026,11 +2025,11 @@
         <v>20000</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="E26" s="22"/>
       <c r="G26" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -2044,11 +2043,11 @@
         <v>20000</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E27" s="21"/>
       <c r="G27" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -2062,13 +2061,13 @@
         <v>30000</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>85</v>
+        <v>256</v>
       </c>
       <c r="G28" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -2082,11 +2081,11 @@
         <v>30000</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E29" s="22"/>
       <c r="G29" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -2100,11 +2099,11 @@
         <v>30000</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E30" s="21"/>
       <c r="G30" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -2118,13 +2117,13 @@
         <v>50000</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>85</v>
+        <v>256</v>
       </c>
       <c r="G31" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -2138,11 +2137,11 @@
         <v>50000</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E32" s="22"/>
       <c r="G32" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -2156,11 +2155,11 @@
         <v>50000</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E33" s="21"/>
       <c r="G33" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -2190,7 +2189,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2208,22 +2207,22 @@
         <v>13</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>225</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -2234,17 +2233,17 @@
         <v>10244</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="D2" s="17"/>
       <c r="E2">
         <v>6</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -2255,17 +2254,17 @@
         <v>10245</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3">
         <v>28</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -2276,17 +2275,17 @@
         <v>10246</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="D4" s="17"/>
       <c r="E4">
         <v>48</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -2297,17 +2296,17 @@
         <v>10247</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5">
         <v>99</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -2318,17 +2317,17 @@
         <v>10248</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6">
         <v>198</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -2339,17 +2338,17 @@
         <v>10249</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7">
         <v>298</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="G7" s="24" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -2360,17 +2359,17 @@
         <v>10250</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="D8" s="17"/>
       <c r="E8">
         <v>398</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="G8" s="24" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -2381,17 +2380,17 @@
         <v>10251</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9">
         <v>498</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -2402,17 +2401,17 @@
         <v>10252</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10">
         <v>598</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="G10" s="24" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -2423,17 +2422,17 @@
         <v>10253</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="D11" s="17"/>
       <c r="E11">
         <v>698</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="G11" s="24" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -2446,8 +2445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40:C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2476,13 +2475,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>208</v>
-      </c>
       <c r="D2" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2490,10 +2489,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>65</v>
@@ -2504,10 +2503,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>64</v>
@@ -2569,7 +2568,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2632,7 +2631,7 @@
         <v>18</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2783,10 +2782,10 @@
         <v>21243</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -2797,10 +2796,10 @@
         <v>21244</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -2811,10 +2810,10 @@
         <v>21248</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -2825,10 +2824,10 @@
         <v>21249</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -2839,10 +2838,10 @@
         <v>21250</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -2853,10 +2852,10 @@
         <v>21251</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -2870,7 +2869,7 @@
         <v>75</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -2881,10 +2880,10 @@
         <v>21340</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -3090,10 +3089,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -3101,10 +3100,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -3112,10 +3111,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -3123,10 +3122,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -3134,10 +3133,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -3145,10 +3144,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -3156,10 +3155,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -3167,10 +3166,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -3178,10 +3177,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -3189,10 +3188,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -3200,10 +3199,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -3211,10 +3210,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -3468,7 +3467,7 @@
         <v>36</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D14" s="8">
         <v>10000000000</v>
@@ -3548,13 +3547,13 @@
         <v>23</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>25</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -3568,7 +3567,7 @@
         <v>40</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -3582,10 +3581,10 @@
         <v>27</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>94</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>95</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -3599,10 +3598,10 @@
         <v>29</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>96</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>97</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -3616,10 +3615,10 @@
         <v>29</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>98</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>99</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3633,10 +3632,10 @@
         <v>29</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -3650,10 +3649,10 @@
         <v>29</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -3667,10 +3666,10 @@
         <v>29</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -3684,10 +3683,10 @@
         <v>29</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -3701,10 +3700,10 @@
         <v>29</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -3715,13 +3714,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -3732,13 +3731,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -3749,13 +3748,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -3766,13 +3765,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -3783,10 +3782,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D15" s="8">
         <v>20000000000</v>
@@ -3800,10 +3799,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>120</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>121</v>
       </c>
       <c r="D16" s="8">
         <v>50000000000</v>
@@ -3812,7 +3811,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.2">
@@ -3858,7 +3857,7 @@
         <v>25</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -3869,10 +3868,10 @@
         <v>27</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -3886,10 +3885,10 @@
         <v>27</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -3903,10 +3902,10 @@
         <v>29</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -3920,10 +3919,10 @@
         <v>29</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3937,10 +3936,10 @@
         <v>29</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -3954,10 +3953,10 @@
         <v>29</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -3971,7 +3970,7 @@
         <v>29</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>46</v>
@@ -3988,10 +3987,10 @@
         <v>29</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -4005,10 +4004,10 @@
         <v>29</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -4019,13 +4018,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -4036,13 +4035,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -4053,13 +4052,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -4070,13 +4069,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -4087,13 +4086,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -4104,10 +4103,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D16" s="8">
         <v>50000000000</v>
@@ -4116,7 +4115,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.2">

--- a/config_Release/vip2_config.xlsx
+++ b/config_Release/vip2_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="597"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="597" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="dangci|档次" sheetId="7" r:id="rId1"/>
@@ -22,13 +22,14 @@
     <sheet name="yjtz_three|赢金挑战三期" sheetId="16" r:id="rId8"/>
     <sheet name="qys|千元赛" sheetId="12" r:id="rId9"/>
     <sheet name="gift|VIP礼包" sheetId="17" r:id="rId10"/>
+    <sheet name="fhfl|富豪福利" sheetId="18" r:id="rId11"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="301">
   <si>
     <t>total|总共充值</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -366,10 +367,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>4、享受vip专享福利</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>华为荣耀平板</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -380,18 +377,6 @@
   <si>
     <t>cfz|财富值</t>
     <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、可使用Vip超级转盘，每日可抽&lt;color=#C86715&gt;2次&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>1、可使用Vip超级转盘，每日可抽&lt;color=#C86715&gt;5次&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>1、可使用Vip超级转盘，每日可抽&lt;color=#C86715&gt;30次&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>1、可使用Vip超级转盘，每日可抽&lt;color=#C86715&gt;50次&lt;/color&gt;</t>
   </si>
   <si>
     <t>8000鲸币</t>
@@ -757,10 +742,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>3、享受兑换商城商品&lt;color=#C86715&gt;99%&lt;/color&gt;兑换权</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>1.游戏内带有超值标签的礼包不计入vip累计金额;\n2.福利券超出容量后会自动转换为金币。</t>
   </si>
   <si>
@@ -768,10 +749,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>1、可使用Vip超级转盘，每日可抽&lt;color=#C86715&gt;10次&lt;/color&gt;</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>3、享受vip2所有特权并提高部分特权奖励</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -780,30 +757,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>1、可使用Vip超级转盘，每日可抽&lt;color=#C86715&gt;20次&lt;/color&gt;</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2、福利券容量提升为&lt;color=#C86715&gt;8万福利券&lt;/color&gt;</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2、福利券容量提升为&lt;color=#C86715&gt;2万福利券&lt;/color&gt;</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2、福利券容量提升为&lt;color=#C86715&gt;20万福利券&lt;/color&gt;</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2、福利券容量提升为&lt;color=#C86715&gt;40万福利券&lt;/color&gt;</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2、福利券容量提升为&lt;color=#C86715&gt;60万福利券&lt;/color&gt;</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>3、畅玩所有游戏</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -812,18 +765,10 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>2、福利券容量提升为&lt;color=#C86715&gt;80万福利券&lt;/color&gt;</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>3、享受vip5所有特权并提高部分特权奖励</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>2、福利券容量提升为&lt;color=#C86715&gt;100万福利券&lt;/color&gt;</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>3、享受vip6所有特权并提高部分特权奖励</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -832,208 +777,430 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>2、福利券容量提升为&lt;color=#C86715&gt;300万福利券&lt;/color&gt;</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>3、享受vip8所有特权并提高部分特权奖励</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>2、福利券容量提升为&lt;color=#C86715&gt;500万福利券&lt;/color&gt;</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>3、享受vip9所有特权并提高部分特权奖励</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>"30万鱼币","太阳*6","锁定*1"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"66万鱼币","太阳*10","锁定*1"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"com_award_icon_yb1","zpg_icon_yg","3dby_btn_sd"</t>
+    <t>"1.66万鲸币","锁定*1","记牌器*1"</t>
+  </si>
+  <si>
+    <t>"3.66万鲸币","锁定*1","记牌器*1"</t>
+  </si>
+  <si>
+    <t>"6.66万鲸币","锁定*1","记牌器*2"</t>
+  </si>
+  <si>
+    <t>"12.66万鲸币","锁定*1","记牌器*2"</t>
+  </si>
+  <si>
+    <t>"16.66万鲸币","锁定*1","记牌器*3"</t>
+  </si>
+  <si>
+    <t>"18.66万鲸币","锁定*1","记牌器*3"</t>
+  </si>
+  <si>
+    <t>"28.66万鲸币","锁定*1","记牌器*4"</t>
+  </si>
+  <si>
+    <t>"38.66万鲸币","锁定*1","记牌器*4"</t>
+  </si>
+  <si>
+    <t>"48.66万鲸币","锁定*1","记牌器*5"</t>
+  </si>
+  <si>
+    <t>"58.66万鲸币","锁定*1","记牌器*5"</t>
+  </si>
+  <si>
+    <t>"68.66万鲸币","锁定*1","记牌器*5"</t>
+  </si>
+  <si>
+    <t>"78.66万鲸币","锁定*1","记牌器*5"</t>
+  </si>
+  <si>
+    <t>"com_icon_gold","prop_3d_fish_lock","bag_icon_jipaiqi"</t>
+  </si>
+  <si>
+    <t>gift_id|礼包ID</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>title|名字</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>price|价格</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>award_img|图片</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>award_txt|描述</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"75万","1","1",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"318万","5","5",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"538万","10","10",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1108万","20","20",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2218万","40","40",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"3288万","68","60",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4388万","88","80",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"5488万","110","100",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"6488万","148","100",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"7688万","158","100",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>origin_price|价格</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_48y","3dby_btn_zh","3dby_btn_sd",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_198y","3dby_btn_zh","3dby_btn_sd",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_198y","3dby_btn_zh","3dby_btn_sd",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_98y","3dby_btn_zh","3dby_btn_sd",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_98y","3dby_btn_zh","3dby_btn_sd",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_50y","3dby_btn_zh","3dby_btn_sd",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_50y","3dby_btn_zh","3dby_btn_sd",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_50y","3dby_btn_zh","3dby_btn_sd",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"VIP1礼包","(购买条件:&lt;color=#EDD112&gt;VIP等级≥1&lt;/color&gt;)",</t>
+  </si>
+  <si>
+    <t>"VIP2礼包","(购买条件:&lt;color=#EDD112&gt;VIP等级≥2&lt;/color&gt;)",</t>
+  </si>
+  <si>
+    <t>"VIP3礼包","(购买条件:&lt;color=#EDD112&gt;VIP等级≥3&lt;/color&gt;)",</t>
+  </si>
+  <si>
+    <t>"VIP4礼包","(购买条件:&lt;color=#EDD112&gt;VIP等级≥4&lt;/color&gt;)",</t>
+  </si>
+  <si>
+    <t>"VIP5礼包","(购买条件:&lt;color=#EDD112&gt;VIP等级≥5&lt;/color&gt;)",</t>
+  </si>
+  <si>
+    <t>"VIP6礼包","(购买条件:&lt;color=#EDD112&gt;VIP等级≥6&lt;/color&gt;)",</t>
+  </si>
+  <si>
+    <t>"VIP7礼包","(购买条件:&lt;color=#EDD112&gt;VIP等级≥7&lt;/color&gt;)",</t>
+  </si>
+  <si>
+    <t>"VIP8礼包","(购买条件:&lt;color=#EDD112&gt;VIP等级≥8&lt;/color&gt;)",</t>
+  </si>
+  <si>
+    <t>"VIP9礼包","(购买条件:&lt;color=#EDD112&gt;VIP等级≥9&lt;/color&gt;)",</t>
+  </si>
+  <si>
+    <t>"VIP10礼包","(购买条件:&lt;color=#EDD112&gt;VIP等级≥10&lt;/color&gt;)",</t>
+  </si>
+  <si>
+    <t>"sys_flqcj","panel"</t>
+  </si>
+  <si>
+    <t>task_id|任务ID</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>title|描述</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>award_img|奖励图片</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>award_txt|奖励文字</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>身上拥有200万金币</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>身上拥有500万金币</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>身上拥有1000万金币</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>身上拥有2000万金币</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>身上拥有5000万金币</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>身上拥有1亿金币</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>身上拥有2亿金币</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>身上拥有5亿金币</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>身上拥有10亿金币</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>身上拥有20亿金币</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>身上拥有30亿金币</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>身上拥有50亿金币</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_6y","3dby_btn_sd","3dby_btn_bd",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_6y","3dby_btn_sd","3dby_btn_bd",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_15y","3dby_btn_sd","3dby_btn_bd",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_18y","3dby_btn_sd","3dby_btn_bd",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_30y","3dby_btn_sd","3dby_btn_bd",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_48y","3dby_btn_sd","3dby_btn_bd",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_50y","3dby_btn_sd","3dby_btn_bd",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_98y","3dby_btn_sd","3dby_btn_bd",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_198y","3dby_btn_sd","3dby_btn_bd",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_498y","3dby_btn_sd","3dby_btn_bd",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_998y","3dby_btn_sd","3dby_btn_bd",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_2498y","3dby_btn_sd","3dby_btn_bd",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"8万金币","锁定*1","冰冻*1",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"18万金币","锁定*1","冰冻*1",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"28万金币","锁定*1","冰冻*1",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"38万金币","锁定*2","冰冻*2",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"48万金币","锁定*2","冰冻*2",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"88万金币","锁定*2","冰冻*2",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"128万金币","锁定*3","冰冻*3",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"188万金币","锁定*3","冰冻*3",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"288万金币","锁定*3","冰冻*3",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"488万金币","锁定*5","冰冻*5",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"588万金币","锁定*5","冰冻*5",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"388万金币","锁定*5","冰冻*5",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"com_award_icon_yb1","zpg_icon_yg","3dby_btn_zh"</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>"10万鱼币","太阳*2","锁定*1"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"1.66万鲸币","锁定*1","记牌器*1"</t>
-  </si>
-  <si>
-    <t>"3.66万鲸币","锁定*1","记牌器*1"</t>
-  </si>
-  <si>
-    <t>"6.66万鲸币","锁定*1","记牌器*2"</t>
-  </si>
-  <si>
-    <t>"12.66万鲸币","锁定*1","记牌器*2"</t>
-  </si>
-  <si>
-    <t>"16.66万鲸币","锁定*1","记牌器*3"</t>
-  </si>
-  <si>
-    <t>"18.66万鲸币","锁定*1","记牌器*3"</t>
-  </si>
-  <si>
-    <t>"28.66万鲸币","锁定*1","记牌器*4"</t>
-  </si>
-  <si>
-    <t>"38.66万鲸币","锁定*1","记牌器*4"</t>
-  </si>
-  <si>
-    <t>"48.66万鲸币","锁定*1","记牌器*5"</t>
-  </si>
-  <si>
-    <t>"58.66万鲸币","锁定*1","记牌器*5"</t>
-  </si>
-  <si>
-    <t>"68.66万鲸币","锁定*1","记牌器*5"</t>
-  </si>
-  <si>
-    <t>"78.66万鲸币","锁定*1","记牌器*5"</t>
-  </si>
-  <si>
-    <t>"com_icon_gold","prop_3d_fish_lock","bag_icon_jipaiqi"</t>
-  </si>
-  <si>
-    <t>gift_id|礼包ID</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>title|名字</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>price|价格</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>award_img|图片</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>award_txt|描述</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"75万","1","1",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"318万","5","5",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"538万","10","10",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"1108万","20","20",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"2218万","40","40",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"3288万","68","60",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"4388万","88","80",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"5488万","110","100",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"6488万","148","100",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"7688万","158","100",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>origin_price|价格</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_jb_48y","3dby_btn_zh","3dby_btn_sd",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_jb_198y","3dby_btn_zh","3dby_btn_sd",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_jb_198y","3dby_btn_zh","3dby_btn_sd",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_jb_98y","3dby_btn_zh","3dby_btn_sd",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_jb_98y","3dby_btn_zh","3dby_btn_sd",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_jb_50y","3dby_btn_zh","3dby_btn_sd",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_jb_50y","3dby_btn_zh","3dby_btn_sd",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_jb_50y","3dby_btn_zh","3dby_btn_sd",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2、福利券容量提升为&lt;color=#C86715&gt;200万福利券&lt;/color&gt;</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"VIP1礼包","(购买条件:&lt;color=#EDD112&gt;VIP等级≥1&lt;/color&gt;)",</t>
-  </si>
-  <si>
-    <t>"VIP2礼包","(购买条件:&lt;color=#EDD112&gt;VIP等级≥2&lt;/color&gt;)",</t>
-  </si>
-  <si>
-    <t>"VIP3礼包","(购买条件:&lt;color=#EDD112&gt;VIP等级≥3&lt;/color&gt;)",</t>
-  </si>
-  <si>
-    <t>"VIP4礼包","(购买条件:&lt;color=#EDD112&gt;VIP等级≥4&lt;/color&gt;)",</t>
-  </si>
-  <si>
-    <t>"VIP5礼包","(购买条件:&lt;color=#EDD112&gt;VIP等级≥5&lt;/color&gt;)",</t>
-  </si>
-  <si>
-    <t>"VIP6礼包","(购买条件:&lt;color=#EDD112&gt;VIP等级≥6&lt;/color&gt;)",</t>
-  </si>
-  <si>
-    <t>"VIP7礼包","(购买条件:&lt;color=#EDD112&gt;VIP等级≥7&lt;/color&gt;)",</t>
-  </si>
-  <si>
-    <t>"VIP8礼包","(购买条件:&lt;color=#EDD112&gt;VIP等级≥8&lt;/color&gt;)",</t>
-  </si>
-  <si>
-    <t>"VIP9礼包","(购买条件:&lt;color=#EDD112&gt;VIP等级≥9&lt;/color&gt;)",</t>
-  </si>
-  <si>
-    <t>"VIP10礼包","(购买条件:&lt;color=#EDD112&gt;VIP等级≥10&lt;/color&gt;)",</t>
-  </si>
-  <si>
-    <t>"sys_flqcj","panel"</t>
+    <t>"com_award_icon_yb1","zpg_icon_yg","3dby_btn_zh"</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"10万鱼币","太阳*2","召唤*10"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"30万鱼币","太阳*6","召唤*10"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"66万鱼币","太阳*10","召唤*10"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、可使用Vip超级转盘，每日可抽&lt;color=#DA2020&gt;5次&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>2、福利券容量提升为&lt;color=#DA2020&gt;8万福利券&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>1、可使用Vip超级转盘，每日可抽&lt;color=#DA2020&gt;10次&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>2、福利券容量提升为&lt;color=#DA2020&gt;20万福利券&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>1、可使用Vip超级转盘，每日可抽&lt;color=#DA2020&gt;20次&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>2、福利券容量提升为&lt;color=#DA2020&gt;40万福利券&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>1、可使用Vip超级转盘，每日可抽&lt;color=#DA2020&gt;30次&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>2、福利券容量提升为&lt;color=#DA2020&gt;60万福利券&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>1、可使用Vip超级转盘，每日可抽&lt;color=#DA2020&gt;50次&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>2、福利券容量提升为&lt;color=#DA2020&gt;80万福利券&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>2、福利券容量提升为&lt;color=#DA2020&gt;100万福利券&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>2、福利券容量提升为&lt;color=#DA2020&gt;200万福利券&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>2、福利券容量提升为&lt;color=#DA2020&gt;300万福利券&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>2、福利券容量提升为&lt;color=#DA2020&gt;500万福利券&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>condition|进度</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>award_progress_lv|奖励阶段等级</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、福利券容量提升为&lt;color=#DA2020&gt;2万福利券&lt;/color&gt;</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、享受兑换商城商品&lt;color=#DA2020&gt;99%&lt;/color&gt;兑换权</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、享受vip专享福利</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>fhfl</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>富豪福利</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1532,10 +1699,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1553,7 +1720,7 @@
         <v>76</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -1565,10 +1732,10 @@
         <v>77</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -1582,16 +1749,14 @@
         <v>10</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>296</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="G2" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1601,12 +1766,12 @@
       <c r="C3" s="1">
         <v>10</v>
       </c>
-      <c r="D3" s="15" t="s">
-        <v>189</v>
-      </c>
-      <c r="E3" s="5"/>
+      <c r="D3" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="E3" s="13"/>
       <c r="G3" s="5" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1620,32 +1785,34 @@
         <v>10</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="E4" s="13"/>
+        <v>298</v>
+      </c>
+      <c r="E4" s="5"/>
       <c r="G4" s="5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1">
-        <v>10</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="G5" s="5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1656,13 +1823,11 @@
         <v>200</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>182</v>
+        <v>281</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="G6" s="5" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1675,30 +1840,32 @@
       <c r="C7" s="1">
         <v>200</v>
       </c>
-      <c r="D7" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="E7" s="14"/>
+      <c r="D7" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="E7" s="5"/>
       <c r="G7" s="5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
-        <v>2</v>
-      </c>
-      <c r="C8" s="1">
-        <v>200</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>183</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="G8" s="5" t="s">
-        <v>182</v>
+      <c r="B8" s="19">
+        <v>3</v>
+      </c>
+      <c r="C8" s="19">
+        <v>500</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1712,13 +1879,10 @@
         <v>500</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="G9" s="21" t="s">
-        <v>182</v>
+        <v>283</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1731,11 +1895,11 @@
       <c r="C10" s="19">
         <v>500</v>
       </c>
-      <c r="D10" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="G10" s="19" t="s">
-        <v>182</v>
+      <c r="D10" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1743,16 +1907,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C11" s="19">
-        <v>500</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>185</v>
+        <v>1000</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>234</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1766,13 +1933,10 @@
         <v>1000</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>256</v>
+        <v>285</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1785,11 +1949,11 @@
       <c r="C13" s="19">
         <v>1000</v>
       </c>
-      <c r="D13" s="15" t="s">
-        <v>191</v>
+      <c r="D13" s="16" t="s">
+        <v>179</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1797,16 +1961,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C14" s="19">
-        <v>1000</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="G14" s="21" t="s">
-        <v>182</v>
+        <v>2000</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1820,16 +1987,14 @@
         <v>2000</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="G15" s="19" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>287</v>
+      </c>
+      <c r="E15" s="22"/>
+      <c r="G15" s="21" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1839,12 +2004,12 @@
       <c r="C16" s="19">
         <v>2000</v>
       </c>
-      <c r="D16" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="E16" s="22"/>
-      <c r="G16" s="21" t="s">
-        <v>182</v>
+      <c r="D16" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="E16" s="21"/>
+      <c r="G16" s="19" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -1858,11 +2023,11 @@
         <v>2000</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="E17" s="21"/>
-      <c r="G17" s="19" t="s">
-        <v>182</v>
+      <c r="G17" s="21" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -1870,17 +2035,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C18" s="19">
-        <v>2000</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="E18" s="21"/>
-      <c r="G18" s="21" t="s">
-        <v>182</v>
+        <v>5000</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -1894,13 +2061,10 @@
         <v>5000</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="G19" s="19" t="s">
-        <v>182</v>
+        <v>289</v>
+      </c>
+      <c r="G19" s="21" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -1913,11 +2077,12 @@
       <c r="C20" s="19">
         <v>5000</v>
       </c>
-      <c r="D20" s="15" t="s">
-        <v>195</v>
-      </c>
+      <c r="D20" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="E20" s="21"/>
       <c r="G20" s="21" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -1925,17 +2090,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="19">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C21" s="19">
-        <v>5000</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="E21" s="21"/>
-      <c r="G21" s="21" t="s">
-        <v>182</v>
+        <v>10000</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -1949,13 +2116,11 @@
         <v>10000</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="E22" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="G22" s="19" t="s">
-        <v>182</v>
+        <v>290</v>
+      </c>
+      <c r="E22" s="22"/>
+      <c r="G22" s="21" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -1968,12 +2133,12 @@
       <c r="C23" s="19">
         <v>10000</v>
       </c>
-      <c r="D23" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="E23" s="22"/>
-      <c r="G23" s="21" t="s">
-        <v>182</v>
+      <c r="D23" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="E23" s="21"/>
+      <c r="G23" s="19" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -1981,17 +2146,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="19">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" s="19">
-        <v>10000</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="E24" s="21"/>
-      <c r="G24" s="19" t="s">
-        <v>182</v>
+        <v>20000</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="G24" s="21" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -2005,13 +2172,11 @@
         <v>20000</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="E25" s="21" t="s">
-        <v>256</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="E25" s="22"/>
       <c r="G25" s="21" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -2024,12 +2189,12 @@
       <c r="C26" s="19">
         <v>20000</v>
       </c>
-      <c r="D26" s="15" t="s">
-        <v>245</v>
-      </c>
-      <c r="E26" s="22"/>
+      <c r="D26" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="E26" s="21"/>
       <c r="G26" s="21" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -2037,17 +2202,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="19">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" s="19">
-        <v>20000</v>
-      </c>
-      <c r="D27" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="E27" s="21"/>
+        <v>30000</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>234</v>
+      </c>
       <c r="G27" s="21" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -2061,13 +2228,11 @@
         <v>30000</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="E28" s="21" t="s">
-        <v>256</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="E28" s="22"/>
       <c r="G28" s="21" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -2080,12 +2245,12 @@
       <c r="C29" s="19">
         <v>30000</v>
       </c>
-      <c r="D29" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="E29" s="22"/>
+      <c r="D29" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="E29" s="21"/>
       <c r="G29" s="21" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -2093,17 +2258,19 @@
         <v>29</v>
       </c>
       <c r="B30" s="19">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C30" s="19">
-        <v>30000</v>
-      </c>
-      <c r="D30" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="E30" s="21"/>
+        <v>50000</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>234</v>
+      </c>
       <c r="G30" s="21" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -2117,13 +2284,11 @@
         <v>50000</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="E31" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="G31" s="21" t="s">
-        <v>182</v>
+        <v>293</v>
+      </c>
+      <c r="E31" s="22"/>
+      <c r="G31" s="19" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -2136,46 +2301,28 @@
       <c r="C32" s="19">
         <v>50000</v>
       </c>
-      <c r="D32" s="23" t="s">
-        <v>202</v>
-      </c>
-      <c r="E32" s="22"/>
-      <c r="G32" s="19" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
-        <v>32</v>
-      </c>
-      <c r="B33" s="19">
-        <v>10</v>
-      </c>
-      <c r="C33" s="19">
-        <v>50000</v>
-      </c>
-      <c r="D33" s="20" t="s">
-        <v>203</v>
-      </c>
-      <c r="E33" s="21"/>
-      <c r="G33" s="21" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D32" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="E32" s="21"/>
+      <c r="G32" s="21" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D33" s="12"/>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D34" s="12"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D35" s="12"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D36" s="12"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D37" s="12"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D38" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -2189,7 +2336,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection sqref="A1:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2207,22 +2354,22 @@
         <v>13</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -2233,17 +2380,17 @@
         <v>10244</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>246</v>
+        <v>224</v>
       </c>
       <c r="D2" s="17"/>
       <c r="E2">
         <v>6</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>237</v>
+        <v>216</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>226</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -2254,17 +2401,17 @@
         <v>10245</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3">
         <v>28</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>237</v>
+        <v>216</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -2275,17 +2422,17 @@
         <v>10246</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="D4" s="17"/>
       <c r="E4">
         <v>48</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>237</v>
+        <v>216</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>228</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -2296,17 +2443,17 @@
         <v>10247</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5">
         <v>99</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>244</v>
+        <v>223</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>229</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -2317,17 +2464,17 @@
         <v>10248</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6">
         <v>198</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>243</v>
+        <v>222</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -2338,17 +2485,17 @@
         <v>10249</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7">
         <v>298</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>242</v>
+        <v>221</v>
       </c>
       <c r="G7" s="24" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -2359,17 +2506,17 @@
         <v>10250</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="D8" s="17"/>
       <c r="E8">
         <v>398</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>241</v>
+        <v>220</v>
       </c>
       <c r="G8" s="24" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -2380,17 +2527,17 @@
         <v>10251</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9">
         <v>498</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -2401,17 +2548,17 @@
         <v>10252</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10">
         <v>598</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
       <c r="G10" s="24" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -2422,17 +2569,339 @@
         <v>10253</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>255</v>
+        <v>233</v>
       </c>
       <c r="D11" s="17"/>
       <c r="E11">
         <v>698</v>
       </c>
       <c r="F11" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>214</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="60" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="27" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="G11" s="24" t="s">
-        <v>235</v>
+      <c r="G1" s="6" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>21341</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="D2" s="17">
+        <v>2000000</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>21341</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="D3" s="17">
+        <v>5000000</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>21341</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="D4" s="17">
+        <v>10000000</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>21341</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="D5" s="17">
+        <v>20000000</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>21341</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="D6" s="17">
+        <v>50000000</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>21341</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="D7" s="17">
+        <v>100000000</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="G7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>21341</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="D8" s="17">
+        <v>200000000</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="G8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>21341</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="D9" s="17">
+        <v>500000000</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="G9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>21341</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="D10" s="17">
+        <v>1000000000</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="G10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>21341</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="D11" s="17">
+        <v>2000000000</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="G11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>21341</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="D12" s="17">
+        <v>3000000000</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="G12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>21341</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="D13" s="17">
+        <v>5000000000</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="G13">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -2445,8 +2914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40:C42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2475,13 +2944,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>206</v>
+        <v>275</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>207</v>
+        <v>277</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2489,10 +2958,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>206</v>
+        <v>275</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>204</v>
+        <v>278</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>65</v>
@@ -2503,10 +2972,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>206</v>
+        <v>276</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>205</v>
+        <v>279</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>64</v>
@@ -2565,10 +3034,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2631,7 +3100,7 @@
         <v>18</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2782,10 +3251,10 @@
         <v>21243</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -2796,10 +3265,10 @@
         <v>21244</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -2810,10 +3279,10 @@
         <v>21248</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -2824,10 +3293,10 @@
         <v>21249</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -2838,10 +3307,10 @@
         <v>21250</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -2852,10 +3321,10 @@
         <v>21251</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -2869,7 +3338,7 @@
         <v>75</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -2880,10 +3349,24 @@
         <v>21340</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>144</v>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <v>21341</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -3089,10 +3572,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -3100,10 +3583,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -3111,10 +3594,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -3122,10 +3605,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -3133,10 +3616,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -3144,10 +3627,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -3155,10 +3638,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -3166,10 +3649,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -3177,10 +3660,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -3188,10 +3671,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -3199,10 +3682,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -3210,10 +3693,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -3467,7 +3950,7 @@
         <v>36</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D14" s="8">
         <v>10000000000</v>
@@ -3547,13 +4030,13 @@
         <v>23</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>25</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -3567,7 +4050,7 @@
         <v>40</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -3581,10 +4064,10 @@
         <v>27</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -3598,10 +4081,10 @@
         <v>29</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -3615,10 +4098,10 @@
         <v>29</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3632,10 +4115,10 @@
         <v>29</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -3649,10 +4132,10 @@
         <v>29</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -3666,10 +4149,10 @@
         <v>29</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -3683,10 +4166,10 @@
         <v>29</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -3700,10 +4183,10 @@
         <v>29</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -3714,13 +4197,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -3731,13 +4214,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -3748,13 +4231,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -3765,13 +4248,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -3782,10 +4265,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D15" s="8">
         <v>20000000000</v>
@@ -3799,10 +4282,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D16" s="8">
         <v>50000000000</v>
@@ -3811,7 +4294,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.2">
@@ -3857,7 +4340,7 @@
         <v>25</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -3868,10 +4351,10 @@
         <v>27</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -3885,10 +4368,10 @@
         <v>27</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -3902,10 +4385,10 @@
         <v>29</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -3919,10 +4402,10 @@
         <v>29</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3936,10 +4419,10 @@
         <v>29</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -3953,10 +4436,10 @@
         <v>29</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -3970,7 +4453,7 @@
         <v>29</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>46</v>
@@ -3987,10 +4470,10 @@
         <v>29</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -4004,10 +4487,10 @@
         <v>29</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -4018,13 +4501,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -4035,13 +4518,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -4052,13 +4535,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -4069,13 +4552,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -4086,13 +4569,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -4103,10 +4586,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>175</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>180</v>
       </c>
       <c r="D16" s="8">
         <v>50000000000</v>
@@ -4115,7 +4598,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.2">

--- a/config_Release/vip2_config.xlsx
+++ b/config_Release/vip2_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="597" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="597"/>
   </bookViews>
   <sheets>
     <sheet name="dangci|档次" sheetId="7" r:id="rId1"/>
@@ -1136,33 +1136,18 @@
     <t>1、可使用Vip超级转盘，每日可抽&lt;color=#DA2020&gt;5次&lt;/color&gt;</t>
   </si>
   <si>
-    <t>2、福利券容量提升为&lt;color=#DA2020&gt;8万福利券&lt;/color&gt;</t>
-  </si>
-  <si>
     <t>1、可使用Vip超级转盘，每日可抽&lt;color=#DA2020&gt;10次&lt;/color&gt;</t>
   </si>
   <si>
-    <t>2、福利券容量提升为&lt;color=#DA2020&gt;20万福利券&lt;/color&gt;</t>
-  </si>
-  <si>
     <t>1、可使用Vip超级转盘，每日可抽&lt;color=#DA2020&gt;20次&lt;/color&gt;</t>
   </si>
   <si>
-    <t>2、福利券容量提升为&lt;color=#DA2020&gt;40万福利券&lt;/color&gt;</t>
-  </si>
-  <si>
     <t>1、可使用Vip超级转盘，每日可抽&lt;color=#DA2020&gt;30次&lt;/color&gt;</t>
   </si>
   <si>
-    <t>2、福利券容量提升为&lt;color=#DA2020&gt;60万福利券&lt;/color&gt;</t>
-  </si>
-  <si>
     <t>1、可使用Vip超级转盘，每日可抽&lt;color=#DA2020&gt;50次&lt;/color&gt;</t>
   </si>
   <si>
-    <t>2、福利券容量提升为&lt;color=#DA2020&gt;80万福利券&lt;/color&gt;</t>
-  </si>
-  <si>
     <t>2、福利券容量提升为&lt;color=#DA2020&gt;100万福利券&lt;/color&gt;</t>
   </si>
   <si>
@@ -1183,10 +1168,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>1、福利券容量提升为&lt;color=#DA2020&gt;2万福利券&lt;/color&gt;</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>2、享受兑换商城商品&lt;color=#DA2020&gt;99%&lt;/color&gt;兑换权</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1200,6 +1181,30 @@
   </si>
   <si>
     <t>富豪福利</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、福利券容量提升为&lt;color=#DA2020&gt;5000福利券&lt;/color&gt;</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、福利券容量提升为&lt;color=#DA2020&gt;4万福利券&lt;/color&gt;</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、福利券容量提升为&lt;color=#DA2020&gt;10万福利券&lt;/color&gt;</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、福利券容量提升为&lt;color=#DA2020&gt;15万福利券&lt;/color&gt;</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、福利券容量提升为&lt;color=#DA2020&gt;30万福利券&lt;/color&gt;</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、福利券容量提升为&lt;color=#DA2020&gt;50万福利券&lt;/color&gt;</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1701,8 +1706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1749,7 +1754,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E2" s="5"/>
       <c r="G2" s="5" t="s">
@@ -1767,7 +1772,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="E3" s="13"/>
       <c r="G3" s="5" t="s">
@@ -1785,7 +1790,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="E4" s="5"/>
       <c r="G4" s="5" t="s">
@@ -1823,7 +1828,7 @@
         <v>200</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="E6" s="14"/>
       <c r="G6" s="5" t="s">
@@ -1859,7 +1864,7 @@
         <v>500</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E8" s="21" t="s">
         <v>234</v>
@@ -1879,7 +1884,7 @@
         <v>500</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="G9" s="19" t="s">
         <v>176</v>
@@ -1913,7 +1918,7 @@
         <v>1000</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E11" s="21" t="s">
         <v>234</v>
@@ -1933,7 +1938,7 @@
         <v>1000</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="G12" s="21" t="s">
         <v>176</v>
@@ -1967,7 +1972,7 @@
         <v>2000</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E14" s="21" t="s">
         <v>234</v>
@@ -1987,7 +1992,7 @@
         <v>2000</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="E15" s="22"/>
       <c r="G15" s="21" t="s">
@@ -2041,7 +2046,7 @@
         <v>5000</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="E18" s="21" t="s">
         <v>234</v>
@@ -2061,7 +2066,7 @@
         <v>5000</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="G19" s="21" t="s">
         <v>176</v>
@@ -2096,7 +2101,7 @@
         <v>10000</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="E21" s="21" t="s">
         <v>234</v>
@@ -2116,7 +2121,7 @@
         <v>10000</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E22" s="22"/>
       <c r="G22" s="21" t="s">
@@ -2152,7 +2157,7 @@
         <v>20000</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="E24" s="21" t="s">
         <v>234</v>
@@ -2172,7 +2177,7 @@
         <v>20000</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="E25" s="22"/>
       <c r="G25" s="21" t="s">
@@ -2208,7 +2213,7 @@
         <v>30000</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="E27" s="21" t="s">
         <v>234</v>
@@ -2228,7 +2233,7 @@
         <v>30000</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="E28" s="22"/>
       <c r="G28" s="21" t="s">
@@ -2264,7 +2269,7 @@
         <v>50000</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="E30" s="21" t="s">
         <v>234</v>
@@ -2284,7 +2289,7 @@
         <v>50000</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E31" s="22"/>
       <c r="G31" s="19" t="s">
@@ -2616,7 +2621,7 @@
         <v>236</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>237</v>
@@ -2625,7 +2630,7 @@
         <v>238</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -3036,7 +3041,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
@@ -3363,10 +3368,10 @@
         <v>21341</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/vip2_config.xlsx
+++ b/config_Release/vip2_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="311">
   <si>
     <t>total|总共充值</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -1205,6 +1205,46 @@
   </si>
   <si>
     <t>2、福利券容量提升为&lt;color=#DA2020&gt;50万福利券&lt;/color&gt;</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4、每日最多可参加排名挑战赛2次</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4、每日最多可参加排名挑战赛3次</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4、每日最多可参加排名挑战赛4次</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4、每日最多可参加排名挑战赛5次</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5、每日最多可参加排名挑战赛6次</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4、每日最多可参加排名挑战赛11次</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4、每日最多可参加排名挑战赛10次</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4、每日最多可参加排名挑战赛9次</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4、每日最多可参加排名挑战赛8次</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4、每日最多可参加排名挑战赛7次</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1291,7 +1331,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1307,6 +1347,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1353,7 +1399,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1426,6 +1472,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1704,10 +1759,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1797,27 +1852,25 @@
         <v>176</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1">
-        <v>200</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>280</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="B5" s="25">
+        <v>1</v>
+      </c>
+      <c r="C5" s="25">
+        <v>10</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>301</v>
+      </c>
+      <c r="E5" s="27"/>
+      <c r="G5" s="27" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1828,10 +1881,12 @@
         <v>200</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>296</v>
-      </c>
-      <c r="E6" s="14"/>
-      <c r="G6" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>176</v>
       </c>
     </row>
@@ -1845,48 +1900,47 @@
       <c r="C7" s="1">
         <v>200</v>
       </c>
-      <c r="D7" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="E7" s="5"/>
+      <c r="D7" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="E7" s="14"/>
       <c r="G7" s="5" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="19">
-        <v>3</v>
-      </c>
-      <c r="C8" s="19">
-        <v>500</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>281</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="G8" s="21" t="s">
+      <c r="B8" s="1">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1">
+        <v>200</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="G8" s="5" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="19">
-        <v>3</v>
-      </c>
-      <c r="C9" s="19">
-        <v>500</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="G9" s="19" t="s">
+      <c r="B9" s="25">
+        <v>2</v>
+      </c>
+      <c r="C9" s="25">
+        <v>200</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>302</v>
+      </c>
+      <c r="E9" s="27"/>
+      <c r="G9" s="27" t="s">
         <v>176</v>
       </c>
     </row>
@@ -1900,8 +1954,11 @@
       <c r="C10" s="19">
         <v>500</v>
       </c>
-      <c r="D10" s="16" t="s">
-        <v>178</v>
+      <c r="D10" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>234</v>
       </c>
       <c r="G10" s="21" t="s">
         <v>176</v>
@@ -1912,18 +1969,15 @@
         <v>10</v>
       </c>
       <c r="B11" s="19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C11" s="19">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>282</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="G11" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="G11" s="19" t="s">
         <v>176</v>
       </c>
     </row>
@@ -1932,32 +1986,33 @@
         <v>11</v>
       </c>
       <c r="B12" s="19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12" s="19">
-        <v>1000</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>298</v>
+        <v>500</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>178</v>
       </c>
       <c r="G12" s="21" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="19">
-        <v>4</v>
-      </c>
-      <c r="C13" s="19">
-        <v>1000</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="G13" s="21" t="s">
+      <c r="B13" s="25">
+        <v>3</v>
+      </c>
+      <c r="C13" s="25">
+        <v>500</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>303</v>
+      </c>
+      <c r="E13" s="27"/>
+      <c r="G13" s="27" t="s">
         <v>176</v>
       </c>
     </row>
@@ -1966,18 +2021,18 @@
         <v>13</v>
       </c>
       <c r="B14" s="19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C14" s="19">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E14" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="G14" s="19" t="s">
+      <c r="G14" s="21" t="s">
         <v>176</v>
       </c>
     </row>
@@ -1986,67 +2041,65 @@
         <v>14</v>
       </c>
       <c r="B15" s="19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15" s="19">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>299</v>
-      </c>
-      <c r="E15" s="22"/>
+        <v>298</v>
+      </c>
       <c r="G15" s="21" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C16" s="19">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="E16" s="21"/>
-      <c r="G16" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="G16" s="21" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="19">
-        <v>5</v>
-      </c>
-      <c r="C17" s="19">
-        <v>2000</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="E17" s="21"/>
-      <c r="G17" s="21" t="s">
+      <c r="B17" s="25">
+        <v>4</v>
+      </c>
+      <c r="C17" s="25">
+        <v>1000</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="E17" s="27"/>
+      <c r="G17" s="27" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C18" s="19">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E18" s="21" t="s">
         <v>234</v>
@@ -2055,19 +2108,20 @@
         <v>176</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C19" s="19">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>300</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="E19" s="22"/>
       <c r="G19" s="21" t="s">
         <v>176</v>
       </c>
@@ -2077,16 +2131,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C20" s="19">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E20" s="21"/>
-      <c r="G20" s="21" t="s">
+      <c r="G20" s="19" t="s">
         <v>176</v>
       </c>
     </row>
@@ -2095,36 +2149,34 @@
         <v>20</v>
       </c>
       <c r="B21" s="19">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C21" s="19">
-        <v>10000</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="E21" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="G21" s="19" t="s">
+        <v>2000</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="E21" s="21"/>
+      <c r="G21" s="21" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="19">
-        <v>7</v>
-      </c>
-      <c r="C22" s="19">
-        <v>10000</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="E22" s="22"/>
-      <c r="G22" s="21" t="s">
+      <c r="B22" s="25">
+        <v>5</v>
+      </c>
+      <c r="C22" s="25">
+        <v>2000</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>305</v>
+      </c>
+      <c r="E22" s="27"/>
+      <c r="G22" s="27" t="s">
         <v>176</v>
       </c>
     </row>
@@ -2133,15 +2185,17 @@
         <v>22</v>
       </c>
       <c r="B23" s="19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C23" s="19">
-        <v>10000</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>183</v>
-      </c>
-      <c r="E23" s="21"/>
+        <v>5000</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>234</v>
+      </c>
       <c r="G23" s="19" t="s">
         <v>176</v>
       </c>
@@ -2151,16 +2205,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="19">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C24" s="19">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="E24" s="21" t="s">
-        <v>234</v>
+        <v>300</v>
       </c>
       <c r="G24" s="21" t="s">
         <v>176</v>
@@ -2171,34 +2222,34 @@
         <v>24</v>
       </c>
       <c r="B25" s="19">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C25" s="19">
-        <v>20000</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>286</v>
-      </c>
-      <c r="E25" s="22"/>
+        <v>5000</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="E25" s="21"/>
       <c r="G25" s="21" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="19">
-        <v>8</v>
-      </c>
-      <c r="C26" s="19">
-        <v>20000</v>
-      </c>
-      <c r="D26" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="E26" s="21"/>
-      <c r="G26" s="21" t="s">
+      <c r="B26" s="25">
+        <v>6</v>
+      </c>
+      <c r="C26" s="25">
+        <v>5000</v>
+      </c>
+      <c r="D26" s="26" t="s">
+        <v>310</v>
+      </c>
+      <c r="E26" s="27"/>
+      <c r="G26" s="27" t="s">
         <v>176</v>
       </c>
     </row>
@@ -2207,18 +2258,18 @@
         <v>26</v>
       </c>
       <c r="B27" s="19">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C27" s="19">
-        <v>30000</v>
-      </c>
-      <c r="D27" s="23" t="s">
+        <v>10000</v>
+      </c>
+      <c r="D27" s="15" t="s">
         <v>284</v>
       </c>
       <c r="E27" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="G27" s="21" t="s">
+      <c r="G27" s="19" t="s">
         <v>176</v>
       </c>
     </row>
@@ -2227,13 +2278,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="19">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C28" s="19">
-        <v>30000</v>
-      </c>
-      <c r="D28" s="23" t="s">
-        <v>287</v>
+        <v>10000</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>285</v>
       </c>
       <c r="E28" s="22"/>
       <c r="G28" s="21" t="s">
@@ -2245,36 +2296,34 @@
         <v>28</v>
       </c>
       <c r="B29" s="19">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C29" s="19">
-        <v>30000</v>
-      </c>
-      <c r="D29" s="20" t="s">
-        <v>185</v>
+        <v>10000</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>183</v>
       </c>
       <c r="E29" s="21"/>
-      <c r="G29" s="21" t="s">
+      <c r="G29" s="19" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="19">
-        <v>10</v>
-      </c>
-      <c r="C30" s="19">
-        <v>50000</v>
-      </c>
-      <c r="D30" s="23" t="s">
-        <v>284</v>
-      </c>
-      <c r="E30" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="G30" s="21" t="s">
+      <c r="B30" s="25">
+        <v>7</v>
+      </c>
+      <c r="C30" s="25">
+        <v>10000</v>
+      </c>
+      <c r="D30" s="26" t="s">
+        <v>309</v>
+      </c>
+      <c r="E30" s="27"/>
+      <c r="G30" s="27" t="s">
         <v>176</v>
       </c>
     </row>
@@ -2283,16 +2332,18 @@
         <v>30</v>
       </c>
       <c r="B31" s="19">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C31" s="19">
-        <v>50000</v>
-      </c>
-      <c r="D31" s="23" t="s">
-        <v>288</v>
-      </c>
-      <c r="E31" s="22"/>
-      <c r="G31" s="19" t="s">
+        <v>20000</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="E31" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="G31" s="21" t="s">
         <v>176</v>
       </c>
     </row>
@@ -2301,33 +2352,214 @@
         <v>31</v>
       </c>
       <c r="B32" s="19">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C32" s="19">
-        <v>50000</v>
-      </c>
-      <c r="D32" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="E32" s="21"/>
+        <v>20000</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="E32" s="22"/>
       <c r="G32" s="21" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D33" s="12"/>
-    </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D34" s="12"/>
-    </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D35" s="12"/>
-    </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D36" s="12"/>
-    </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D37" s="12"/>
+    <row r="33" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="19">
+        <v>8</v>
+      </c>
+      <c r="C33" s="19">
+        <v>20000</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="E33" s="21"/>
+      <c r="G33" s="21" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="25">
+        <v>8</v>
+      </c>
+      <c r="C34" s="25">
+        <v>20000</v>
+      </c>
+      <c r="D34" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="E34" s="27"/>
+      <c r="G34" s="27" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="19">
+        <v>9</v>
+      </c>
+      <c r="C35" s="19">
+        <v>30000</v>
+      </c>
+      <c r="D35" s="23" t="s">
+        <v>284</v>
+      </c>
+      <c r="E35" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="G35" s="21" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="19">
+        <v>9</v>
+      </c>
+      <c r="C36" s="19">
+        <v>30000</v>
+      </c>
+      <c r="D36" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="E36" s="22"/>
+      <c r="G36" s="21" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="19">
+        <v>9</v>
+      </c>
+      <c r="C37" s="19">
+        <v>30000</v>
+      </c>
+      <c r="D37" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="E37" s="21"/>
+      <c r="G37" s="21" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="25">
+        <v>9</v>
+      </c>
+      <c r="C38" s="25">
+        <v>30000</v>
+      </c>
+      <c r="D38" s="26" t="s">
+        <v>307</v>
+      </c>
+      <c r="E38" s="27"/>
+      <c r="G38" s="27" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="19">
+        <v>10</v>
+      </c>
+      <c r="C39" s="19">
+        <v>50000</v>
+      </c>
+      <c r="D39" s="23" t="s">
+        <v>284</v>
+      </c>
+      <c r="E39" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="G39" s="21" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="19">
+        <v>10</v>
+      </c>
+      <c r="C40" s="19">
+        <v>50000</v>
+      </c>
+      <c r="D40" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="E40" s="22"/>
+      <c r="G40" s="19" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="19">
+        <v>10</v>
+      </c>
+      <c r="C41" s="19">
+        <v>50000</v>
+      </c>
+      <c r="D41" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="E41" s="21"/>
+      <c r="G41" s="21" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="25">
+        <v>10</v>
+      </c>
+      <c r="C42" s="25">
+        <v>50000</v>
+      </c>
+      <c r="D42" s="26" t="s">
+        <v>306</v>
+      </c>
+      <c r="E42" s="27"/>
+      <c r="G42" s="27" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D43" s="12"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D44" s="12"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D45" s="12"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D46" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/config_Release/vip2_config.xlsx
+++ b/config_Release/vip2_config.xlsx
@@ -1208,11 +1208,11 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>4、每日最多可参加排名挑战赛2次</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>4、每日最多可参加排名挑战赛3次</t>
+    <t>4、每日最多可参加排名挑战赛10次</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4、每日最多可参加排名挑战赛7次</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -1224,7 +1224,15 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>5、每日最多可参加排名挑战赛6次</t>
+    <t>4、每日最多可参加排名挑战赛6次</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5、每日最多可参加排名挑战赛8次</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4、每日最多可参加排名挑战赛9次</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -1232,19 +1240,11 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>4、每日最多可参加排名挑战赛10次</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>4、每日最多可参加排名挑战赛9次</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>4、每日最多可参加排名挑战赛8次</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>4、每日最多可参加排名挑战赛7次</t>
+    <t>4、每日最多可参加排名挑战赛12次</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4、每日最多可参加排名挑战赛15次</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1761,8 +1761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1863,7 +1863,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="E5" s="27"/>
       <c r="G5" s="27" t="s">
@@ -1937,7 +1937,7 @@
         <v>200</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E9" s="27"/>
       <c r="G9" s="27" t="s">
@@ -2009,7 +2009,7 @@
         <v>500</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E13" s="27"/>
       <c r="G13" s="27" t="s">
@@ -2081,7 +2081,7 @@
         <v>1000</v>
       </c>
       <c r="D17" s="26" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E17" s="27"/>
       <c r="G17" s="27" t="s">
@@ -2173,7 +2173,7 @@
         <v>2000</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E22" s="27"/>
       <c r="G22" s="27" t="s">
@@ -2246,7 +2246,7 @@
         <v>5000</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E26" s="27"/>
       <c r="G26" s="27" t="s">
@@ -2320,7 +2320,7 @@
         <v>10000</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="E30" s="27"/>
       <c r="G30" s="27" t="s">
@@ -2468,7 +2468,7 @@
         <v>30000</v>
       </c>
       <c r="D38" s="26" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E38" s="27"/>
       <c r="G38" s="27" t="s">
@@ -2542,7 +2542,7 @@
         <v>50000</v>
       </c>
       <c r="D42" s="26" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="E42" s="27"/>
       <c r="G42" s="27" t="s">

--- a/config_Release/vip2_config.xlsx
+++ b/config_Release/vip2_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_Release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="319">
   <si>
     <t>total|总共充值</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -523,10 +523,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>help|帮助</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>vip11</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -742,49 +738,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>1.游戏内带有超值标签的礼包不计入vip累计金额;\n2.福利券超出容量后会自动转换为金币。</t>
-  </si>
-  <si>
-    <t>3、享受vip1所有特权并提高部分特权奖励</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3、享受vip2所有特权并提高部分特权奖励</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3、享受vip3所有特权并提高部分特权奖励</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3、畅玩所有游戏</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>4、享受vip4所有特权并提高部分特权奖励</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3、享受vip5所有特权并提高部分特权奖励</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3、享受vip6所有特权并提高部分特权奖励</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3、享受vip7所有特权并提高部分特权奖励</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3、享受vip8所有特权并提高部分特权奖励</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3、享受vip9所有特权并提高部分特权奖励</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>"1.66万鲸币","锁定*1","记牌器*1"</t>
   </si>
   <si>
@@ -1133,33 +1086,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>1、可使用Vip超级转盘，每日可抽&lt;color=#DA2020&gt;5次&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>1、可使用Vip超级转盘，每日可抽&lt;color=#DA2020&gt;10次&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>1、可使用Vip超级转盘，每日可抽&lt;color=#DA2020&gt;20次&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>1、可使用Vip超级转盘，每日可抽&lt;color=#DA2020&gt;30次&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>1、可使用Vip超级转盘，每日可抽&lt;color=#DA2020&gt;50次&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>2、福利券容量提升为&lt;color=#DA2020&gt;100万福利券&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>2、福利券容量提升为&lt;color=#DA2020&gt;200万福利券&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>2、福利券容量提升为&lt;color=#DA2020&gt;300万福利券&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>2、福利券容量提升为&lt;color=#DA2020&gt;500万福利券&lt;/color&gt;</t>
-  </si>
-  <si>
     <t>condition|进度</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1168,14 +1094,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>2、享受兑换商城商品&lt;color=#DA2020&gt;99%&lt;/color&gt;兑换权</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3、享受vip专享福利</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>fhfl</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1184,67 +1102,155 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>1、福利券容量提升为&lt;color=#DA2020&gt;5000福利券&lt;/color&gt;</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2、福利券容量提升为&lt;color=#DA2020&gt;4万福利券&lt;/color&gt;</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2、福利券容量提升为&lt;color=#DA2020&gt;10万福利券&lt;/color&gt;</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2、福利券容量提升为&lt;color=#DA2020&gt;15万福利券&lt;/color&gt;</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2、福利券容量提升为&lt;color=#DA2020&gt;30万福利券&lt;/color&gt;</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2、福利券容量提升为&lt;color=#DA2020&gt;50万福利券&lt;/color&gt;</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>4、每日最多可参加排名挑战赛10次</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>4、每日最多可参加排名挑战赛7次</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>4、每日最多可参加排名挑战赛4次</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>4、每日最多可参加排名挑战赛5次</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>4、每日最多可参加排名挑战赛6次</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>5、每日最多可参加排名挑战赛8次</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>4、每日最多可参加排名挑战赛9次</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>4、每日最多可参加排名挑战赛11次</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>4、每日最多可参加排名挑战赛12次</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>4、每日最多可参加排名挑战赛15次</t>
+    <t>享受vip专享福利</t>
+  </si>
+  <si>
+    <t>享受vip1所有特权并提高部分特权奖励</t>
+  </si>
+  <si>
+    <t>享受vip2所有特权并提高部分特权奖励</t>
+  </si>
+  <si>
+    <t>享受vip3所有特权并提高部分特权奖励</t>
+  </si>
+  <si>
+    <t>畅玩所有游戏</t>
+  </si>
+  <si>
+    <t>享受vip4所有特权并提高部分特权奖励</t>
+  </si>
+  <si>
+    <t>享受vip5所有特权并提高部分特权奖励</t>
+  </si>
+  <si>
+    <t>享受vip6所有特权并提高部分特权奖励</t>
+  </si>
+  <si>
+    <t>享受vip7所有特权并提高部分特权奖励</t>
+  </si>
+  <si>
+    <t>享受vip8所有特权并提高部分特权奖励</t>
+  </si>
+  <si>
+    <t>享受vip9所有特权并提高部分特权奖励</t>
+  </si>
+  <si>
+    <t>福利券容量提升为&lt;color=#DA2020&gt;5000福利券&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>可使用Vip超级转盘，每日可抽&lt;color=#DA2020&gt;5次&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>可使用Vip超级转盘，每日可抽&lt;color=#DA2020&gt;10次&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>可使用Vip超级转盘，每日可抽&lt;color=#DA2020&gt;20次&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>可使用Vip超级转盘，每日可抽&lt;color=#DA2020&gt;30次&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>可使用Vip超级转盘，每日可抽&lt;color=#DA2020&gt;50次&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>享受兑换商城商品&lt;color=#DA2020&gt;99%&lt;/color&gt;兑换权</t>
+  </si>
+  <si>
+    <t>福利券容量提升为&lt;color=#DA2020&gt;4万福利券&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>福利券容量提升为&lt;color=#DA2020&gt;10万福利券&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>福利券容量提升为&lt;color=#DA2020&gt;15万福利券&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>福利券容量提升为&lt;color=#DA2020&gt;30万福利券&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>福利券容量提升为&lt;color=#DA2020&gt;50万福利券&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>福利券容量提升为&lt;color=#DA2020&gt;100万福利券&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>福利券容量提升为&lt;color=#DA2020&gt;200万福利券&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>福利券容量提升为&lt;color=#DA2020&gt;300万福利券&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>福利券容量提升为&lt;color=#DA2020&gt;500万福利券&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>每日最多可参加排名挑战赛4次</t>
+  </si>
+  <si>
+    <t>每日最多可参加排名挑战赛5次</t>
+  </si>
+  <si>
+    <t>每日最多可参加排名挑战赛6次</t>
+  </si>
+  <si>
+    <t>每日最多可参加排名挑战赛7次</t>
+  </si>
+  <si>
+    <t>每日最多可参加排名挑战赛9次</t>
+  </si>
+  <si>
+    <t>每日最多可参加排名挑战赛10次</t>
+  </si>
+  <si>
+    <t>每日最多可参加排名挑战赛11次</t>
+  </si>
+  <si>
+    <t>每日最多可参加排名挑战赛12次</t>
+  </si>
+  <si>
+    <t>每日最多可参加排名挑战赛15次</t>
+  </si>
+  <si>
+    <t>key|权限</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpl_notcjj</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpl_notcjj</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpl_notcjj</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpl_notcjj</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日最多可参加排名挑战赛8次</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpl_notcjj</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>vip_notcps</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>vip_notcps</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>vip_notcps</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>vip_notcps</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1761,18 +1767,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="90.25" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="81.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="1" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="90.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="27" x14ac:dyDescent="0.2">
@@ -1785,17 +1789,17 @@
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -1808,13 +1812,10 @@
       <c r="C2" s="1">
         <v>10</v>
       </c>
-      <c r="D2" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="E2" s="5"/>
-      <c r="G2" s="5" t="s">
-        <v>176</v>
-      </c>
+      <c r="E2" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
@@ -1826,13 +1827,10 @@
       <c r="C3" s="1">
         <v>10</v>
       </c>
-      <c r="D3" s="16" t="s">
-        <v>291</v>
-      </c>
-      <c r="E3" s="13"/>
-      <c r="G3" s="5" t="s">
-        <v>176</v>
-      </c>
+      <c r="E3" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="F3" s="13"/>
     </row>
     <row r="4" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
@@ -1844,13 +1842,10 @@
       <c r="C4" s="1">
         <v>10</v>
       </c>
-      <c r="D4" s="16" t="s">
-        <v>292</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="G4" s="5" t="s">
-        <v>176</v>
-      </c>
+      <c r="E4" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:7" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
@@ -1862,13 +1857,13 @@
       <c r="C5" s="25">
         <v>10</v>
       </c>
-      <c r="D5" s="26" t="s">
-        <v>303</v>
-      </c>
-      <c r="E5" s="27"/>
-      <c r="G5" s="27" t="s">
-        <v>176</v>
-      </c>
+      <c r="D5" s="27" t="s">
+        <v>309</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="F5" s="27"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
@@ -1880,14 +1875,14 @@
       <c r="C6" s="1">
         <v>200</v>
       </c>
-      <c r="D6" s="15" t="s">
-        <v>280</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>176</v>
+      <c r="D6" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1900,13 +1895,10 @@
       <c r="C7" s="1">
         <v>200</v>
       </c>
-      <c r="D7" s="15" t="s">
-        <v>296</v>
-      </c>
-      <c r="E7" s="14"/>
-      <c r="G7" s="5" t="s">
-        <v>176</v>
-      </c>
+      <c r="E7" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="F7" s="14"/>
     </row>
     <row r="8" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
@@ -1918,13 +1910,10 @@
       <c r="C8" s="1">
         <v>200</v>
       </c>
-      <c r="D8" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="G8" s="5" t="s">
-        <v>176</v>
-      </c>
+      <c r="E8" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:7" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
@@ -1936,13 +1925,13 @@
       <c r="C9" s="25">
         <v>200</v>
       </c>
-      <c r="D9" s="26" t="s">
-        <v>304</v>
-      </c>
-      <c r="E9" s="27"/>
-      <c r="G9" s="27" t="s">
-        <v>176</v>
-      </c>
+      <c r="D9" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>300</v>
+      </c>
+      <c r="F9" s="27"/>
     </row>
     <row r="10" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
@@ -1954,14 +1943,14 @@
       <c r="C10" s="19">
         <v>500</v>
       </c>
-      <c r="D10" s="15" t="s">
-        <v>281</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="G10" s="21" t="s">
-        <v>176</v>
+      <c r="D10" s="21" t="s">
+        <v>315</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1974,11 +1963,8 @@
       <c r="C11" s="19">
         <v>500</v>
       </c>
-      <c r="D11" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>176</v>
+      <c r="E11" s="15" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1991,11 +1977,8 @@
       <c r="C12" s="19">
         <v>500</v>
       </c>
-      <c r="D12" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="G12" s="21" t="s">
-        <v>176</v>
+      <c r="E12" s="16" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2008,13 +1991,13 @@
       <c r="C13" s="25">
         <v>500</v>
       </c>
-      <c r="D13" s="26" t="s">
-        <v>305</v>
-      </c>
-      <c r="E13" s="27"/>
-      <c r="G13" s="27" t="s">
-        <v>176</v>
-      </c>
+      <c r="D13" s="27" t="s">
+        <v>309</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>301</v>
+      </c>
+      <c r="F13" s="27"/>
     </row>
     <row r="14" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
@@ -2026,14 +2009,14 @@
       <c r="C14" s="19">
         <v>1000</v>
       </c>
-      <c r="D14" s="15" t="s">
-        <v>282</v>
-      </c>
-      <c r="E14" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="G14" s="21" t="s">
-        <v>176</v>
+      <c r="D14" s="21" t="s">
+        <v>315</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2046,11 +2029,8 @@
       <c r="C15" s="19">
         <v>1000</v>
       </c>
-      <c r="D15" s="15" t="s">
-        <v>298</v>
-      </c>
-      <c r="G15" s="21" t="s">
-        <v>176</v>
+      <c r="E15" s="15" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2063,14 +2043,11 @@
       <c r="C16" s="19">
         <v>1000</v>
       </c>
-      <c r="D16" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="G16" s="21" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E16" s="16" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2080,15 +2057,15 @@
       <c r="C17" s="25">
         <v>1000</v>
       </c>
-      <c r="D17" s="26" t="s">
+      <c r="D17" s="27" t="s">
+        <v>309</v>
+      </c>
+      <c r="E17" s="26" t="s">
         <v>302</v>
       </c>
-      <c r="E17" s="27"/>
-      <c r="G17" s="27" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F17" s="27"/>
+    </row>
+    <row r="18" spans="1:6" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2098,17 +2075,17 @@
       <c r="C18" s="19">
         <v>2000</v>
       </c>
-      <c r="D18" s="15" t="s">
-        <v>283</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="G18" s="19" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D18" s="21" t="s">
+        <v>317</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2118,15 +2095,12 @@
       <c r="C19" s="19">
         <v>2000</v>
       </c>
-      <c r="D19" s="15" t="s">
-        <v>299</v>
-      </c>
-      <c r="E19" s="22"/>
-      <c r="G19" s="21" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E19" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="F19" s="22"/>
+    </row>
+    <row r="20" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2136,15 +2110,12 @@
       <c r="C20" s="19">
         <v>2000</v>
       </c>
-      <c r="D20" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="E20" s="21"/>
-      <c r="G20" s="19" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E20" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="F20" s="21"/>
+    </row>
+    <row r="21" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2154,15 +2125,12 @@
       <c r="C21" s="19">
         <v>2000</v>
       </c>
-      <c r="D21" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="E21" s="21"/>
-      <c r="G21" s="21" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E21" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="F21" s="21"/>
+    </row>
+    <row r="22" spans="1:6" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2172,15 +2140,15 @@
       <c r="C22" s="25">
         <v>2000</v>
       </c>
-      <c r="D22" s="26" t="s">
-        <v>306</v>
-      </c>
-      <c r="E22" s="27"/>
-      <c r="G22" s="27" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D22" s="27" t="s">
+        <v>309</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>313</v>
+      </c>
+      <c r="F22" s="27"/>
+    </row>
+    <row r="23" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2190,17 +2158,17 @@
       <c r="C23" s="19">
         <v>5000</v>
       </c>
-      <c r="D23" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="E23" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="G23" s="19" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D23" s="21" t="s">
+        <v>316</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2210,14 +2178,11 @@
       <c r="C24" s="19">
         <v>5000</v>
       </c>
-      <c r="D24" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="G24" s="21" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E24" s="15" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2227,15 +2192,12 @@
       <c r="C25" s="19">
         <v>5000</v>
       </c>
-      <c r="D25" s="16" t="s">
-        <v>182</v>
-      </c>
-      <c r="E25" s="21"/>
-      <c r="G25" s="21" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E25" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="F25" s="21"/>
+    </row>
+    <row r="26" spans="1:6" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2245,15 +2207,15 @@
       <c r="C26" s="25">
         <v>5000</v>
       </c>
-      <c r="D26" s="26" t="s">
-        <v>307</v>
-      </c>
-      <c r="E26" s="27"/>
-      <c r="G26" s="27" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D26" s="27" t="s">
+        <v>311</v>
+      </c>
+      <c r="E26" s="26" t="s">
+        <v>303</v>
+      </c>
+      <c r="F26" s="27"/>
+    </row>
+    <row r="27" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2263,17 +2225,17 @@
       <c r="C27" s="19">
         <v>10000</v>
       </c>
-      <c r="D27" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="E27" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="G27" s="19" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D27" s="21" t="s">
+        <v>315</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="F27" s="21" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2283,15 +2245,12 @@
       <c r="C28" s="19">
         <v>10000</v>
       </c>
-      <c r="D28" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="E28" s="22"/>
-      <c r="G28" s="21" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E28" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="F28" s="22"/>
+    </row>
+    <row r="29" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2301,15 +2260,12 @@
       <c r="C29" s="19">
         <v>10000</v>
       </c>
-      <c r="D29" s="16" t="s">
-        <v>183</v>
-      </c>
-      <c r="E29" s="21"/>
-      <c r="G29" s="19" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E29" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="F29" s="21"/>
+    </row>
+    <row r="30" spans="1:6" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2319,15 +2275,15 @@
       <c r="C30" s="25">
         <v>10000</v>
       </c>
-      <c r="D30" s="26" t="s">
-        <v>301</v>
-      </c>
-      <c r="E30" s="27"/>
-      <c r="G30" s="27" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D30" s="27" t="s">
+        <v>312</v>
+      </c>
+      <c r="E30" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="F30" s="27"/>
+    </row>
+    <row r="31" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -2337,17 +2293,17 @@
       <c r="C31" s="19">
         <v>20000</v>
       </c>
-      <c r="D31" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="E31" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="G31" s="21" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D31" s="21" t="s">
+        <v>318</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="F31" s="21" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -2357,15 +2313,12 @@
       <c r="C32" s="19">
         <v>20000</v>
       </c>
-      <c r="D32" s="15" t="s">
-        <v>286</v>
-      </c>
-      <c r="E32" s="22"/>
-      <c r="G32" s="21" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E32" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="F32" s="22"/>
+    </row>
+    <row r="33" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -2375,15 +2328,12 @@
       <c r="C33" s="19">
         <v>20000</v>
       </c>
-      <c r="D33" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="E33" s="21"/>
-      <c r="G33" s="21" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E33" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="F33" s="21"/>
+    </row>
+    <row r="34" spans="1:6" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -2393,15 +2343,15 @@
       <c r="C34" s="25">
         <v>20000</v>
       </c>
-      <c r="D34" s="26" t="s">
-        <v>308</v>
-      </c>
-      <c r="E34" s="27"/>
-      <c r="G34" s="27" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D34" s="27" t="s">
+        <v>309</v>
+      </c>
+      <c r="E34" s="26" t="s">
+        <v>305</v>
+      </c>
+      <c r="F34" s="27"/>
+    </row>
+    <row r="35" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -2411,17 +2361,17 @@
       <c r="C35" s="19">
         <v>30000</v>
       </c>
-      <c r="D35" s="23" t="s">
-        <v>284</v>
-      </c>
-      <c r="E35" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="G35" s="21" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D35" s="21" t="s">
+        <v>317</v>
+      </c>
+      <c r="E35" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="F35" s="21" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -2431,15 +2381,12 @@
       <c r="C36" s="19">
         <v>30000</v>
       </c>
-      <c r="D36" s="23" t="s">
-        <v>287</v>
-      </c>
-      <c r="E36" s="22"/>
-      <c r="G36" s="21" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E36" s="23" t="s">
+        <v>297</v>
+      </c>
+      <c r="F36" s="22"/>
+    </row>
+    <row r="37" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -2449,15 +2396,12 @@
       <c r="C37" s="19">
         <v>30000</v>
       </c>
-      <c r="D37" s="20" t="s">
-        <v>185</v>
-      </c>
-      <c r="E37" s="21"/>
-      <c r="G37" s="21" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E37" s="20" t="s">
+        <v>281</v>
+      </c>
+      <c r="F37" s="21"/>
+    </row>
+    <row r="38" spans="1:6" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -2467,15 +2411,15 @@
       <c r="C38" s="25">
         <v>30000</v>
       </c>
-      <c r="D38" s="26" t="s">
-        <v>309</v>
-      </c>
-      <c r="E38" s="27"/>
-      <c r="G38" s="27" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D38" s="27" t="s">
+        <v>314</v>
+      </c>
+      <c r="E38" s="26" t="s">
+        <v>306</v>
+      </c>
+      <c r="F38" s="27"/>
+    </row>
+    <row r="39" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -2485,17 +2429,17 @@
       <c r="C39" s="19">
         <v>50000</v>
       </c>
-      <c r="D39" s="23" t="s">
-        <v>284</v>
-      </c>
-      <c r="E39" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="G39" s="21" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D39" s="21" t="s">
+        <v>315</v>
+      </c>
+      <c r="E39" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="F39" s="21" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -2505,15 +2449,12 @@
       <c r="C40" s="19">
         <v>50000</v>
       </c>
-      <c r="D40" s="23" t="s">
-        <v>288</v>
-      </c>
-      <c r="E40" s="22"/>
-      <c r="G40" s="19" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E40" s="23" t="s">
+        <v>298</v>
+      </c>
+      <c r="F40" s="22"/>
+    </row>
+    <row r="41" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -2523,15 +2464,12 @@
       <c r="C41" s="19">
         <v>50000</v>
       </c>
-      <c r="D41" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="E41" s="21"/>
-      <c r="G41" s="21" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E41" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="F41" s="21"/>
+    </row>
+    <row r="42" spans="1:6" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -2541,25 +2479,25 @@
       <c r="C42" s="25">
         <v>50000</v>
       </c>
-      <c r="D42" s="26" t="s">
-        <v>310</v>
-      </c>
-      <c r="E42" s="27"/>
-      <c r="G42" s="27" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D43" s="12"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D44" s="12"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D45" s="12"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D46" s="12"/>
+      <c r="D42" s="27" t="s">
+        <v>314</v>
+      </c>
+      <c r="E42" s="26" t="s">
+        <v>307</v>
+      </c>
+      <c r="F42" s="27"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E43" s="12"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E44" s="12"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E45" s="12"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E46" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -2591,22 +2529,22 @@
         <v>13</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -2617,17 +2555,17 @@
         <v>10244</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="D2" s="17"/>
       <c r="E2">
         <v>6</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -2638,17 +2576,17 @@
         <v>10245</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3">
         <v>28</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -2659,17 +2597,17 @@
         <v>10246</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="D4" s="17"/>
       <c r="E4">
         <v>48</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -2680,17 +2618,17 @@
         <v>10247</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5">
         <v>99</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -2701,17 +2639,17 @@
         <v>10248</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6">
         <v>198</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -2722,17 +2660,17 @@
         <v>10249</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7">
         <v>298</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="G7" s="24" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -2743,17 +2681,17 @@
         <v>10250</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="D8" s="17"/>
       <c r="E8">
         <v>398</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="G8" s="24" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -2764,17 +2702,17 @@
         <v>10251</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9">
         <v>498</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -2785,17 +2723,17 @@
         <v>10252</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10">
         <v>598</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="G10" s="24" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -2806,17 +2744,17 @@
         <v>10253</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="D11" s="17"/>
       <c r="E11">
         <v>698</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="G11" s="24" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -2847,22 +2785,22 @@
         <v>13</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>290</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -2873,16 +2811,16 @@
         <v>21341</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="D2" s="17">
         <v>2000000</v>
       </c>
       <c r="E2" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="F2" s="17" t="s">
         <v>251</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>263</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -2896,16 +2834,16 @@
         <v>21341</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="D3" s="17">
         <v>5000000</v>
       </c>
       <c r="E3" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="F3" s="17" t="s">
         <v>252</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>264</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -2919,16 +2857,16 @@
         <v>21341</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="D4" s="17">
         <v>10000000</v>
       </c>
       <c r="E4" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="F4" s="17" t="s">
         <v>253</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>265</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -2942,16 +2880,16 @@
         <v>21341</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="D5" s="17">
         <v>20000000</v>
       </c>
       <c r="E5" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="F5" s="17" t="s">
         <v>254</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>266</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -2965,16 +2903,16 @@
         <v>21341</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="D6" s="17">
         <v>50000000</v>
       </c>
       <c r="E6" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="F6" s="17" t="s">
         <v>255</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>267</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -2988,16 +2926,16 @@
         <v>21341</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="D7" s="17">
         <v>100000000</v>
       </c>
       <c r="E7" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="F7" s="17" t="s">
         <v>256</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>268</v>
       </c>
       <c r="G7">
         <v>6</v>
@@ -3011,16 +2949,16 @@
         <v>21341</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="D8" s="17">
         <v>200000000</v>
       </c>
       <c r="E8" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="F8" s="17" t="s">
         <v>257</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>269</v>
       </c>
       <c r="G8">
         <v>7</v>
@@ -3034,16 +2972,16 @@
         <v>21341</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="D9" s="17">
         <v>500000000</v>
       </c>
       <c r="E9" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="F9" s="17" t="s">
         <v>258</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>270</v>
       </c>
       <c r="G9">
         <v>8</v>
@@ -3057,16 +2995,16 @@
         <v>21341</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="D10" s="17">
         <v>1000000000</v>
       </c>
       <c r="E10" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="F10" s="17" t="s">
         <v>259</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>271</v>
       </c>
       <c r="G10">
         <v>9</v>
@@ -3080,16 +3018,16 @@
         <v>21341</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="D11" s="17">
         <v>2000000000</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="G11">
         <v>10</v>
@@ -3103,16 +3041,16 @@
         <v>21341</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="D12" s="17">
         <v>3000000000</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="G12">
         <v>11</v>
@@ -3126,16 +3064,16 @@
         <v>21341</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="D13" s="17">
         <v>5000000000</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="G13">
         <v>12</v>
@@ -3181,13 +3119,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3195,10 +3133,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>65</v>
@@ -3209,10 +3147,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>64</v>
@@ -3516,10 +3454,10 @@
         <v>21248</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -3530,10 +3468,10 @@
         <v>21249</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -3544,10 +3482,10 @@
         <v>21250</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -3558,10 +3496,10 @@
         <v>21251</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -3575,7 +3513,7 @@
         <v>75</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -3586,10 +3524,10 @@
         <v>21340</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -3600,10 +3538,10 @@
         <v>21341</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>293</v>
+        <v>270</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>294</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -3809,10 +3747,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -3820,10 +3758,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -3831,10 +3769,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -3842,10 +3780,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -3853,10 +3791,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -3864,10 +3802,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -3875,10 +3813,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -3886,10 +3824,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -3897,10 +3835,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -3908,10 +3846,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -3919,10 +3857,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -3930,10 +3868,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -4287,7 +4225,7 @@
         <v>40</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -4485,10 +4423,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>110</v>
@@ -4502,10 +4440,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D15" s="8">
         <v>20000000000</v>
@@ -4588,10 +4526,10 @@
         <v>27</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -4605,10 +4543,10 @@
         <v>27</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -4622,10 +4560,10 @@
         <v>29</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -4639,10 +4577,10 @@
         <v>29</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4656,10 +4594,10 @@
         <v>29</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -4673,10 +4611,10 @@
         <v>29</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -4690,7 +4628,7 @@
         <v>29</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>46</v>
@@ -4707,10 +4645,10 @@
         <v>29</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -4724,10 +4662,10 @@
         <v>29</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -4738,13 +4676,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -4755,13 +4693,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -4772,13 +4710,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -4789,13 +4727,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -4806,13 +4744,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -4823,10 +4761,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D16" s="8">
         <v>50000000000</v>

--- a/config_Release/vip2_config.xlsx
+++ b/config_Release/vip2_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_10.27\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="321">
   <si>
     <t>total|总共充值</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -1251,6 +1251,14 @@
   </si>
   <si>
     <t>vip_notcps</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>可获得&lt;color=#DA2020&gt;闪耀风暴&lt;/color&gt;炮台，有几率捕获激光范围内的任意鱼类</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>可获得&lt;color=#DA2020&gt;金币使者&lt;/color&gt;炮台，可捕获同移动线上的任意鱼类</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1765,10 +1773,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A2" sqref="A2:A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1947,11 +1955,9 @@
         <v>315</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="F10" s="21" t="s">
-        <v>222</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="F10" s="21"/>
     </row>
     <row r="11" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
@@ -1963,8 +1969,14 @@
       <c r="C11" s="19">
         <v>500</v>
       </c>
+      <c r="D11" s="21" t="s">
+        <v>315</v>
+      </c>
       <c r="E11" s="15" t="s">
-        <v>291</v>
+        <v>285</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1977,47 +1989,41 @@
       <c r="C12" s="19">
         <v>500</v>
       </c>
-      <c r="E12" s="16" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E12" s="15" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="25">
+      <c r="B13" s="19">
         <v>3</v>
       </c>
-      <c r="C13" s="25">
+      <c r="C13" s="19">
         <v>500</v>
       </c>
-      <c r="D13" s="27" t="s">
-        <v>309</v>
-      </c>
-      <c r="E13" s="26" t="s">
-        <v>301</v>
-      </c>
-      <c r="F13" s="27"/>
-    </row>
-    <row r="14" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E13" s="16" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="19">
-        <v>4</v>
-      </c>
-      <c r="C14" s="19">
-        <v>1000</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>315</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>286</v>
-      </c>
-      <c r="F14" s="21" t="s">
-        <v>222</v>
-      </c>
+      <c r="B14" s="25">
+        <v>3</v>
+      </c>
+      <c r="C14" s="25">
+        <v>500</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>309</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>301</v>
+      </c>
+      <c r="F14" s="27"/>
     </row>
     <row r="15" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
@@ -2029,8 +2035,14 @@
       <c r="C15" s="19">
         <v>1000</v>
       </c>
+      <c r="D15" s="21" t="s">
+        <v>315</v>
+      </c>
       <c r="E15" s="15" t="s">
-        <v>292</v>
+        <v>286</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2043,47 +2055,41 @@
       <c r="C16" s="19">
         <v>1000</v>
       </c>
-      <c r="E16" s="16" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E16" s="15" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="25">
+      <c r="B17" s="19">
         <v>4</v>
       </c>
-      <c r="C17" s="25">
+      <c r="C17" s="19">
         <v>1000</v>
       </c>
-      <c r="D17" s="27" t="s">
-        <v>309</v>
-      </c>
-      <c r="E17" s="26" t="s">
-        <v>302</v>
-      </c>
-      <c r="F17" s="27"/>
-    </row>
-    <row r="18" spans="1:6" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E17" s="16" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="19">
-        <v>5</v>
-      </c>
-      <c r="C18" s="19">
-        <v>2000</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>317</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>287</v>
-      </c>
-      <c r="F18" s="21" t="s">
-        <v>222</v>
-      </c>
+      <c r="B18" s="25">
+        <v>4</v>
+      </c>
+      <c r="C18" s="25">
+        <v>1000</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>309</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>302</v>
+      </c>
+      <c r="F18" s="27"/>
     </row>
     <row r="19" spans="1:6" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
@@ -2095,12 +2101,15 @@
       <c r="C19" s="19">
         <v>2000</v>
       </c>
+      <c r="D19" s="21" t="s">
+        <v>315</v>
+      </c>
       <c r="E19" s="15" t="s">
-        <v>293</v>
-      </c>
-      <c r="F19" s="22"/>
-    </row>
-    <row r="20" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
+        <v>320</v>
+      </c>
+      <c r="F19" s="21"/>
+    </row>
+    <row r="20" spans="1:6" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2110,12 +2119,17 @@
       <c r="C20" s="19">
         <v>2000</v>
       </c>
-      <c r="E20" s="16" t="s">
-        <v>276</v>
-      </c>
-      <c r="F20" s="21"/>
-    </row>
-    <row r="21" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D20" s="21" t="s">
+        <v>317</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2125,62 +2139,58 @@
       <c r="C21" s="19">
         <v>2000</v>
       </c>
-      <c r="E21" s="16" t="s">
-        <v>277</v>
-      </c>
-      <c r="F21" s="21"/>
-    </row>
-    <row r="22" spans="1:6" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E21" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="F21" s="22"/>
+    </row>
+    <row r="22" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="25">
+      <c r="B22" s="19">
         <v>5</v>
       </c>
-      <c r="C22" s="25">
+      <c r="C22" s="19">
         <v>2000</v>
       </c>
-      <c r="D22" s="27" t="s">
-        <v>309</v>
-      </c>
-      <c r="E22" s="26" t="s">
-        <v>313</v>
-      </c>
-      <c r="F22" s="27"/>
+      <c r="E22" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="F22" s="21"/>
     </row>
     <row r="23" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C23" s="19">
-        <v>5000</v>
-      </c>
-      <c r="D23" s="21" t="s">
-        <v>316</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="F23" s="21" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
+        <v>2000</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="F23" s="21"/>
+    </row>
+    <row r="24" spans="1:6" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="19">
-        <v>6</v>
-      </c>
-      <c r="C24" s="19">
-        <v>5000</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>294</v>
-      </c>
+      <c r="B24" s="25">
+        <v>5</v>
+      </c>
+      <c r="C24" s="25">
+        <v>2000</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>309</v>
+      </c>
+      <c r="E24" s="26" t="s">
+        <v>313</v>
+      </c>
+      <c r="F24" s="27"/>
     </row>
     <row r="25" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
@@ -2192,63 +2202,62 @@
       <c r="C25" s="19">
         <v>5000</v>
       </c>
-      <c r="E25" s="16" t="s">
-        <v>278</v>
-      </c>
-      <c r="F25" s="21"/>
-    </row>
-    <row r="26" spans="1:6" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D25" s="21" t="s">
+        <v>316</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="25">
+      <c r="B26" s="19">
         <v>6</v>
       </c>
-      <c r="C26" s="25">
+      <c r="C26" s="19">
         <v>5000</v>
       </c>
-      <c r="D26" s="27" t="s">
-        <v>311</v>
-      </c>
-      <c r="E26" s="26" t="s">
-        <v>303</v>
-      </c>
-      <c r="F26" s="27"/>
+      <c r="E26" s="15" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="27" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C27" s="19">
-        <v>10000</v>
-      </c>
-      <c r="D27" s="21" t="s">
-        <v>315</v>
-      </c>
-      <c r="E27" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="F27" s="21" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
+        <v>5000</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="F27" s="21"/>
+    </row>
+    <row r="28" spans="1:6" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="19">
-        <v>7</v>
-      </c>
-      <c r="C28" s="19">
-        <v>10000</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="F28" s="22"/>
+      <c r="B28" s="25">
+        <v>6</v>
+      </c>
+      <c r="C28" s="25">
+        <v>5000</v>
+      </c>
+      <c r="D28" s="27" t="s">
+        <v>311</v>
+      </c>
+      <c r="E28" s="26" t="s">
+        <v>303</v>
+      </c>
+      <c r="F28" s="27"/>
     </row>
     <row r="29" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
@@ -2260,63 +2269,63 @@
       <c r="C29" s="19">
         <v>10000</v>
       </c>
-      <c r="E29" s="16" t="s">
-        <v>279</v>
-      </c>
-      <c r="F29" s="21"/>
-    </row>
-    <row r="30" spans="1:6" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D29" s="21" t="s">
+        <v>315</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="F29" s="21" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="25">
+      <c r="B30" s="19">
         <v>7</v>
       </c>
-      <c r="C30" s="25">
+      <c r="C30" s="19">
         <v>10000</v>
       </c>
-      <c r="D30" s="27" t="s">
-        <v>312</v>
-      </c>
-      <c r="E30" s="26" t="s">
-        <v>304</v>
-      </c>
-      <c r="F30" s="27"/>
+      <c r="E30" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="F30" s="22"/>
     </row>
     <row r="31" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="19">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C31" s="19">
-        <v>20000</v>
-      </c>
-      <c r="D31" s="21" t="s">
-        <v>318</v>
-      </c>
-      <c r="E31" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="F31" s="21" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
+        <v>10000</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="F31" s="21"/>
+    </row>
+    <row r="32" spans="1:6" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" s="19">
-        <v>8</v>
-      </c>
-      <c r="C32" s="19">
-        <v>20000</v>
-      </c>
-      <c r="E32" s="15" t="s">
-        <v>296</v>
-      </c>
-      <c r="F32" s="22"/>
+      <c r="B32" s="25">
+        <v>7</v>
+      </c>
+      <c r="C32" s="25">
+        <v>10000</v>
+      </c>
+      <c r="D32" s="27" t="s">
+        <v>312</v>
+      </c>
+      <c r="E32" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="F32" s="27"/>
     </row>
     <row r="33" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
@@ -2328,63 +2337,63 @@
       <c r="C33" s="19">
         <v>20000</v>
       </c>
-      <c r="E33" s="16" t="s">
-        <v>280</v>
-      </c>
-      <c r="F33" s="21"/>
-    </row>
-    <row r="34" spans="1:6" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D33" s="21" t="s">
+        <v>318</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="F33" s="21" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34" s="25">
+      <c r="B34" s="19">
         <v>8</v>
       </c>
-      <c r="C34" s="25">
+      <c r="C34" s="19">
         <v>20000</v>
       </c>
-      <c r="D34" s="27" t="s">
-        <v>309</v>
-      </c>
-      <c r="E34" s="26" t="s">
-        <v>305</v>
-      </c>
-      <c r="F34" s="27"/>
+      <c r="E34" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="F34" s="22"/>
     </row>
     <row r="35" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" s="19">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C35" s="19">
-        <v>30000</v>
-      </c>
-      <c r="D35" s="21" t="s">
-        <v>317</v>
-      </c>
-      <c r="E35" s="23" t="s">
-        <v>288</v>
-      </c>
-      <c r="F35" s="21" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
+        <v>20000</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="F35" s="21"/>
+    </row>
+    <row r="36" spans="1:6" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36" s="19">
-        <v>9</v>
-      </c>
-      <c r="C36" s="19">
-        <v>30000</v>
-      </c>
-      <c r="E36" s="23" t="s">
-        <v>297</v>
-      </c>
-      <c r="F36" s="22"/>
+      <c r="B36" s="25">
+        <v>8</v>
+      </c>
+      <c r="C36" s="25">
+        <v>20000</v>
+      </c>
+      <c r="D36" s="27" t="s">
+        <v>309</v>
+      </c>
+      <c r="E36" s="26" t="s">
+        <v>305</v>
+      </c>
+      <c r="F36" s="27"/>
     </row>
     <row r="37" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
@@ -2396,63 +2405,63 @@
       <c r="C37" s="19">
         <v>30000</v>
       </c>
-      <c r="E37" s="20" t="s">
-        <v>281</v>
-      </c>
-      <c r="F37" s="21"/>
-    </row>
-    <row r="38" spans="1:6" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D37" s="21" t="s">
+        <v>317</v>
+      </c>
+      <c r="E37" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="F37" s="21" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
-      <c r="B38" s="25">
+      <c r="B38" s="19">
         <v>9</v>
       </c>
-      <c r="C38" s="25">
+      <c r="C38" s="19">
         <v>30000</v>
       </c>
-      <c r="D38" s="27" t="s">
-        <v>314</v>
-      </c>
-      <c r="E38" s="26" t="s">
-        <v>306</v>
-      </c>
-      <c r="F38" s="27"/>
+      <c r="E38" s="23" t="s">
+        <v>297</v>
+      </c>
+      <c r="F38" s="22"/>
     </row>
     <row r="39" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" s="19">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C39" s="19">
-        <v>50000</v>
-      </c>
-      <c r="D39" s="21" t="s">
-        <v>315</v>
-      </c>
-      <c r="E39" s="23" t="s">
-        <v>288</v>
-      </c>
-      <c r="F39" s="21" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
+        <v>30000</v>
+      </c>
+      <c r="E39" s="20" t="s">
+        <v>281</v>
+      </c>
+      <c r="F39" s="21"/>
+    </row>
+    <row r="40" spans="1:6" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="B40" s="19">
-        <v>10</v>
-      </c>
-      <c r="C40" s="19">
-        <v>50000</v>
-      </c>
-      <c r="E40" s="23" t="s">
-        <v>298</v>
-      </c>
-      <c r="F40" s="22"/>
+      <c r="B40" s="25">
+        <v>9</v>
+      </c>
+      <c r="C40" s="25">
+        <v>30000</v>
+      </c>
+      <c r="D40" s="27" t="s">
+        <v>314</v>
+      </c>
+      <c r="E40" s="26" t="s">
+        <v>306</v>
+      </c>
+      <c r="F40" s="27"/>
     </row>
     <row r="41" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
@@ -2464,40 +2473,75 @@
       <c r="C41" s="19">
         <v>50000</v>
       </c>
-      <c r="E41" s="20" t="s">
-        <v>282</v>
-      </c>
-      <c r="F41" s="21"/>
-    </row>
-    <row r="42" spans="1:6" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D41" s="21" t="s">
+        <v>315</v>
+      </c>
+      <c r="E41" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="F41" s="21" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
-      <c r="B42" s="25">
+      <c r="B42" s="19">
         <v>10</v>
       </c>
-      <c r="C42" s="25">
+      <c r="C42" s="19">
         <v>50000</v>
       </c>
-      <c r="D42" s="27" t="s">
+      <c r="E42" s="23" t="s">
+        <v>298</v>
+      </c>
+      <c r="F42" s="22"/>
+    </row>
+    <row r="43" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="19">
+        <v>10</v>
+      </c>
+      <c r="C43" s="19">
+        <v>50000</v>
+      </c>
+      <c r="E43" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="F43" s="21"/>
+    </row>
+    <row r="44" spans="1:6" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="25">
+        <v>10</v>
+      </c>
+      <c r="C44" s="25">
+        <v>50000</v>
+      </c>
+      <c r="D44" s="27" t="s">
         <v>314</v>
       </c>
-      <c r="E42" s="26" t="s">
+      <c r="E44" s="26" t="s">
         <v>307</v>
       </c>
-      <c r="F42" s="27"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E43" s="12"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E44" s="12"/>
+      <c r="F44" s="27"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E45" s="12"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E46" s="12"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E47" s="12"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E48" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/config_Release/vip2_config.xlsx
+++ b/config_Release/vip2_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_10.27\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_11.24\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="597"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="597" firstSheet="3" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="dangci|档次" sheetId="7" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="317">
   <si>
     <t>total|总共充值</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -797,79 +797,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>"75万","1","1",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"318万","5","5",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"538万","10","10",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"1108万","20","20",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"2218万","40","40",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"3288万","68","60",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"4388万","88","80",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"5488万","110","100",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"6488万","148","100",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"7688万","158","100",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>origin_price|价格</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_jb_48y","3dby_btn_zh","3dby_btn_sd",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_jb_198y","3dby_btn_zh","3dby_btn_sd",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_jb_198y","3dby_btn_zh","3dby_btn_sd",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_jb_98y","3dby_btn_zh","3dby_btn_sd",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_jb_98y","3dby_btn_zh","3dby_btn_sd",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_jb_50y","3dby_btn_zh","3dby_btn_sd",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_jb_50y","3dby_btn_zh","3dby_btn_sd",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_jb_50y","3dby_btn_zh","3dby_btn_sd",</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -1260,6 +1188,58 @@
   <si>
     <t>可获得&lt;color=#DA2020&gt;金币使者&lt;/color&gt;炮台，可捕获同移动线上的任意鱼类</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_48y","zpg_icon_shui","com_award_icon_cz1",</t>
+  </si>
+  <si>
+    <t>"ty_icon_jb_50y","zpg_icon_shui","com_award_icon_cz1",</t>
+  </si>
+  <si>
+    <t>"ty_icon_jb_98y","zpg_icon_shui","com_award_icon_cz1",</t>
+  </si>
+  <si>
+    <t>"ty_icon_jb_198y","zpg_icon_shui","com_award_icon_cz1",</t>
+  </si>
+  <si>
+    <t>"75万","1","1",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"7688万","20","20",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"6488万","10","10",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"5488万","8","8",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4388万","7","7",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"3288万","6","6",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2218万","5","5",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1108万","4","4",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"538万","3","3",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"318万","2","2",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1775,8 +1755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A44"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1798,7 +1778,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>1</v>
@@ -1821,7 +1801,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="F2" s="5"/>
     </row>
@@ -1836,7 +1816,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
       <c r="F3" s="13"/>
     </row>
@@ -1851,7 +1831,7 @@
         <v>10</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="F4" s="5"/>
     </row>
@@ -1866,10 +1846,10 @@
         <v>10</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>299</v>
+        <v>281</v>
       </c>
       <c r="F5" s="27"/>
     </row>
@@ -1884,13 +1864,13 @@
         <v>200</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1904,7 +1884,7 @@
         <v>200</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="F7" s="14"/>
     </row>
@@ -1919,7 +1899,7 @@
         <v>200</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="F8" s="5"/>
     </row>
@@ -1934,10 +1914,10 @@
         <v>200</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="F9" s="27"/>
     </row>
@@ -1952,10 +1932,10 @@
         <v>500</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="F10" s="21"/>
     </row>
@@ -1970,13 +1950,13 @@
         <v>500</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1990,7 +1970,7 @@
         <v>500</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>291</v>
+        <v>273</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2004,7 +1984,7 @@
         <v>500</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2018,10 +1998,10 @@
         <v>500</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="F14" s="27"/>
     </row>
@@ -2036,13 +2016,13 @@
         <v>1000</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2056,7 +2036,7 @@
         <v>1000</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>292</v>
+        <v>274</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2070,7 +2050,7 @@
         <v>1000</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2084,10 +2064,10 @@
         <v>1000</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>302</v>
+        <v>284</v>
       </c>
       <c r="F18" s="27"/>
     </row>
@@ -2102,10 +2082,10 @@
         <v>2000</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="F19" s="21"/>
     </row>
@@ -2120,13 +2100,13 @@
         <v>2000</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>287</v>
+        <v>269</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2140,7 +2120,7 @@
         <v>2000</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>293</v>
+        <v>275</v>
       </c>
       <c r="F21" s="22"/>
     </row>
@@ -2155,7 +2135,7 @@
         <v>2000</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="F22" s="21"/>
     </row>
@@ -2170,7 +2150,7 @@
         <v>2000</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
       <c r="F23" s="21"/>
     </row>
@@ -2185,10 +2165,10 @@
         <v>2000</v>
       </c>
       <c r="D24" s="27" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="F24" s="27"/>
     </row>
@@ -2203,13 +2183,13 @@
         <v>5000</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
       <c r="F25" s="21" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -2223,7 +2203,7 @@
         <v>5000</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -2237,7 +2217,7 @@
         <v>5000</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="F27" s="21"/>
     </row>
@@ -2252,10 +2232,10 @@
         <v>5000</v>
       </c>
       <c r="D28" s="27" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
       <c r="E28" s="26" t="s">
-        <v>303</v>
+        <v>285</v>
       </c>
       <c r="F28" s="27"/>
     </row>
@@ -2270,13 +2250,13 @@
         <v>10000</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
       <c r="F29" s="21" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -2290,7 +2270,7 @@
         <v>10000</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>295</v>
+        <v>277</v>
       </c>
       <c r="F30" s="22"/>
     </row>
@@ -2305,7 +2285,7 @@
         <v>10000</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="F31" s="21"/>
     </row>
@@ -2320,10 +2300,10 @@
         <v>10000</v>
       </c>
       <c r="D32" s="27" t="s">
-        <v>312</v>
+        <v>294</v>
       </c>
       <c r="E32" s="26" t="s">
-        <v>304</v>
+        <v>286</v>
       </c>
       <c r="F32" s="27"/>
     </row>
@@ -2338,13 +2318,13 @@
         <v>20000</v>
       </c>
       <c r="D33" s="21" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
       <c r="F33" s="21" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -2358,7 +2338,7 @@
         <v>20000</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="F34" s="22"/>
     </row>
@@ -2373,7 +2353,7 @@
         <v>20000</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="F35" s="21"/>
     </row>
@@ -2388,10 +2368,10 @@
         <v>20000</v>
       </c>
       <c r="D36" s="27" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="E36" s="26" t="s">
-        <v>305</v>
+        <v>287</v>
       </c>
       <c r="F36" s="27"/>
     </row>
@@ -2406,13 +2386,13 @@
         <v>30000</v>
       </c>
       <c r="D37" s="21" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
       <c r="E37" s="23" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
       <c r="F37" s="21" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
     </row>
     <row r="38" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -2426,7 +2406,7 @@
         <v>30000</v>
       </c>
       <c r="E38" s="23" t="s">
-        <v>297</v>
+        <v>279</v>
       </c>
       <c r="F38" s="22"/>
     </row>
@@ -2441,7 +2421,7 @@
         <v>30000</v>
       </c>
       <c r="E39" s="20" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="F39" s="21"/>
     </row>
@@ -2456,10 +2436,10 @@
         <v>30000</v>
       </c>
       <c r="D40" s="27" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="E40" s="26" t="s">
-        <v>306</v>
+        <v>288</v>
       </c>
       <c r="F40" s="27"/>
     </row>
@@ -2474,13 +2454,13 @@
         <v>50000</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="E41" s="23" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
       <c r="F41" s="21" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
     </row>
     <row r="42" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -2494,7 +2474,7 @@
         <v>50000</v>
       </c>
       <c r="E42" s="23" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="F42" s="22"/>
     </row>
@@ -2509,7 +2489,7 @@
         <v>50000</v>
       </c>
       <c r="E43" s="20" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="F43" s="21"/>
     </row>
@@ -2524,10 +2504,10 @@
         <v>50000</v>
       </c>
       <c r="D44" s="27" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="E44" s="26" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
       <c r="F44" s="27"/>
     </row>
@@ -2554,17 +2534,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="20.375" customWidth="1"/>
-    <col min="3" max="3" width="32.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.875" customWidth="1"/>
-    <col min="5" max="5" width="13.125" customWidth="1"/>
-    <col min="6" max="6" width="65" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="60" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2579,7 +2559,7 @@
         <v>189</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>190</v>
@@ -2599,17 +2579,17 @@
         <v>10244</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="D2" s="17"/>
       <c r="E2">
         <v>6</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>204</v>
+        <v>303</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>193</v>
+        <v>307</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -2620,17 +2600,17 @@
         <v>10245</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3">
         <v>28</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>204</v>
+        <v>303</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>194</v>
+        <v>316</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -2641,17 +2621,17 @@
         <v>10246</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="D4" s="17"/>
       <c r="E4">
         <v>48</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>204</v>
+        <v>303</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>195</v>
+        <v>315</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -2662,17 +2642,17 @@
         <v>10247</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5">
         <v>99</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>211</v>
+        <v>304</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>196</v>
+        <v>314</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -2683,17 +2663,17 @@
         <v>10248</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6">
         <v>198</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>210</v>
+        <v>304</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>197</v>
+        <v>313</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -2704,17 +2684,17 @@
         <v>10249</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7">
         <v>298</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>209</v>
+        <v>304</v>
       </c>
       <c r="G7" s="24" t="s">
-        <v>198</v>
+        <v>312</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -2725,17 +2705,17 @@
         <v>10250</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="D8" s="17"/>
       <c r="E8">
         <v>398</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>208</v>
+        <v>305</v>
       </c>
       <c r="G8" s="24" t="s">
-        <v>199</v>
+        <v>311</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -2746,17 +2726,17 @@
         <v>10251</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9">
         <v>498</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>207</v>
+        <v>305</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>200</v>
+        <v>310</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -2767,17 +2747,17 @@
         <v>10252</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10">
         <v>598</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>206</v>
+        <v>306</v>
       </c>
       <c r="G10" s="24" t="s">
-        <v>201</v>
+        <v>309</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -2788,17 +2768,17 @@
         <v>10253</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="D11" s="17"/>
       <c r="E11">
         <v>698</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>205</v>
+        <v>306</v>
       </c>
       <c r="G11" s="24" t="s">
-        <v>202</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -2812,7 +2792,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B13"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2829,22 +2809,22 @@
         <v>13</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -2855,16 +2835,16 @@
         <v>21341</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="D2" s="17">
         <v>2000000</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -2878,16 +2858,16 @@
         <v>21341</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="D3" s="17">
         <v>5000000</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -2901,16 +2881,16 @@
         <v>21341</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
       <c r="D4" s="17">
         <v>10000000</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -2924,16 +2904,16 @@
         <v>21341</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="D5" s="17">
         <v>20000000</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -2947,16 +2927,16 @@
         <v>21341</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="D6" s="17">
         <v>50000000</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -2970,16 +2950,16 @@
         <v>21341</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="D7" s="17">
         <v>100000000</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="G7">
         <v>6</v>
@@ -2993,16 +2973,16 @@
         <v>21341</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="D8" s="17">
         <v>200000000</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="G8">
         <v>7</v>
@@ -3016,16 +2996,16 @@
         <v>21341</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="D9" s="17">
         <v>500000000</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="G9">
         <v>8</v>
@@ -3039,16 +3019,16 @@
         <v>21341</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="D10" s="17">
         <v>1000000000</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="G10">
         <v>9</v>
@@ -3062,16 +3042,16 @@
         <v>21341</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="D11" s="17">
         <v>2000000000</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="G11">
         <v>10</v>
@@ -3085,16 +3065,16 @@
         <v>21341</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="D12" s="17">
         <v>3000000000</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="G12">
         <v>11</v>
@@ -3108,16 +3088,16 @@
         <v>21341</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="D13" s="17">
         <v>5000000000</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="G13">
         <v>12</v>
@@ -3163,10 +3143,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>263</v>
+        <v>245</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>136</v>
@@ -3177,10 +3157,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>263</v>
+        <v>245</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>65</v>
@@ -3191,10 +3171,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>64</v>
@@ -3582,10 +3562,10 @@
         <v>21341</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/vip2_config.xlsx
+++ b/config_Release/vip2_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_11.24\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="597" firstSheet="3" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="597"/>
   </bookViews>
   <sheets>
     <sheet name="dangci|档次" sheetId="7" r:id="rId1"/>
@@ -24,12 +24,15 @@
     <sheet name="gift|VIP礼包" sheetId="17" r:id="rId10"/>
     <sheet name="fhfl|富豪福利" sheetId="18" r:id="rId11"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'dangci|档次'!$E$1:$E$48</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="319">
   <si>
     <t>total|总共充值</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -1170,18 +1173,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>vip_notcps</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>vip_notcps</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>vip_notcps</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>可获得&lt;color=#DA2020&gt;闪耀风暴&lt;/color&gt;炮台，有几率捕获激光范围内的任意鱼类</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1240,6 +1231,26 @@
   <si>
     <t>"318万","2","2",</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sys_flqcj","panel"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>cjj_vip_desc</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>cjj_vip_desc</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>cjj_vip_desc</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>cjj_vip_desc</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1755,8 +1766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1864,7 +1875,7 @@
         <v>200</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>297</v>
+        <v>315</v>
       </c>
       <c r="E6" s="15" t="s">
         <v>266</v>
@@ -1935,7 +1946,7 @@
         <v>297</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F10" s="21"/>
     </row>
@@ -1950,7 +1961,7 @@
         <v>500</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>297</v>
+        <v>315</v>
       </c>
       <c r="E11" s="15" t="s">
         <v>267</v>
@@ -2016,7 +2027,7 @@
         <v>1000</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>297</v>
+        <v>315</v>
       </c>
       <c r="E15" s="15" t="s">
         <v>268</v>
@@ -2085,7 +2096,7 @@
         <v>297</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F19" s="21"/>
     </row>
@@ -2100,7 +2111,7 @@
         <v>2000</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>299</v>
+        <v>318</v>
       </c>
       <c r="E20" s="15" t="s">
         <v>269</v>
@@ -2183,7 +2194,7 @@
         <v>5000</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="E25" s="15" t="s">
         <v>270</v>
@@ -2250,7 +2261,7 @@
         <v>10000</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>297</v>
+        <v>317</v>
       </c>
       <c r="E29" s="15" t="s">
         <v>270</v>
@@ -2318,7 +2329,7 @@
         <v>20000</v>
       </c>
       <c r="D33" s="21" t="s">
-        <v>300</v>
+        <v>316</v>
       </c>
       <c r="E33" s="15" t="s">
         <v>270</v>
@@ -2386,7 +2397,7 @@
         <v>30000</v>
       </c>
       <c r="D37" s="21" t="s">
-        <v>299</v>
+        <v>315</v>
       </c>
       <c r="E37" s="23" t="s">
         <v>270</v>
@@ -2454,13 +2465,13 @@
         <v>50000</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>297</v>
+        <v>315</v>
       </c>
       <c r="E41" s="23" t="s">
         <v>270</v>
       </c>
       <c r="F41" s="21" t="s">
-        <v>204</v>
+        <v>314</v>
       </c>
     </row>
     <row r="42" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -2524,6 +2535,7 @@
       <c r="E48" s="12"/>
     </row>
   </sheetData>
+  <autoFilter ref="E1:E48"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2534,8 +2546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2586,10 +2598,10 @@
         <v>6</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -2607,10 +2619,10 @@
         <v>28</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -2628,10 +2640,10 @@
         <v>48</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -2649,10 +2661,10 @@
         <v>99</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -2670,10 +2682,10 @@
         <v>198</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -2691,10 +2703,10 @@
         <v>298</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G7" s="24" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -2712,10 +2724,10 @@
         <v>398</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="G8" s="24" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -2733,10 +2745,10 @@
         <v>498</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -2754,10 +2766,10 @@
         <v>598</v>
       </c>
       <c r="F10" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="G10" s="24" t="s">
         <v>306</v>
-      </c>
-      <c r="G10" s="24" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -2775,10 +2787,10 @@
         <v>698</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G11" s="24" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/vip2_config.xlsx
+++ b/config_Release/vip2_config.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="317">
   <si>
     <t>total|总共充值</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -834,9 +834,6 @@
     <t>"VIP10礼包","(购买条件:&lt;color=#EDD112&gt;VIP等级≥10&lt;/color&gt;)",</t>
   </si>
   <si>
-    <t>"sys_flqcj","panel"</t>
-  </si>
-  <si>
     <t>task_id|任务ID</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1231,10 +1228,6 @@
   <si>
     <t>"318万","2","2",</t>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"sys_flqcj","panel"</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>cjj_vip_desc</t>
@@ -1767,12 +1760,13 @@
   <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F43" sqref="F6:F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="9" style="1"/>
+    <col min="1" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="10.875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="90.25" style="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
@@ -1789,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>1</v>
@@ -1812,7 +1806,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F2" s="5"/>
     </row>
@@ -1827,7 +1821,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F3" s="13"/>
     </row>
@@ -1842,7 +1836,7 @@
         <v>10</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F4" s="5"/>
     </row>
@@ -1857,10 +1851,10 @@
         <v>10</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F5" s="27"/>
     </row>
@@ -1875,14 +1869,12 @@
         <v>200</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>204</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
@@ -1895,7 +1887,7 @@
         <v>200</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F7" s="14"/>
     </row>
@@ -1910,7 +1902,7 @@
         <v>200</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F8" s="5"/>
     </row>
@@ -1925,10 +1917,10 @@
         <v>200</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F9" s="27"/>
     </row>
@@ -1943,10 +1935,10 @@
         <v>500</v>
       </c>
       <c r="D10" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="E10" s="15" t="s">
         <v>297</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>298</v>
       </c>
       <c r="F10" s="21"/>
     </row>
@@ -1961,14 +1953,12 @@
         <v>500</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>267</v>
-      </c>
-      <c r="F11" s="21" t="s">
-        <v>204</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="F11" s="21"/>
     </row>
     <row r="12" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
@@ -1981,7 +1971,7 @@
         <v>500</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1995,7 +1985,7 @@
         <v>500</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2009,10 +1999,10 @@
         <v>500</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F14" s="27"/>
     </row>
@@ -2027,14 +2017,12 @@
         <v>1000</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>268</v>
-      </c>
-      <c r="F15" s="21" t="s">
-        <v>204</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="F15" s="21"/>
     </row>
     <row r="16" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
@@ -2047,7 +2035,7 @@
         <v>1000</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2061,7 +2049,7 @@
         <v>1000</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2075,10 +2063,10 @@
         <v>1000</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F18" s="27"/>
     </row>
@@ -2093,10 +2081,10 @@
         <v>2000</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F19" s="21"/>
     </row>
@@ -2111,14 +2099,12 @@
         <v>2000</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>269</v>
-      </c>
-      <c r="F20" s="21" t="s">
-        <v>204</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="F20" s="21"/>
     </row>
     <row r="21" spans="1:6" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
@@ -2131,7 +2117,7 @@
         <v>2000</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F21" s="22"/>
     </row>
@@ -2146,7 +2132,7 @@
         <v>2000</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F22" s="21"/>
     </row>
@@ -2161,7 +2147,7 @@
         <v>2000</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F23" s="21"/>
     </row>
@@ -2176,10 +2162,10 @@
         <v>2000</v>
       </c>
       <c r="D24" s="27" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F24" s="27"/>
     </row>
@@ -2194,14 +2180,12 @@
         <v>5000</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>270</v>
-      </c>
-      <c r="F25" s="21" t="s">
-        <v>204</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="F25" s="21"/>
     </row>
     <row r="26" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
@@ -2214,7 +2198,7 @@
         <v>5000</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -2228,7 +2212,7 @@
         <v>5000</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F27" s="21"/>
     </row>
@@ -2243,10 +2227,10 @@
         <v>5000</v>
       </c>
       <c r="D28" s="27" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E28" s="26" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F28" s="27"/>
     </row>
@@ -2261,14 +2245,12 @@
         <v>10000</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>270</v>
-      </c>
-      <c r="F29" s="21" t="s">
-        <v>204</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="F29" s="21"/>
     </row>
     <row r="30" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
@@ -2281,7 +2263,7 @@
         <v>10000</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F30" s="22"/>
     </row>
@@ -2296,7 +2278,7 @@
         <v>10000</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F31" s="21"/>
     </row>
@@ -2311,10 +2293,10 @@
         <v>10000</v>
       </c>
       <c r="D32" s="27" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E32" s="26" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F32" s="27"/>
     </row>
@@ -2329,14 +2311,12 @@
         <v>20000</v>
       </c>
       <c r="D33" s="21" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>270</v>
-      </c>
-      <c r="F33" s="21" t="s">
-        <v>204</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
@@ -2349,7 +2329,7 @@
         <v>20000</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F34" s="22"/>
     </row>
@@ -2364,7 +2344,7 @@
         <v>20000</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F35" s="21"/>
     </row>
@@ -2379,10 +2359,10 @@
         <v>20000</v>
       </c>
       <c r="D36" s="27" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E36" s="26" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F36" s="27"/>
     </row>
@@ -2397,14 +2377,12 @@
         <v>30000</v>
       </c>
       <c r="D37" s="21" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E37" s="23" t="s">
-        <v>270</v>
-      </c>
-      <c r="F37" s="21" t="s">
-        <v>204</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
@@ -2417,7 +2395,7 @@
         <v>30000</v>
       </c>
       <c r="E38" s="23" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F38" s="22"/>
     </row>
@@ -2432,7 +2410,7 @@
         <v>30000</v>
       </c>
       <c r="E39" s="20" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F39" s="21"/>
     </row>
@@ -2447,10 +2425,10 @@
         <v>30000</v>
       </c>
       <c r="D40" s="27" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E40" s="26" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F40" s="27"/>
     </row>
@@ -2465,14 +2443,12 @@
         <v>50000</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E41" s="23" t="s">
-        <v>270</v>
-      </c>
-      <c r="F41" s="21" t="s">
-        <v>314</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
@@ -2485,7 +2461,7 @@
         <v>50000</v>
       </c>
       <c r="E42" s="23" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F42" s="22"/>
     </row>
@@ -2500,7 +2476,7 @@
         <v>50000</v>
       </c>
       <c r="E43" s="20" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F43" s="21"/>
     </row>
@@ -2515,10 +2491,10 @@
         <v>50000</v>
       </c>
       <c r="D44" s="27" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E44" s="26" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F44" s="27"/>
     </row>
@@ -2598,10 +2574,10 @@
         <v>6</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -2619,10 +2595,10 @@
         <v>28</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -2640,10 +2616,10 @@
         <v>48</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -2661,10 +2637,10 @@
         <v>99</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -2682,10 +2658,10 @@
         <v>198</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -2703,10 +2679,10 @@
         <v>298</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G7" s="24" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -2724,10 +2700,10 @@
         <v>398</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G8" s="24" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -2745,10 +2721,10 @@
         <v>498</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -2766,10 +2742,10 @@
         <v>598</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G10" s="24" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -2787,10 +2763,10 @@
         <v>698</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G11" s="24" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -2821,22 +2797,22 @@
         <v>13</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="F1" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>250</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -2847,16 +2823,16 @@
         <v>21341</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D2" s="17">
         <v>2000000</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -2870,16 +2846,16 @@
         <v>21341</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D3" s="17">
         <v>5000000</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -2893,16 +2869,16 @@
         <v>21341</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D4" s="17">
         <v>10000000</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -2916,16 +2892,16 @@
         <v>21341</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D5" s="17">
         <v>20000000</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -2939,16 +2915,16 @@
         <v>21341</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D6" s="17">
         <v>50000000</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -2962,16 +2938,16 @@
         <v>21341</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D7" s="17">
         <v>100000000</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G7">
         <v>6</v>
@@ -2985,16 +2961,16 @@
         <v>21341</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D8" s="17">
         <v>200000000</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G8">
         <v>7</v>
@@ -3008,16 +2984,16 @@
         <v>21341</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D9" s="17">
         <v>500000000</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G9">
         <v>8</v>
@@ -3031,16 +3007,16 @@
         <v>21341</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D10" s="17">
         <v>1000000000</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G10">
         <v>9</v>
@@ -3054,16 +3030,16 @@
         <v>21341</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D11" s="17">
         <v>2000000000</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G11">
         <v>10</v>
@@ -3077,16 +3053,16 @@
         <v>21341</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D12" s="17">
         <v>3000000000</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G12">
         <v>11</v>
@@ -3100,16 +3076,16 @@
         <v>21341</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D13" s="17">
         <v>5000000000</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G13">
         <v>12</v>
@@ -3155,10 +3131,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>136</v>
@@ -3169,10 +3145,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>65</v>
@@ -3183,10 +3159,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>64</v>
@@ -3574,10 +3550,10 @@
         <v>21341</v>
       </c>
       <c r="C23" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>252</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>253</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/vip2_config.xlsx
+++ b/config_Release/vip2_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="597"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="597" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="dangci|档次" sheetId="7" r:id="rId1"/>
@@ -27,12 +27,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'dangci|档次'!$E$1:$E$48</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="395">
   <si>
     <t>total|总共充值</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -140,10 +140,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>10000000</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>com_icon_gold</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -156,18 +152,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>bbsc_icon_hb</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>bbsc_icon_hb</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>bbsc_icon_hb</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>vip_zx_icon_1</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -192,42 +176,18 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>3000鲸币</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>5000鲸币</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>黄金转运珠</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>华为P30</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>苹果笔记本电脑</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>need|需求量</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>500000000</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>200000000</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>20000000</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>1</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -290,14 +250,6 @@
   <si>
     <t>hall_bg_head</t>
     <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>vip&lt;color=#e41a1a&gt;6&lt;/color&gt;及以上福利</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>vip&lt;color=#e41a1a&gt;3&lt;/color&gt;-vip&lt;color=#e41a1a&gt;5&lt;/color&gt;福利</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>title|抬头</t>
@@ -316,14 +268,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>四件套</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>电饭煲</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>vip每周任务奖励1</t>
   </si>
   <si>
@@ -346,19 +290,19 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>3红包券</t>
-  </si>
-  <si>
-    <t>5红包券</t>
-  </si>
-  <si>
-    <t>20红包券</t>
-  </si>
-  <si>
-    <t>50红包券</t>
-  </si>
-  <si>
-    <t>0.5红包劵</t>
+    <t>vip|Vip等级</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cfz|财富值</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>8000鲸币</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4000000</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -366,34 +310,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>10红包劵</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>华为荣耀平板</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>vip|Vip等级</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>cfz|财富值</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>8000鲸币</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>4000000</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1红包劵</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>8000000</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -570,10 +486,6 @@
   </si>
   <si>
     <t>activity_icon_gift162_kt</t>
-  </si>
-  <si>
-    <t>vip&lt;color=#e41a1a&gt;2&lt;/color&gt;福利</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -994,256 +906,650 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>"com_award_icon_yb1","zpg_icon_yg","3dby_btn_zh"</t>
+    <t>condition|进度</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>award_progress_lv|奖励阶段等级</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>fhfl</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>富豪福利</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>享受vip专享福利</t>
+  </si>
+  <si>
+    <t>享受vip1所有特权并提高部分特权奖励</t>
+  </si>
+  <si>
+    <t>享受vip2所有特权并提高部分特权奖励</t>
+  </si>
+  <si>
+    <t>享受vip3所有特权并提高部分特权奖励</t>
+  </si>
+  <si>
+    <t>畅玩所有游戏</t>
+  </si>
+  <si>
+    <t>享受vip4所有特权并提高部分特权奖励</t>
+  </si>
+  <si>
+    <t>享受vip5所有特权并提高部分特权奖励</t>
+  </si>
+  <si>
+    <t>享受vip6所有特权并提高部分特权奖励</t>
+  </si>
+  <si>
+    <t>享受vip7所有特权并提高部分特权奖励</t>
+  </si>
+  <si>
+    <t>享受vip8所有特权并提高部分特权奖励</t>
+  </si>
+  <si>
+    <t>享受vip9所有特权并提高部分特权奖励</t>
+  </si>
+  <si>
+    <t>福利券容量提升为&lt;color=#DA2020&gt;5000福利券&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>可使用Vip超级转盘，每日可抽&lt;color=#DA2020&gt;5次&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>可使用Vip超级转盘，每日可抽&lt;color=#DA2020&gt;10次&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>可使用Vip超级转盘，每日可抽&lt;color=#DA2020&gt;20次&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>可使用Vip超级转盘，每日可抽&lt;color=#DA2020&gt;30次&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>可使用Vip超级转盘，每日可抽&lt;color=#DA2020&gt;50次&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>享受兑换商城商品&lt;color=#DA2020&gt;99%&lt;/color&gt;兑换权</t>
+  </si>
+  <si>
+    <t>福利券容量提升为&lt;color=#DA2020&gt;4万福利券&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>福利券容量提升为&lt;color=#DA2020&gt;10万福利券&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>福利券容量提升为&lt;color=#DA2020&gt;15万福利券&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>福利券容量提升为&lt;color=#DA2020&gt;30万福利券&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>福利券容量提升为&lt;color=#DA2020&gt;50万福利券&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>福利券容量提升为&lt;color=#DA2020&gt;100万福利券&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>福利券容量提升为&lt;color=#DA2020&gt;200万福利券&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>福利券容量提升为&lt;color=#DA2020&gt;300万福利券&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>福利券容量提升为&lt;color=#DA2020&gt;500万福利券&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>每日最多可参加排名挑战赛4次</t>
+  </si>
+  <si>
+    <t>每日最多可参加排名挑战赛5次</t>
+  </si>
+  <si>
+    <t>每日最多可参加排名挑战赛6次</t>
+  </si>
+  <si>
+    <t>每日最多可参加排名挑战赛7次</t>
+  </si>
+  <si>
+    <t>每日最多可参加排名挑战赛9次</t>
+  </si>
+  <si>
+    <t>每日最多可参加排名挑战赛10次</t>
+  </si>
+  <si>
+    <t>每日最多可参加排名挑战赛11次</t>
+  </si>
+  <si>
+    <t>每日最多可参加排名挑战赛12次</t>
+  </si>
+  <si>
+    <t>key|权限</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpl_notcjj</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpl_notcjj</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpl_notcjj</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpl_notcjj</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日最多可参加排名挑战赛8次</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpl_notcjj</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>vip_notcps</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>可获得&lt;color=#DA2020&gt;闪耀风暴&lt;/color&gt;炮台，有几率捕获激光范围内的任意鱼类</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>可获得&lt;color=#DA2020&gt;金币使者&lt;/color&gt;炮台，可捕获同移动线上的任意鱼类</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_48y","zpg_icon_shui","com_award_icon_cz1",</t>
+  </si>
+  <si>
+    <t>"ty_icon_jb_50y","zpg_icon_shui","com_award_icon_cz1",</t>
+  </si>
+  <si>
+    <t>"ty_icon_jb_98y","zpg_icon_shui","com_award_icon_cz1",</t>
+  </si>
+  <si>
+    <t>"ty_icon_jb_198y","zpg_icon_shui","com_award_icon_cz1",</t>
+  </si>
+  <si>
+    <t>"75万","1","1",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"7688万","20","20",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"6488万","10","10",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"5488万","8","8",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4388万","7","7",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"3288万","6","6",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2218万","5","5",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1108万","4","4",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"538万","3","3",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"318万","2","2",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cjj_vip_desc</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>cjj_vip_desc</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>cjj_vip_desc</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>cjj_vip_desc</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"30万鱼币","太阳*6","狂暴卡*10"</t>
+  </si>
+  <si>
+    <t>vip&lt;color=#e41a1a&gt;3&lt;/color&gt;-vip&lt;color=#e41a1a&gt;5&lt;/color&gt;福利</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>"com_award_icon_yb1","zpg_icon_yg","3dby_btn_zh"</t>
+    <t>vip&lt;color=#e41a1a&gt;2&lt;/color&gt;福利</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>"10万鱼币","太阳*2","召唤*10"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"30万鱼币","太阳*6","召唤*10"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"66万鱼币","太阳*10","召唤*10"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>condition|进度</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>award_progress_lv|奖励阶段等级</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>fhfl</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>富豪福利</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>享受vip专享福利</t>
-  </si>
-  <si>
-    <t>享受vip1所有特权并提高部分特权奖励</t>
-  </si>
-  <si>
-    <t>享受vip2所有特权并提高部分特权奖励</t>
-  </si>
-  <si>
-    <t>享受vip3所有特权并提高部分特权奖励</t>
-  </si>
-  <si>
-    <t>畅玩所有游戏</t>
-  </si>
-  <si>
-    <t>享受vip4所有特权并提高部分特权奖励</t>
-  </si>
-  <si>
-    <t>享受vip5所有特权并提高部分特权奖励</t>
-  </si>
-  <si>
-    <t>享受vip6所有特权并提高部分特权奖励</t>
-  </si>
-  <si>
-    <t>享受vip7所有特权并提高部分特权奖励</t>
-  </si>
-  <si>
-    <t>享受vip8所有特权并提高部分特权奖励</t>
-  </si>
-  <si>
-    <t>享受vip9所有特权并提高部分特权奖励</t>
-  </si>
-  <si>
-    <t>福利券容量提升为&lt;color=#DA2020&gt;5000福利券&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>可使用Vip超级转盘，每日可抽&lt;color=#DA2020&gt;5次&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>可使用Vip超级转盘，每日可抽&lt;color=#DA2020&gt;10次&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>可使用Vip超级转盘，每日可抽&lt;color=#DA2020&gt;20次&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>可使用Vip超级转盘，每日可抽&lt;color=#DA2020&gt;30次&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>可使用Vip超级转盘，每日可抽&lt;color=#DA2020&gt;50次&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>享受兑换商城商品&lt;color=#DA2020&gt;99%&lt;/color&gt;兑换权</t>
-  </si>
-  <si>
-    <t>福利券容量提升为&lt;color=#DA2020&gt;4万福利券&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>福利券容量提升为&lt;color=#DA2020&gt;10万福利券&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>福利券容量提升为&lt;color=#DA2020&gt;15万福利券&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>福利券容量提升为&lt;color=#DA2020&gt;30万福利券&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>福利券容量提升为&lt;color=#DA2020&gt;50万福利券&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>福利券容量提升为&lt;color=#DA2020&gt;100万福利券&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>福利券容量提升为&lt;color=#DA2020&gt;200万福利券&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>福利券容量提升为&lt;color=#DA2020&gt;300万福利券&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>福利券容量提升为&lt;color=#DA2020&gt;500万福利券&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>每日最多可参加排名挑战赛4次</t>
-  </si>
-  <si>
-    <t>每日最多可参加排名挑战赛5次</t>
-  </si>
-  <si>
-    <t>每日最多可参加排名挑战赛6次</t>
-  </si>
-  <si>
-    <t>每日最多可参加排名挑战赛7次</t>
-  </si>
-  <si>
-    <t>每日最多可参加排名挑战赛9次</t>
-  </si>
-  <si>
-    <t>每日最多可参加排名挑战赛10次</t>
-  </si>
-  <si>
-    <t>每日最多可参加排名挑战赛11次</t>
-  </si>
-  <si>
-    <t>每日最多可参加排名挑战赛12次</t>
+    <t>vip&lt;color=#e41a1a&gt;8&lt;/color&gt;及以上福利</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"com_award_icon_yb1","zpg_icon_yg","3dby_btn_kb"</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"com_award_icon_yb1","zpg_icon_yg","3dby_btn_kb"</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"com_award_icon_yb1","zpg_icon_yg","3dby_btn_kb"</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"10万鱼币","太阳*2","狂暴卡*5"</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"66万鱼币","太阳*10","狂暴卡*15"</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>task_id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0B0B0B"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>|任务id</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>tips|点击图标描述</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc|</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>成为VIP2即可领取更丰厚的每周福利!</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>成为VIP8即可领取更丰厚的每周福利!</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>成为VIP6即可领取更丰厚的每周福利!</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>成为VIP3即可领取更丰厚的每周福利!</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000000</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000000</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>50000000</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000000</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>500000000</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000000000</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000000000</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000000000</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000000000</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000000000</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>50000000000</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000000000</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>200000000000</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>500000000000</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3万金币</t>
+  </si>
+  <si>
+    <t>5万金币</t>
+  </si>
+  <si>
+    <t>50福利券</t>
+  </si>
+  <si>
+    <t>100福利券</t>
+  </si>
+  <si>
+    <t>300福利券</t>
+  </si>
+  <si>
+    <t>500福利券</t>
+  </si>
+  <si>
+    <t>1000福利券</t>
+  </si>
+  <si>
+    <t>2000福利券</t>
+  </si>
+  <si>
+    <t>5000福利券</t>
+  </si>
+  <si>
+    <t>四件套</t>
+  </si>
+  <si>
+    <t>电饭煲</t>
+  </si>
+  <si>
+    <t>黄金幸运珠</t>
+  </si>
+  <si>
+    <t>vivo  X50</t>
+  </si>
+  <si>
+    <t>苹果笔记本</t>
+  </si>
+  <si>
+    <t>ty_icon_flq3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_flq3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_flq3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_flq2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_jb_6y</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_jb_15y</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>condi_key|推荐的条件key可以为空</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpl_notcjj</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpl_notcjj</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpl_notcjj</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpl_cjj</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"100万鱼币","太阳*15","狂暴卡*20"</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_yxb_2","zpg_icon_yg","com_award_icon_cz2"</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"8万金币","水滴*1","玩具锤*1",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"18万金币","水滴*1","玩具锤*1",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"28万金币","水滴*1","玩具锤*1",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"38万金币","水滴*1","玩具锤*1",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"48万金币","水滴*1","玩具锤*1",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"88万金币","水滴*1","玩具锤*1",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"128万金币","水滴*1","玩具锤*1",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"188万金币","水滴*1","玩具锤*1",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"288万金币","水滴*1","玩具锤*1",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"388万金币","水滴*1","玩具锤*1",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"488万金币","水滴*1","玩具锤*1",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"588万金币","水滴*1","玩具锤*1",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_6y","zpg_icon_shui","com_award_icon_cz1",</t>
+  </si>
+  <si>
+    <t>"ty_icon_jb_15y","zpg_icon_shui","com_award_icon_cz1",</t>
+  </si>
+  <si>
+    <t>"ty_icon_jb_18y","zpg_icon_shui","com_award_icon_cz1",</t>
+  </si>
+  <si>
+    <t>"ty_icon_jb_30y","zpg_icon_shui","com_award_icon_cz1",</t>
+  </si>
+  <si>
+    <t>"ty_icon_jb_498y","zpg_icon_shui","com_award_icon_cz1",</t>
+  </si>
+  <si>
+    <t>"ty_icon_jb_998y","zpg_icon_shui","com_award_icon_cz1",</t>
+  </si>
+  <si>
+    <t>"ty_icon_jb_2498y","zpg_icon_shui","com_award_icon_cz1",</t>
+  </si>
+  <si>
+    <t>vip</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日最多可参加排名挑战赛30次</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpl_notcjj</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日可免费领取至尊礼包1个</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>每领满30次至尊礼包额外奖励1000万鱼币</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>可使用Vip超级转盘，每日可抽&lt;color=#C86715&gt;70次&lt;/color&gt;</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>福卡容量提升为&lt;color=#C86715&gt;800万&lt;/color&gt;福利券</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>享受vip10所有特权并提高部分特权奖励</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日可免费领取至尊礼包1个</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>每领满30次至尊礼包额外奖励200元话费</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>福卡容量提升为&lt;color=#C86715&gt;1200万&lt;/color&gt;福利券</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>享受vip11所有特权并提高部分特权奖励</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日最多可参加排名挑战赛20次</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>每日最多可参加排名挑战赛15次</t>
-  </si>
-  <si>
-    <t>key|权限</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>line</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"VIP11礼包","(购买条件:&lt;color=#EDD112&gt;VIP等级≥11&lt;/color&gt;)",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"VIP12礼包","(购买条件:&lt;color=#EDD112&gt;VIP等级≥12&lt;/color&gt;)",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_998y","zpg_icon_shui","com_award_icon_cz1",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_2498y","zpg_icon_shui","com_award_icon_cz1",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"9888万","40","40",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"8888万","30","30",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cfz|财富值</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>vip&lt;color=#e41a1a&gt;6&lt;/color&gt;-vip&lt;color=#e41a1a&gt;7&lt;/color&gt;福利</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>cpl_notcjj</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>cpl_notcjj</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>cpl_notcjj</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>cpl_notcjj</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>每日最多可参加排名挑战赛8次</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>cpl_notcjj</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>vip_notcps</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>可获得&lt;color=#DA2020&gt;闪耀风暴&lt;/color&gt;炮台，有几率捕获激光范围内的任意鱼类</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>可获得&lt;color=#DA2020&gt;金币使者&lt;/color&gt;炮台，可捕获同移动线上的任意鱼类</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_jb_48y","zpg_icon_shui","com_award_icon_cz1",</t>
-  </si>
-  <si>
-    <t>"ty_icon_jb_50y","zpg_icon_shui","com_award_icon_cz1",</t>
-  </si>
-  <si>
-    <t>"ty_icon_jb_98y","zpg_icon_shui","com_award_icon_cz1",</t>
-  </si>
-  <si>
-    <t>"ty_icon_jb_198y","zpg_icon_shui","com_award_icon_cz1",</t>
-  </si>
-  <si>
-    <t>"75万","1","1",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"7688万","20","20",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"6488万","10","10",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"5488万","8","8",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"4388万","7","7",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"3288万","6","6",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"2218万","5","5",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"1108万","4","4",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"538万","3","3",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"318万","2","2",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>cjj_vip_desc</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>cjj_vip_desc</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>cjj_vip_desc</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>cjj_vip_desc</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"小游戏币","可以再小游戏苹果大战中使用","在冲金鸡中使用",</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"10万","太阳*2","木锤*1"</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"30万","太阳*6","木锤*2"</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"66万","太阳*10","木锤*3"</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"100万","太阳*15","木锤*5"</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"","可以再小游戏苹果大战中使用","在3D捕鱼中提高子弹威力",</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>荣耀平板</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1757,10 +2063,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F43" sqref="F6:F43"/>
+    <sheetView topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1768,34 +2074,38 @@
     <col min="1" max="3" width="9" style="1"/>
     <col min="4" max="4" width="10.875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="90.25" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="6" max="6" width="11.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="27" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>289</v>
+        <v>260</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F1" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1806,11 +2116,12 @@
         <v>10</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>236</v>
+      </c>
+      <c r="F2" s="15"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1821,11 +2132,12 @@
         <v>10</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>270</v>
-      </c>
-      <c r="F3" s="13"/>
-    </row>
-    <row r="4" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>242</v>
+      </c>
+      <c r="F3" s="16"/>
+      <c r="G3" s="13"/>
+    </row>
+    <row r="4" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1836,11 +2148,12 @@
         <v>10</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>225</v>
+      </c>
+      <c r="F4" s="16"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:8" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1851,14 +2164,15 @@
         <v>10</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>290</v>
+        <v>261</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>280</v>
-      </c>
-      <c r="F5" s="27"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+        <v>252</v>
+      </c>
+      <c r="F5" s="26"/>
+      <c r="G5" s="27"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1869,14 +2183,15 @@
         <v>200</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>313</v>
+        <v>284</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>265</v>
-      </c>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>237</v>
+      </c>
+      <c r="F6" s="15"/>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1887,11 +2202,12 @@
         <v>200</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>271</v>
-      </c>
-      <c r="F7" s="14"/>
-    </row>
-    <row r="8" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>243</v>
+      </c>
+      <c r="F7" s="15"/>
+      <c r="G7" s="14"/>
+    </row>
+    <row r="8" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1902,11 +2218,12 @@
         <v>200</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>254</v>
-      </c>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="1:7" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+      <c r="F8" s="16"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:8" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1917,14 +2234,15 @@
         <v>200</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>291</v>
+        <v>262</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>281</v>
-      </c>
-      <c r="F9" s="27"/>
-    </row>
-    <row r="10" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>253</v>
+      </c>
+      <c r="F9" s="26"/>
+      <c r="G9" s="27"/>
+    </row>
+    <row r="10" spans="1:8" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1935,14 +2253,15 @@
         <v>500</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="F10" s="21"/>
-    </row>
-    <row r="11" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>268</v>
+      </c>
+      <c r="F10" s="15"/>
+      <c r="G10" s="21"/>
+    </row>
+    <row r="11" spans="1:8" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1953,14 +2272,15 @@
         <v>500</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>313</v>
+        <v>284</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="F11" s="21"/>
-    </row>
-    <row r="12" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+      <c r="F11" s="15"/>
+      <c r="G11" s="21"/>
+    </row>
+    <row r="12" spans="1:8" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1971,10 +2291,11 @@
         <v>500</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>244</v>
+      </c>
+      <c r="F12" s="15"/>
+    </row>
+    <row r="13" spans="1:8" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1985,10 +2306,11 @@
         <v>500</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>227</v>
+      </c>
+      <c r="F13" s="16"/>
+    </row>
+    <row r="14" spans="1:8" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1999,14 +2321,15 @@
         <v>500</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>290</v>
+        <v>261</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>282</v>
-      </c>
-      <c r="F14" s="27"/>
-    </row>
-    <row r="15" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>254</v>
+      </c>
+      <c r="F14" s="26"/>
+      <c r="G14" s="27"/>
+    </row>
+    <row r="15" spans="1:8" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2017,14 +2340,15 @@
         <v>1000</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>313</v>
+        <v>284</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>267</v>
-      </c>
-      <c r="F15" s="21"/>
-    </row>
-    <row r="16" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+      <c r="F15" s="15"/>
+      <c r="G15" s="21"/>
+    </row>
+    <row r="16" spans="1:8" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2035,10 +2359,11 @@
         <v>1000</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>245</v>
+      </c>
+      <c r="F16" s="15"/>
+    </row>
+    <row r="17" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2049,10 +2374,11 @@
         <v>1000</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>228</v>
+      </c>
+      <c r="F17" s="16"/>
+    </row>
+    <row r="18" spans="1:7" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2063,14 +2389,15 @@
         <v>1000</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>290</v>
+        <v>261</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>283</v>
-      </c>
-      <c r="F18" s="27"/>
-    </row>
-    <row r="19" spans="1:6" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+      <c r="F18" s="26"/>
+      <c r="G18" s="27"/>
+    </row>
+    <row r="19" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2081,14 +2408,15 @@
         <v>2000</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>298</v>
-      </c>
-      <c r="F19" s="21"/>
-    </row>
-    <row r="20" spans="1:6" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>269</v>
+      </c>
+      <c r="F19" s="15"/>
+      <c r="G19" s="21"/>
+    </row>
+    <row r="20" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2099,14 +2427,15 @@
         <v>2000</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>316</v>
+        <v>287</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>268</v>
-      </c>
-      <c r="F20" s="21"/>
-    </row>
-    <row r="21" spans="1:6" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+      <c r="F20" s="15"/>
+      <c r="G20" s="21"/>
+    </row>
+    <row r="21" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2117,11 +2446,12 @@
         <v>2000</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>274</v>
-      </c>
-      <c r="F21" s="22"/>
-    </row>
-    <row r="22" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+      <c r="F21" s="15"/>
+      <c r="G21" s="22"/>
+    </row>
+    <row r="22" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2132,11 +2462,12 @@
         <v>2000</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>257</v>
-      </c>
-      <c r="F22" s="21"/>
-    </row>
-    <row r="23" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
+        <v>229</v>
+      </c>
+      <c r="F22" s="16"/>
+      <c r="G22" s="21"/>
+    </row>
+    <row r="23" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2147,11 +2478,12 @@
         <v>2000</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>258</v>
-      </c>
-      <c r="F23" s="21"/>
-    </row>
-    <row r="24" spans="1:6" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>230</v>
+      </c>
+      <c r="F23" s="16"/>
+      <c r="G23" s="21"/>
+    </row>
+    <row r="24" spans="1:7" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2162,14 +2494,15 @@
         <v>2000</v>
       </c>
       <c r="D24" s="27" t="s">
-        <v>290</v>
+        <v>261</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>294</v>
-      </c>
-      <c r="F24" s="27"/>
-    </row>
-    <row r="25" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+      <c r="F24" s="26"/>
+      <c r="G24" s="27"/>
+    </row>
+    <row r="25" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2180,14 +2513,15 @@
         <v>5000</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>313</v>
+        <v>284</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>269</v>
-      </c>
-      <c r="F25" s="21"/>
-    </row>
-    <row r="26" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+      <c r="F25" s="15"/>
+      <c r="G25" s="21"/>
+    </row>
+    <row r="26" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2198,10 +2532,11 @@
         <v>5000</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+      <c r="F26" s="15"/>
+    </row>
+    <row r="27" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2212,11 +2547,12 @@
         <v>5000</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>259</v>
-      </c>
-      <c r="F27" s="21"/>
-    </row>
-    <row r="28" spans="1:6" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+      <c r="F27" s="16"/>
+      <c r="G27" s="21"/>
+    </row>
+    <row r="28" spans="1:7" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2227,14 +2563,15 @@
         <v>5000</v>
       </c>
       <c r="D28" s="27" t="s">
-        <v>292</v>
+        <v>263</v>
       </c>
       <c r="E28" s="26" t="s">
-        <v>284</v>
-      </c>
-      <c r="F28" s="27"/>
-    </row>
-    <row r="29" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+      <c r="F28" s="26"/>
+      <c r="G28" s="27"/>
+    </row>
+    <row r="29" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2245,14 +2582,15 @@
         <v>10000</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>315</v>
+        <v>286</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>269</v>
-      </c>
-      <c r="F29" s="21"/>
-    </row>
-    <row r="30" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+      <c r="F29" s="15"/>
+      <c r="G29" s="21"/>
+    </row>
+    <row r="30" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2263,11 +2601,12 @@
         <v>10000</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>276</v>
-      </c>
-      <c r="F30" s="22"/>
-    </row>
-    <row r="31" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
+        <v>248</v>
+      </c>
+      <c r="F30" s="15"/>
+      <c r="G30" s="22"/>
+    </row>
+    <row r="31" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -2278,11 +2617,12 @@
         <v>10000</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>260</v>
-      </c>
-      <c r="F31" s="21"/>
-    </row>
-    <row r="32" spans="1:6" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>232</v>
+      </c>
+      <c r="F31" s="16"/>
+      <c r="G31" s="21"/>
+    </row>
+    <row r="32" spans="1:7" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -2293,14 +2633,15 @@
         <v>10000</v>
       </c>
       <c r="D32" s="27" t="s">
-        <v>293</v>
+        <v>264</v>
       </c>
       <c r="E32" s="26" t="s">
-        <v>285</v>
-      </c>
-      <c r="F32" s="27"/>
-    </row>
-    <row r="33" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
+        <v>257</v>
+      </c>
+      <c r="F32" s="26"/>
+      <c r="G32" s="27"/>
+    </row>
+    <row r="33" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -2311,14 +2652,15 @@
         <v>20000</v>
       </c>
       <c r="D33" s="21" t="s">
-        <v>314</v>
+        <v>285</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>269</v>
-      </c>
-      <c r="F33" s="21"/>
-    </row>
-    <row r="34" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+      <c r="F33" s="15"/>
+      <c r="G33" s="21"/>
+    </row>
+    <row r="34" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -2329,11 +2671,12 @@
         <v>20000</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>277</v>
-      </c>
-      <c r="F34" s="22"/>
-    </row>
-    <row r="35" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
+        <v>249</v>
+      </c>
+      <c r="F34" s="15"/>
+      <c r="G34" s="22"/>
+    </row>
+    <row r="35" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -2344,11 +2687,12 @@
         <v>20000</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>261</v>
-      </c>
-      <c r="F35" s="21"/>
-    </row>
-    <row r="36" spans="1:6" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>233</v>
+      </c>
+      <c r="F35" s="16"/>
+      <c r="G35" s="21"/>
+    </row>
+    <row r="36" spans="1:7" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -2359,14 +2703,15 @@
         <v>20000</v>
       </c>
       <c r="D36" s="27" t="s">
-        <v>290</v>
+        <v>261</v>
       </c>
       <c r="E36" s="26" t="s">
-        <v>286</v>
-      </c>
-      <c r="F36" s="27"/>
-    </row>
-    <row r="37" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
+        <v>258</v>
+      </c>
+      <c r="F36" s="26"/>
+      <c r="G36" s="27"/>
+    </row>
+    <row r="37" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -2377,14 +2722,15 @@
         <v>30000</v>
       </c>
       <c r="D37" s="21" t="s">
-        <v>313</v>
+        <v>284</v>
       </c>
       <c r="E37" s="23" t="s">
-        <v>269</v>
-      </c>
-      <c r="F37" s="21"/>
-    </row>
-    <row r="38" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+      <c r="F37" s="23"/>
+      <c r="G37" s="21"/>
+    </row>
+    <row r="38" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -2395,11 +2741,12 @@
         <v>30000</v>
       </c>
       <c r="E38" s="23" t="s">
-        <v>278</v>
-      </c>
-      <c r="F38" s="22"/>
-    </row>
-    <row r="39" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
+        <v>250</v>
+      </c>
+      <c r="F38" s="23"/>
+      <c r="G38" s="22"/>
+    </row>
+    <row r="39" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -2410,11 +2757,12 @@
         <v>30000</v>
       </c>
       <c r="E39" s="20" t="s">
-        <v>262</v>
-      </c>
-      <c r="F39" s="21"/>
-    </row>
-    <row r="40" spans="1:6" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>234</v>
+      </c>
+      <c r="F39" s="20"/>
+      <c r="G39" s="21"/>
+    </row>
+    <row r="40" spans="1:7" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -2425,14 +2773,15 @@
         <v>30000</v>
       </c>
       <c r="D40" s="27" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="E40" s="26" t="s">
-        <v>287</v>
-      </c>
-      <c r="F40" s="27"/>
-    </row>
-    <row r="41" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
+        <v>259</v>
+      </c>
+      <c r="F40" s="26"/>
+      <c r="G40" s="27"/>
+    </row>
+    <row r="41" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -2443,14 +2792,15 @@
         <v>50000</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>313</v>
+        <v>284</v>
       </c>
       <c r="E41" s="23" t="s">
-        <v>269</v>
-      </c>
-      <c r="F41" s="21"/>
-    </row>
-    <row r="42" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+      <c r="F41" s="23"/>
+      <c r="G41" s="21"/>
+    </row>
+    <row r="42" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -2461,11 +2811,12 @@
         <v>50000</v>
       </c>
       <c r="E42" s="23" t="s">
-        <v>279</v>
-      </c>
-      <c r="F42" s="22"/>
-    </row>
-    <row r="43" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+      <c r="F42" s="23"/>
+      <c r="G42" s="22"/>
+    </row>
+    <row r="43" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -2476,11 +2827,12 @@
         <v>50000</v>
       </c>
       <c r="E43" s="20" t="s">
-        <v>263</v>
-      </c>
-      <c r="F43" s="21"/>
-    </row>
-    <row r="44" spans="1:6" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>235</v>
+      </c>
+      <c r="F43" s="20"/>
+      <c r="G43" s="21"/>
+    </row>
+    <row r="44" spans="1:7" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -2491,24 +2843,217 @@
         <v>50000</v>
       </c>
       <c r="D44" s="27" t="s">
-        <v>295</v>
+        <v>366</v>
       </c>
       <c r="E44" s="26" t="s">
-        <v>288</v>
-      </c>
-      <c r="F44" s="27"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E45" s="12"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E46" s="12"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E47" s="12"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E48" s="12"/>
+        <v>377</v>
+      </c>
+      <c r="F44" s="26"/>
+      <c r="G44" s="27"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1">
+        <v>11</v>
+      </c>
+      <c r="D45" s="27" t="s">
+        <v>366</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="F45" s="1">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1">
+        <v>11</v>
+      </c>
+      <c r="D46" s="27" t="s">
+        <v>366</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="F46" s="1">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1">
+        <v>11</v>
+      </c>
+      <c r="D47" s="27" t="s">
+        <v>366</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="F47" s="1">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1">
+        <v>11</v>
+      </c>
+      <c r="D48" s="27" t="s">
+        <v>366</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="F48" s="1">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1">
+        <v>11</v>
+      </c>
+      <c r="D49" s="27" t="s">
+        <v>366</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="F49" s="1">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1">
+        <v>11</v>
+      </c>
+      <c r="D50" s="27" t="s">
+        <v>366</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="F50" s="1">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1">
+        <v>12</v>
+      </c>
+      <c r="D51" s="27" t="s">
+        <v>366</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="F51" s="1">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1">
+        <v>12</v>
+      </c>
+      <c r="D52" s="27" t="s">
+        <v>366</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>373</v>
+      </c>
+      <c r="F52" s="1">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1">
+        <v>12</v>
+      </c>
+      <c r="D53" s="27" t="s">
+        <v>366</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="F53" s="1">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1">
+        <v>12</v>
+      </c>
+      <c r="D54" s="27" t="s">
+        <v>366</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="F54" s="1">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1">
+        <v>12</v>
+      </c>
+      <c r="D55" s="27" t="s">
+        <v>366</v>
+      </c>
+      <c r="E55" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="F55" s="1">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1">
+        <v>12</v>
+      </c>
+      <c r="D56" s="27" t="s">
+        <v>366</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="F56" s="1">
+        <v>40000</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="E1:E48"/>
@@ -2520,253 +3065,304 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="60" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.875" customWidth="1"/>
+    <col min="4" max="4" width="60" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>193</v>
+        <v>338</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>166</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>10244</v>
       </c>
-      <c r="C2" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="D2" s="17"/>
-      <c r="E2">
+      <c r="C2" s="5"/>
+      <c r="D2" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="E2" s="17"/>
+      <c r="F2">
         <v>6</v>
       </c>
-      <c r="F2" s="17" t="s">
-        <v>299</v>
-      </c>
       <c r="G2" s="17" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <v>10245</v>
       </c>
-      <c r="C3" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="D3" s="17"/>
-      <c r="E3">
+      <c r="D3" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="E3" s="17"/>
+      <c r="F3">
         <v>28</v>
       </c>
-      <c r="F3" s="17" t="s">
-        <v>299</v>
-      </c>
       <c r="G3" s="17" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
         <v>10246</v>
       </c>
-      <c r="C4" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="D4" s="17"/>
-      <c r="E4">
+      <c r="D4" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="E4" s="17"/>
+      <c r="F4">
         <v>48</v>
       </c>
-      <c r="F4" s="17" t="s">
-        <v>299</v>
-      </c>
       <c r="G4" s="17" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
         <v>10247</v>
       </c>
-      <c r="C5" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="D5" s="17"/>
-      <c r="E5">
+      <c r="D5" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="E5" s="17"/>
+      <c r="F5">
         <v>99</v>
       </c>
-      <c r="F5" s="17" t="s">
-        <v>300</v>
-      </c>
-      <c r="G5" s="24" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G5" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="H5" s="24" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
         <v>10248</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="D6" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="E6" s="17"/>
+      <c r="F6">
         <v>198</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6">
-        <v>198</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>300</v>
-      </c>
-      <c r="G6" s="24" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G6" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
         <v>10249</v>
       </c>
-      <c r="C7" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="D7" s="17"/>
-      <c r="E7">
+      <c r="D7" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="E7" s="17"/>
+      <c r="F7">
         <v>298</v>
       </c>
-      <c r="F7" s="17" t="s">
-        <v>300</v>
-      </c>
-      <c r="G7" s="24" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G7" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
         <v>10250</v>
       </c>
-      <c r="C8" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="D8" s="17"/>
-      <c r="E8">
+      <c r="D8" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="E8" s="17"/>
+      <c r="F8">
         <v>398</v>
       </c>
-      <c r="F8" s="17" t="s">
-        <v>301</v>
-      </c>
-      <c r="G8" s="24" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G8" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
         <v>10251</v>
       </c>
-      <c r="C9" s="17" t="s">
-        <v>201</v>
-      </c>
-      <c r="D9" s="17"/>
-      <c r="E9">
+      <c r="D9" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="E9" s="17"/>
+      <c r="F9">
         <v>498</v>
       </c>
-      <c r="F9" s="17" t="s">
-        <v>301</v>
-      </c>
-      <c r="G9" s="24" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G9" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
         <v>10252</v>
       </c>
-      <c r="C10" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="D10" s="17"/>
-      <c r="E10">
+      <c r="D10" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="E10" s="17"/>
+      <c r="F10">
         <v>598</v>
       </c>
-      <c r="F10" s="17" t="s">
-        <v>302</v>
-      </c>
-      <c r="G10" s="24" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G10" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
         <v>10253</v>
       </c>
-      <c r="C11" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="D11" s="17"/>
-      <c r="E11">
+      <c r="D11" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="E11" s="17"/>
+      <c r="F11">
         <v>698</v>
       </c>
-      <c r="F11" s="17" t="s">
-        <v>302</v>
-      </c>
-      <c r="G11" s="24" t="s">
-        <v>304</v>
+      <c r="G11" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>10411</v>
+      </c>
+      <c r="C12" t="s">
+        <v>387</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>379</v>
+      </c>
+      <c r="F12">
+        <v>798</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>381</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>10412</v>
+      </c>
+      <c r="C13" t="s">
+        <v>387</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>380</v>
+      </c>
+      <c r="F13">
+        <v>898</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>382</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>383</v>
       </c>
     </row>
   </sheetData>
@@ -2777,317 +3373,743 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="60" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.75" customWidth="1"/>
+    <col min="5" max="5" width="60" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="52.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="42.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:9" ht="54" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
+        <v>378</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>204</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>206</v>
+        <v>181</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>182</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
         <v>21341</v>
       </c>
-      <c r="C2" s="17" t="s">
-        <v>208</v>
-      </c>
-      <c r="D2" s="17">
+      <c r="D2" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="F2" s="17">
         <v>2000000</v>
       </c>
-      <c r="E2" s="17" t="s">
-        <v>220</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>232</v>
-      </c>
-      <c r="G2">
+      <c r="G2" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="I2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
         <v>21341</v>
       </c>
-      <c r="C3" s="17" t="s">
-        <v>209</v>
-      </c>
-      <c r="D3" s="17">
+      <c r="D3" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="F3" s="17">
         <v>5000000</v>
       </c>
-      <c r="E3" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>233</v>
-      </c>
-      <c r="G3">
+      <c r="G3" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="I3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
         <v>21341</v>
       </c>
-      <c r="C4" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="D4" s="17">
+      <c r="D4" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="F4" s="17">
         <v>10000000</v>
       </c>
-      <c r="E4" s="17" t="s">
-        <v>222</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>234</v>
-      </c>
-      <c r="G4">
+      <c r="G4" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="I4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
         <v>21341</v>
       </c>
-      <c r="C5" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="D5" s="17">
+      <c r="D5" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="F5" s="17">
         <v>20000000</v>
       </c>
-      <c r="E5" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>235</v>
-      </c>
-      <c r="G5">
+      <c r="G5" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="I5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
         <v>21341</v>
       </c>
-      <c r="C6" s="17" t="s">
-        <v>212</v>
-      </c>
-      <c r="D6" s="17">
+      <c r="D6" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="F6" s="17">
         <v>50000000</v>
       </c>
-      <c r="E6" s="17" t="s">
-        <v>224</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>236</v>
-      </c>
-      <c r="G6">
+      <c r="G6" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="I6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
         <v>21341</v>
       </c>
-      <c r="C7" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="D7" s="17">
+      <c r="D7" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="F7" s="17">
         <v>100000000</v>
       </c>
-      <c r="E7" s="17" t="s">
-        <v>225</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="G7">
+      <c r="G7" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="I7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
         <v>21341</v>
       </c>
-      <c r="C8" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="D8" s="17">
+      <c r="D8" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="F8" s="17">
         <v>200000000</v>
       </c>
-      <c r="E8" s="17" t="s">
-        <v>226</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>238</v>
-      </c>
-      <c r="G8">
+      <c r="G8" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="I8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
         <v>21341</v>
       </c>
-      <c r="C9" s="17" t="s">
-        <v>215</v>
-      </c>
-      <c r="D9" s="17">
+      <c r="D9" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="F9" s="17">
         <v>500000000</v>
       </c>
-      <c r="E9" s="17" t="s">
-        <v>227</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>239</v>
-      </c>
-      <c r="G9">
+      <c r="G9" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="I9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
         <v>21341</v>
       </c>
-      <c r="C10" s="17" t="s">
-        <v>216</v>
-      </c>
-      <c r="D10" s="17">
+      <c r="D10" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="F10" s="17">
         <v>1000000000</v>
       </c>
-      <c r="E10" s="17" t="s">
-        <v>228</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>240</v>
-      </c>
-      <c r="G10">
+      <c r="G10" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="I10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
         <v>21341</v>
       </c>
-      <c r="C11" s="17" t="s">
-        <v>217</v>
-      </c>
-      <c r="D11" s="17">
+      <c r="D11" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="F11" s="17">
         <v>2000000000</v>
       </c>
-      <c r="E11" s="17" t="s">
-        <v>229</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>243</v>
-      </c>
-      <c r="G11">
+      <c r="G11" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="I11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12">
         <v>21341</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="D12" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="F12" s="17">
+        <v>3000000000</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="H12" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="D12" s="17">
-        <v>3000000000</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>230</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>241</v>
-      </c>
-      <c r="G12">
+      <c r="I12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13">
         <v>21341</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="D13" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="F13" s="17">
+        <v>5000000000</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="H13" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="D13" s="17">
+      <c r="I13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1000157</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="F14" s="17">
+        <v>2000000</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>357</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>345</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>1000157</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="F15" s="17">
+        <v>5000000</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>357</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>346</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>1000157</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="F16" s="17">
+        <v>10000000</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>347</v>
+      </c>
+      <c r="I16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>1000157</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="F17" s="17">
+        <v>20000000</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>359</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="I17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>1000157</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="F18" s="17">
+        <v>50000000</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>360</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="I18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>6</v>
+      </c>
+      <c r="C19">
+        <v>1000157</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="F19" s="17">
+        <v>100000000</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>350</v>
+      </c>
+      <c r="I19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>7</v>
+      </c>
+      <c r="C20">
+        <v>1000157</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="F20" s="17">
+        <v>200000000</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>351</v>
+      </c>
+      <c r="I20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>8</v>
+      </c>
+      <c r="C21">
+        <v>1000157</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="F21" s="17">
+        <v>500000000</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>352</v>
+      </c>
+      <c r="I21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>9</v>
+      </c>
+      <c r="C22">
+        <v>1000157</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="F22" s="17">
+        <v>1000000000</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="H22" s="17" t="s">
+        <v>353</v>
+      </c>
+      <c r="I22">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>10</v>
+      </c>
+      <c r="C23">
+        <v>1000157</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="F23" s="17">
+        <v>2000000000</v>
+      </c>
+      <c r="G23" s="17" t="s">
+        <v>361</v>
+      </c>
+      <c r="H23" s="17" t="s">
+        <v>354</v>
+      </c>
+      <c r="I23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>11</v>
+      </c>
+      <c r="C24">
+        <v>1000157</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="F24" s="17">
+        <v>3000000000</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>362</v>
+      </c>
+      <c r="H24" s="17" t="s">
+        <v>355</v>
+      </c>
+      <c r="I24">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>12</v>
+      </c>
+      <c r="C25">
+        <v>1000157</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="F25" s="17">
         <v>5000000000</v>
       </c>
-      <c r="E13" s="17" t="s">
-        <v>231</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>242</v>
-      </c>
-      <c r="G13">
+      <c r="G25" s="17" t="s">
+        <v>363</v>
+      </c>
+      <c r="H25" s="17" t="s">
+        <v>356</v>
+      </c>
+      <c r="I25">
         <v>12</v>
       </c>
     </row>
@@ -3099,123 +4121,310 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="68.375" customWidth="1"/>
-    <col min="3" max="3" width="94.5" customWidth="1"/>
-    <col min="4" max="4" width="71" customWidth="1"/>
+    <col min="5" max="5" width="54.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="65.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="64.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="54" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>68</v>
+        <v>297</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>338</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>244</v>
+      <c r="B2" s="1">
+        <v>21314</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>339</v>
+      </c>
+      <c r="D2" s="5">
+        <v>2</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>244</v>
+      <c r="B3" s="1">
+        <v>21016</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>340</v>
+      </c>
+      <c r="D3" s="5">
+        <v>5</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>245</v>
+      <c r="B4" s="1">
+        <v>21017</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="8"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="8"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="8"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="8"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="8"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+      <c r="D4" s="5">
+        <v>7</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1000152</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="D5" s="5">
+        <v>12</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1000153</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="D6" s="5">
+        <v>2</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1000154</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="D7" s="5">
+        <v>5</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1000155</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="D8" s="5">
+        <v>7</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1000156</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="D9" s="5">
+        <v>12</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="5"/>
+      <c r="B12" s="1"/>
       <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3224,7 +4433,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3287,7 +4496,7 @@
         <v>18</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3410,10 +4619,10 @@
         <v>21016</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -3424,10 +4633,10 @@
         <v>21017</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -3438,10 +4647,10 @@
         <v>21243</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -3452,10 +4661,10 @@
         <v>21244</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -3466,10 +4675,10 @@
         <v>21248</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -3480,10 +4689,10 @@
         <v>21249</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -3494,10 +4703,10 @@
         <v>21250</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -3508,10 +4717,10 @@
         <v>21251</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -3522,10 +4731,10 @@
         <v>21314</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -3536,10 +4745,10 @@
         <v>21340</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -3550,10 +4759,10 @@
         <v>21341</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -3568,7 +4777,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3598,7 +4807,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D2" s="1"/>
     </row>
@@ -3733,7 +4942,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3759,10 +4968,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -3770,10 +4979,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -3781,10 +4990,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -3792,10 +5001,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -3803,10 +5012,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -3814,10 +5023,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -3825,10 +5034,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -3836,10 +5045,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -3847,10 +5056,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -3858,10 +5067,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -3869,10 +5078,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -3880,10 +5089,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -3896,16 +5105,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="67.125" customWidth="1"/>
-    <col min="3" max="3" width="87.125" customWidth="1"/>
-    <col min="4" max="4" width="24.5" customWidth="1"/>
-    <col min="5" max="5" width="41.625" customWidth="1"/>
+    <col min="2" max="2" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="27" x14ac:dyDescent="0.2">
@@ -3919,7 +5128,7 @@
         <v>23</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>25</v>
@@ -3930,13 +5139,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>27</v>
+        <v>336</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="8">
-        <v>1000000</v>
+        <v>318</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>304</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -3947,13 +5156,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>28</v>
+        <v>337</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="8">
-        <v>2000000</v>
+        <v>319</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>305</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -3964,13 +5173,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>29</v>
+        <v>335</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D4" s="8">
-        <v>5000000</v>
+        <v>320</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>306</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -3981,13 +5190,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>30</v>
+        <v>335</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>83</v>
+        <v>321</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>26</v>
+        <v>307</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3998,13 +5207,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>31</v>
+        <v>335</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>78</v>
+        <v>322</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -4015,13 +5224,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>29</v>
+        <v>335</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D7" s="8">
-        <v>50000000</v>
+        <v>323</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>308</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -4032,13 +5241,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>32</v>
+        <v>334</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D8" s="8">
-        <v>100000000</v>
+        <v>324</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>309</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -4049,13 +5258,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>29</v>
+        <v>333</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>80</v>
+        <v>325</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>46</v>
+        <v>310</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -4066,13 +5275,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>31</v>
+        <v>332</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>81</v>
+        <v>326</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>45</v>
+        <v>311</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -4083,13 +5292,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D11" s="8">
-        <v>1000000000</v>
+        <v>327</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>312</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -4100,13 +5309,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D12" s="8">
-        <v>2000000000</v>
+        <v>328</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>313</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -4117,13 +5326,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="8">
-        <v>5000000000</v>
+        <v>329</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>314</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -4134,13 +5343,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D14" s="8">
-        <v>10000000000</v>
+        <v>394</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>315</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -4151,13 +5360,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="8">
-        <v>20000000000</v>
+        <v>330</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>316</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -4168,13 +5377,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="8">
-        <v>50000000000</v>
+        <v>331</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>317</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -4195,7 +5404,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4217,13 +5426,13 @@
         <v>23</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>25</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -4231,13 +5440,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -4248,13 +5457,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -4265,13 +5474,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -4282,13 +5491,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4299,13 +5508,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -4316,13 +5525,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -4333,13 +5542,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -4350,13 +5559,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -4367,13 +5576,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -4384,13 +5593,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -4401,13 +5610,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -4418,13 +5627,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -4435,13 +5644,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -4452,10 +5661,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="D15" s="8">
         <v>20000000000</v>
@@ -4469,10 +5678,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="D16" s="8">
         <v>50000000000</v>
@@ -4481,7 +5690,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.2">
@@ -4498,7 +5707,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4521,13 +5730,13 @@
         <v>23</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>25</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -4535,13 +5744,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -4552,13 +5761,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -4569,13 +5778,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -4586,13 +5795,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4603,13 +5812,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -4620,13 +5829,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -4637,13 +5846,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -4654,13 +5863,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -4671,13 +5880,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -4688,13 +5897,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -4705,13 +5914,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>165</v>
+        <v>142</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -4722,13 +5931,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -4739,13 +5948,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -4756,13 +5965,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -4773,10 +5982,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="D16" s="8">
         <v>50000000000</v>
@@ -4785,7 +5994,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.2">
@@ -4824,7 +6033,7 @@
         <v>23</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E1" s="6"/>
     </row>
@@ -4833,13 +6042,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -4847,13 +6056,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -4861,13 +6070,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -4875,13 +6084,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -4889,13 +6098,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -4903,13 +6112,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -4917,13 +6126,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -4931,13 +6140,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/vip2_config.xlsx
+++ b/config_Release/vip2_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="597" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="597"/>
   </bookViews>
   <sheets>
     <sheet name="dangci|档次" sheetId="7" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="397">
   <si>
     <t>total|总共充值</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -958,18 +958,6 @@
     <t>福利券容量提升为&lt;color=#DA2020&gt;5000福利券&lt;/color&gt;</t>
   </si>
   <si>
-    <t>可使用Vip超级转盘，每日可抽&lt;color=#DA2020&gt;5次&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>可使用Vip超级转盘，每日可抽&lt;color=#DA2020&gt;10次&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>可使用Vip超级转盘，每日可抽&lt;color=#DA2020&gt;20次&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>可使用Vip超级转盘，每日可抽&lt;color=#DA2020&gt;30次&lt;/color&gt;</t>
-  </si>
-  <si>
     <t>可使用Vip超级转盘，每日可抽&lt;color=#DA2020&gt;50次&lt;/color&gt;</t>
   </si>
   <si>
@@ -1550,6 +1538,29 @@
   <si>
     <t>荣耀平板</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>可使用Vip超级转盘，每日可抽&lt;color=#DA2020&gt;1次&lt;/color&gt;</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>可使用Vip超级转盘，每日可抽&lt;color=#DA2020&gt;3次&lt;/color&gt;</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>可使用Vip超级转盘，每日可抽&lt;color=#DA2020&gt;5次&lt;/color&gt;</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>可使用Vip超级转盘，每日可抽&lt;color=#DA2020&gt;10次&lt;/color&gt;</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>可使用Vip超级转盘，每日可抽&lt;color=#DA2020&gt;30次&lt;/color&gt;</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpl_notcjj_notcps</t>
   </si>
 </sst>
 </file>
@@ -2065,14 +2076,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="10.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="90.25" style="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.375" style="1" bestFit="1" customWidth="1"/>
@@ -2090,13 +2101,13 @@
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>63</v>
@@ -2132,7 +2143,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="F3" s="16"/>
       <c r="G3" s="13"/>
@@ -2164,10 +2175,10 @@
         <v>10</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F5" s="26"/>
       <c r="G5" s="27"/>
@@ -2183,10 +2194,10 @@
         <v>200</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>237</v>
+        <v>391</v>
       </c>
       <c r="F6" s="15"/>
       <c r="G6" s="5"/>
@@ -2202,7 +2213,7 @@
         <v>200</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F7" s="15"/>
       <c r="G7" s="14"/>
@@ -2234,10 +2245,10 @@
         <v>200</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F9" s="26"/>
       <c r="G9" s="27"/>
@@ -2253,10 +2264,10 @@
         <v>500</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="F10" s="15"/>
       <c r="G10" s="21"/>
@@ -2272,10 +2283,10 @@
         <v>500</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>238</v>
+        <v>392</v>
       </c>
       <c r="F11" s="15"/>
       <c r="G11" s="21"/>
@@ -2291,7 +2302,7 @@
         <v>500</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="F12" s="15"/>
     </row>
@@ -2321,10 +2332,10 @@
         <v>500</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F14" s="26"/>
       <c r="G14" s="27"/>
@@ -2340,10 +2351,10 @@
         <v>1000</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>239</v>
+        <v>393</v>
       </c>
       <c r="F15" s="15"/>
       <c r="G15" s="21"/>
@@ -2359,7 +2370,7 @@
         <v>1000</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F16" s="15"/>
     </row>
@@ -2389,10 +2400,10 @@
         <v>1000</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F18" s="26"/>
       <c r="G18" s="27"/>
@@ -2408,10 +2419,10 @@
         <v>2000</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F19" s="15"/>
       <c r="G19" s="21"/>
@@ -2427,10 +2438,10 @@
         <v>2000</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>240</v>
+        <v>394</v>
       </c>
       <c r="F20" s="15"/>
       <c r="G20" s="21"/>
@@ -2446,7 +2457,7 @@
         <v>2000</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F21" s="15"/>
       <c r="G21" s="22"/>
@@ -2494,10 +2505,10 @@
         <v>2000</v>
       </c>
       <c r="D24" s="27" t="s">
+        <v>257</v>
+      </c>
+      <c r="E24" s="26" t="s">
         <v>261</v>
-      </c>
-      <c r="E24" s="26" t="s">
-        <v>265</v>
       </c>
       <c r="F24" s="26"/>
       <c r="G24" s="27"/>
@@ -2513,10 +2524,10 @@
         <v>5000</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>241</v>
+        <v>395</v>
       </c>
       <c r="F25" s="15"/>
       <c r="G25" s="21"/>
@@ -2532,7 +2543,7 @@
         <v>5000</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F26" s="15"/>
     </row>
@@ -2563,10 +2574,10 @@
         <v>5000</v>
       </c>
       <c r="D28" s="27" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="E28" s="26" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="F28" s="26"/>
       <c r="G28" s="27"/>
@@ -2582,10 +2593,10 @@
         <v>10000</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F29" s="15"/>
       <c r="G29" s="21"/>
@@ -2601,7 +2612,7 @@
         <v>10000</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F30" s="15"/>
       <c r="G30" s="22"/>
@@ -2633,10 +2644,10 @@
         <v>10000</v>
       </c>
       <c r="D32" s="27" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="E32" s="26" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F32" s="26"/>
       <c r="G32" s="27"/>
@@ -2652,10 +2663,10 @@
         <v>20000</v>
       </c>
       <c r="D33" s="21" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F33" s="15"/>
       <c r="G33" s="21"/>
@@ -2671,7 +2682,7 @@
         <v>20000</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F34" s="15"/>
       <c r="G34" s="22"/>
@@ -2703,10 +2714,10 @@
         <v>20000</v>
       </c>
       <c r="D36" s="27" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="E36" s="26" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F36" s="26"/>
       <c r="G36" s="27"/>
@@ -2722,10 +2733,10 @@
         <v>30000</v>
       </c>
       <c r="D37" s="21" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E37" s="23" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F37" s="23"/>
       <c r="G37" s="21"/>
@@ -2741,7 +2752,7 @@
         <v>30000</v>
       </c>
       <c r="E38" s="23" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F38" s="23"/>
       <c r="G38" s="22"/>
@@ -2773,10 +2784,10 @@
         <v>30000</v>
       </c>
       <c r="D40" s="27" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E40" s="26" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F40" s="26"/>
       <c r="G40" s="27"/>
@@ -2792,10 +2803,10 @@
         <v>50000</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E41" s="23" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F41" s="23"/>
       <c r="G41" s="21"/>
@@ -2811,7 +2822,7 @@
         <v>50000</v>
       </c>
       <c r="E42" s="23" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F42" s="23"/>
       <c r="G42" s="22"/>
@@ -2843,10 +2854,10 @@
         <v>50000</v>
       </c>
       <c r="D44" s="27" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="E44" s="26" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F44" s="26"/>
       <c r="G44" s="27"/>
@@ -2859,10 +2870,10 @@
         <v>11</v>
       </c>
       <c r="D45" s="27" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F45" s="1">
         <v>15000</v>
@@ -2876,10 +2887,10 @@
         <v>11</v>
       </c>
       <c r="D46" s="27" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F46" s="1">
         <v>15000</v>
@@ -2893,10 +2904,10 @@
         <v>11</v>
       </c>
       <c r="D47" s="27" t="s">
-        <v>366</v>
+        <v>396</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F47" s="1">
         <v>15000</v>
@@ -2910,10 +2921,10 @@
         <v>11</v>
       </c>
       <c r="D48" s="27" t="s">
+        <v>362</v>
+      </c>
+      <c r="E48" s="12" t="s">
         <v>366</v>
-      </c>
-      <c r="E48" s="12" t="s">
-        <v>370</v>
       </c>
       <c r="F48" s="1">
         <v>15000</v>
@@ -2927,10 +2938,10 @@
         <v>11</v>
       </c>
       <c r="D49" s="27" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="F49" s="1">
         <v>15000</v>
@@ -2944,10 +2955,10 @@
         <v>11</v>
       </c>
       <c r="D50" s="27" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F50" s="1">
         <v>15000</v>
@@ -2961,10 +2972,10 @@
         <v>12</v>
       </c>
       <c r="D51" s="27" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F51" s="1">
         <v>40000</v>
@@ -2978,10 +2989,10 @@
         <v>12</v>
       </c>
       <c r="D52" s="27" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F52" s="1">
         <v>40000</v>
@@ -2995,10 +3006,10 @@
         <v>12</v>
       </c>
       <c r="D53" s="27" t="s">
-        <v>366</v>
+        <v>396</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F53" s="1">
         <v>40000</v>
@@ -3012,10 +3023,10 @@
         <v>12</v>
       </c>
       <c r="D54" s="27" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="F54" s="1">
         <v>40000</v>
@@ -3029,10 +3040,10 @@
         <v>12</v>
       </c>
       <c r="D55" s="27" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F55" s="1">
         <v>40000</v>
@@ -3046,10 +3057,10 @@
         <v>12</v>
       </c>
       <c r="D56" s="27" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F56" s="1">
         <v>40000</v>
@@ -3090,7 +3101,7 @@
         <v>165</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>166</v>
@@ -3124,10 +3135,10 @@
         <v>6</v>
       </c>
       <c r="G2" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="H2" s="17" t="s">
         <v>270</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -3145,10 +3156,10 @@
         <v>28</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -3166,10 +3177,10 @@
         <v>48</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -3187,10 +3198,10 @@
         <v>99</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="H5" s="24" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -3208,10 +3219,10 @@
         <v>198</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="H6" s="24" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -3229,10 +3240,10 @@
         <v>298</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="H7" s="24" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -3250,10 +3261,10 @@
         <v>398</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="H8" s="24" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -3271,10 +3282,10 @@
         <v>498</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="H9" s="24" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -3292,10 +3303,10 @@
         <v>598</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="H10" s="24" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -3313,10 +3324,10 @@
         <v>698</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="H11" s="24" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -3327,19 +3338,19 @@
         <v>10411</v>
       </c>
       <c r="C12" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F12">
         <v>798</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="H12" s="24" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -3350,19 +3361,19 @@
         <v>10412</v>
       </c>
       <c r="C13" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="F13">
         <v>898</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="H13" s="24" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
   </sheetData>
@@ -3390,7 +3401,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="54" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>13</v>
@@ -3399,7 +3410,7 @@
         <v>181</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>182</v>
@@ -3428,7 +3439,7 @@
         <v>21341</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>185</v>
@@ -3457,7 +3468,7 @@
         <v>21341</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>186</v>
@@ -3486,7 +3497,7 @@
         <v>21341</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>187</v>
@@ -3515,7 +3526,7 @@
         <v>21341</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>188</v>
@@ -3544,7 +3555,7 @@
         <v>21341</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>189</v>
@@ -3573,7 +3584,7 @@
         <v>21341</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>190</v>
@@ -3602,7 +3613,7 @@
         <v>21341</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>191</v>
@@ -3631,7 +3642,7 @@
         <v>21341</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="E9" s="17" t="s">
         <v>192</v>
@@ -3660,7 +3671,7 @@
         <v>21341</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>193</v>
@@ -3689,7 +3700,7 @@
         <v>21341</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>194</v>
@@ -3718,7 +3729,7 @@
         <v>21341</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>195</v>
@@ -3747,7 +3758,7 @@
         <v>21341</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="E13" s="17" t="s">
         <v>196</v>
@@ -3776,7 +3787,7 @@
         <v>1000157</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="E14" s="17" t="s">
         <v>185</v>
@@ -3785,10 +3796,10 @@
         <v>2000000</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -3805,7 +3816,7 @@
         <v>1000157</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="E15" s="17" t="s">
         <v>186</v>
@@ -3814,10 +3825,10 @@
         <v>5000000</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="I15">
         <v>2</v>
@@ -3834,7 +3845,7 @@
         <v>1000157</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="E16" s="17" t="s">
         <v>187</v>
@@ -3843,10 +3854,10 @@
         <v>10000000</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="I16">
         <v>3</v>
@@ -3863,7 +3874,7 @@
         <v>1000157</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="E17" s="17" t="s">
         <v>188</v>
@@ -3872,10 +3883,10 @@
         <v>20000000</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="I17">
         <v>4</v>
@@ -3892,7 +3903,7 @@
         <v>1000157</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="E18" s="17" t="s">
         <v>189</v>
@@ -3901,10 +3912,10 @@
         <v>50000000</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I18">
         <v>5</v>
@@ -3921,7 +3932,7 @@
         <v>1000157</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="E19" s="17" t="s">
         <v>190</v>
@@ -3930,10 +3941,10 @@
         <v>100000000</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="I19">
         <v>6</v>
@@ -3950,7 +3961,7 @@
         <v>1000157</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="E20" s="17" t="s">
         <v>191</v>
@@ -3959,10 +3970,10 @@
         <v>200000000</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="H20" s="17" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="I20">
         <v>7</v>
@@ -3979,7 +3990,7 @@
         <v>1000157</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="E21" s="17" t="s">
         <v>192</v>
@@ -3988,10 +3999,10 @@
         <v>500000000</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="I21">
         <v>8</v>
@@ -4008,7 +4019,7 @@
         <v>1000157</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="E22" s="17" t="s">
         <v>193</v>
@@ -4017,10 +4028,10 @@
         <v>1000000000</v>
       </c>
       <c r="G22" s="17" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="H22" s="17" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="I22">
         <v>9</v>
@@ -4037,7 +4048,7 @@
         <v>1000157</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="E23" s="17" t="s">
         <v>194</v>
@@ -4046,10 +4057,10 @@
         <v>2000000000</v>
       </c>
       <c r="G23" s="17" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="H23" s="17" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="I23">
         <v>10</v>
@@ -4066,7 +4077,7 @@
         <v>1000157</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="E24" s="17" t="s">
         <v>195</v>
@@ -4075,10 +4086,10 @@
         <v>3000000000</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="H24" s="17" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="I24">
         <v>11</v>
@@ -4095,7 +4106,7 @@
         <v>1000157</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="E25" s="17" t="s">
         <v>196</v>
@@ -4104,10 +4115,10 @@
         <v>5000000000</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="H25" s="17" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="I25">
         <v>12</v>
@@ -4141,13 +4152,13 @@
         <v>57</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>56</v>
@@ -4159,10 +4170,10 @@
         <v>54</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -4173,25 +4184,25 @@
         <v>21314</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D2" s="5">
         <v>2</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -4202,25 +4213,25 @@
         <v>21016</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="D3" s="5">
         <v>5</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -4231,25 +4242,25 @@
         <v>21017</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="D4" s="5">
         <v>7</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -4260,25 +4271,25 @@
         <v>1000152</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="D5" s="5">
         <v>12</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -4289,25 +4300,25 @@
         <v>1000153</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D6" s="5">
         <v>2</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -4318,25 +4329,25 @@
         <v>1000154</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D7" s="5">
         <v>5</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -4347,25 +4358,25 @@
         <v>1000155</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D8" s="5">
         <v>7</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -4376,25 +4387,25 @@
         <v>1000156</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D9" s="5">
         <v>12</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -5105,7 +5116,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -5139,13 +5150,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -5156,13 +5167,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -5173,13 +5184,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -5190,13 +5201,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -5207,10 +5218,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>37</v>
@@ -5224,13 +5235,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -5241,13 +5252,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -5258,13 +5269,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -5275,13 +5286,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -5295,10 +5306,10 @@
         <v>29</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -5312,10 +5323,10 @@
         <v>30</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -5329,10 +5340,10 @@
         <v>31</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -5346,10 +5357,10 @@
         <v>32</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -5363,10 +5374,10 @@
         <v>33</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -5380,10 +5391,10 @@
         <v>34</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E16">
         <v>1</v>

--- a/config_Release/vip2_config.xlsx
+++ b/config_Release/vip2_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="398">
   <si>
     <t>total|总共充值</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -988,9 +988,6 @@
     <t>福利券容量提升为&lt;color=#DA2020&gt;300万福利券&lt;/color&gt;</t>
   </si>
   <si>
-    <t>福利券容量提升为&lt;color=#DA2020&gt;500万福利券&lt;/color&gt;</t>
-  </si>
-  <si>
     <t>每日最多可参加排名挑战赛4次</t>
   </si>
   <si>
@@ -1437,14 +1434,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>可使用Vip超级转盘，每日可抽&lt;color=#C86715&gt;70次&lt;/color&gt;</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>福卡容量提升为&lt;color=#C86715&gt;800万&lt;/color&gt;福利券</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>享受vip10所有特权并提高部分特权奖励</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1455,10 +1444,6 @@
   <si>
     <t>每领满30次至尊礼包额外奖励200元话费</t>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>福卡容量提升为&lt;color=#C86715&gt;1200万&lt;/color&gt;福利券</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>享受vip11所有特权并提高部分特权奖励</t>
@@ -1561,6 +1546,26 @@
   </si>
   <si>
     <t>cpl_notcjj_notcps</t>
+  </si>
+  <si>
+    <t>福利券容量提升为&lt;color=#DA2020&gt;500万福利券&lt;/color&gt;</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>福利券容量提升为&lt;color=#DA2020&gt;800万&lt;/color&gt;福利券</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>可使用Vip超级转盘，每日可抽&lt;color=#DA2020&gt;70次&lt;/color&gt;</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>福利券容量提升为&lt;color=#DA2020&gt;1200万&lt;/color&gt;福利券</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>可使用Vip超级转盘，每日可抽&lt;color=#DA2020&gt;70次&lt;/color&gt;</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2076,8 +2081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E59" sqref="E59"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2101,13 +2106,13 @@
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>63</v>
@@ -2175,10 +2180,10 @@
         <v>10</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F5" s="26"/>
       <c r="G5" s="27"/>
@@ -2194,10 +2199,10 @@
         <v>200</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F6" s="15"/>
       <c r="G6" s="5"/>
@@ -2245,10 +2250,10 @@
         <v>200</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F9" s="26"/>
       <c r="G9" s="27"/>
@@ -2264,10 +2269,10 @@
         <v>500</v>
       </c>
       <c r="D10" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="E10" s="15" t="s">
         <v>263</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>264</v>
       </c>
       <c r="F10" s="15"/>
       <c r="G10" s="21"/>
@@ -2283,10 +2288,10 @@
         <v>500</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="F11" s="15"/>
       <c r="G11" s="21"/>
@@ -2332,10 +2337,10 @@
         <v>500</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F14" s="26"/>
       <c r="G14" s="27"/>
@@ -2351,10 +2356,10 @@
         <v>1000</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F15" s="15"/>
       <c r="G15" s="21"/>
@@ -2400,10 +2405,10 @@
         <v>1000</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F18" s="26"/>
       <c r="G18" s="27"/>
@@ -2419,10 +2424,10 @@
         <v>2000</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F19" s="15"/>
       <c r="G19" s="21"/>
@@ -2438,10 +2443,10 @@
         <v>2000</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="F20" s="15"/>
       <c r="G20" s="21"/>
@@ -2505,10 +2510,10 @@
         <v>2000</v>
       </c>
       <c r="D24" s="27" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F24" s="26"/>
       <c r="G24" s="27"/>
@@ -2524,10 +2529,10 @@
         <v>5000</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F25" s="15"/>
       <c r="G25" s="21"/>
@@ -2574,10 +2579,10 @@
         <v>5000</v>
       </c>
       <c r="D28" s="27" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E28" s="26" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F28" s="26"/>
       <c r="G28" s="27"/>
@@ -2593,7 +2598,7 @@
         <v>10000</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E29" s="15" t="s">
         <v>237</v>
@@ -2644,10 +2649,10 @@
         <v>10000</v>
       </c>
       <c r="D32" s="27" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E32" s="26" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F32" s="26"/>
       <c r="G32" s="27"/>
@@ -2663,7 +2668,7 @@
         <v>20000</v>
       </c>
       <c r="D33" s="21" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E33" s="15" t="s">
         <v>237</v>
@@ -2714,10 +2719,10 @@
         <v>20000</v>
       </c>
       <c r="D36" s="27" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E36" s="26" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F36" s="26"/>
       <c r="G36" s="27"/>
@@ -2733,7 +2738,7 @@
         <v>30000</v>
       </c>
       <c r="D37" s="21" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E37" s="23" t="s">
         <v>237</v>
@@ -2784,10 +2789,10 @@
         <v>30000</v>
       </c>
       <c r="D40" s="27" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E40" s="26" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F40" s="26"/>
       <c r="G40" s="27"/>
@@ -2803,7 +2808,7 @@
         <v>50000</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E41" s="23" t="s">
         <v>237</v>
@@ -2822,7 +2827,7 @@
         <v>50000</v>
       </c>
       <c r="E42" s="23" t="s">
-        <v>247</v>
+        <v>393</v>
       </c>
       <c r="F42" s="23"/>
       <c r="G42" s="22"/>
@@ -2854,10 +2859,10 @@
         <v>50000</v>
       </c>
       <c r="D44" s="27" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E44" s="26" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F44" s="26"/>
       <c r="G44" s="27"/>
@@ -2870,10 +2875,10 @@
         <v>11</v>
       </c>
       <c r="D45" s="27" t="s">
+        <v>361</v>
+      </c>
+      <c r="E45" s="12" t="s">
         <v>362</v>
-      </c>
-      <c r="E45" s="12" t="s">
-        <v>363</v>
       </c>
       <c r="F45" s="1">
         <v>15000</v>
@@ -2887,10 +2892,10 @@
         <v>11</v>
       </c>
       <c r="D46" s="27" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F46" s="1">
         <v>15000</v>
@@ -2904,10 +2909,10 @@
         <v>11</v>
       </c>
       <c r="D47" s="27" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>365</v>
+        <v>397</v>
       </c>
       <c r="F47" s="1">
         <v>15000</v>
@@ -2921,10 +2926,10 @@
         <v>11</v>
       </c>
       <c r="D48" s="27" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>366</v>
+        <v>394</v>
       </c>
       <c r="F48" s="1">
         <v>15000</v>
@@ -2938,10 +2943,10 @@
         <v>11</v>
       </c>
       <c r="D49" s="27" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F49" s="1">
         <v>15000</v>
@@ -2955,10 +2960,10 @@
         <v>11</v>
       </c>
       <c r="D50" s="27" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F50" s="1">
         <v>15000</v>
@@ -2972,10 +2977,10 @@
         <v>12</v>
       </c>
       <c r="D51" s="27" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="F51" s="1">
         <v>40000</v>
@@ -2989,10 +2994,10 @@
         <v>12</v>
       </c>
       <c r="D52" s="27" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F52" s="1">
         <v>40000</v>
@@ -3006,10 +3011,10 @@
         <v>12</v>
       </c>
       <c r="D53" s="27" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>365</v>
+        <v>395</v>
       </c>
       <c r="F53" s="1">
         <v>40000</v>
@@ -3023,10 +3028,10 @@
         <v>12</v>
       </c>
       <c r="D54" s="27" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>370</v>
+        <v>396</v>
       </c>
       <c r="F54" s="1">
         <v>40000</v>
@@ -3040,10 +3045,10 @@
         <v>12</v>
       </c>
       <c r="D55" s="27" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F55" s="1">
         <v>40000</v>
@@ -3057,10 +3062,10 @@
         <v>12</v>
       </c>
       <c r="D56" s="27" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F56" s="1">
         <v>40000</v>
@@ -3101,7 +3106,7 @@
         <v>165</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>166</v>
@@ -3135,10 +3140,10 @@
         <v>6</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -3156,10 +3161,10 @@
         <v>28</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -3177,10 +3182,10 @@
         <v>48</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -3198,10 +3203,10 @@
         <v>99</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H5" s="24" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -3219,10 +3224,10 @@
         <v>198</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H6" s="24" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -3240,10 +3245,10 @@
         <v>298</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H7" s="24" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -3261,10 +3266,10 @@
         <v>398</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H8" s="24" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -3282,10 +3287,10 @@
         <v>498</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H9" s="24" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -3303,10 +3308,10 @@
         <v>598</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H10" s="24" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -3324,10 +3329,10 @@
         <v>698</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H11" s="24" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -3338,19 +3343,19 @@
         <v>10411</v>
       </c>
       <c r="C12" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F12">
         <v>798</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="H12" s="24" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -3361,19 +3366,19 @@
         <v>10412</v>
       </c>
       <c r="C13" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="F13">
         <v>898</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="H13" s="24" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
   </sheetData>
@@ -3401,7 +3406,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="54" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>13</v>
@@ -3410,7 +3415,7 @@
         <v>181</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>182</v>
@@ -3439,7 +3444,7 @@
         <v>21341</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>185</v>
@@ -3468,7 +3473,7 @@
         <v>21341</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>186</v>
@@ -3497,7 +3502,7 @@
         <v>21341</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>187</v>
@@ -3526,7 +3531,7 @@
         <v>21341</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>188</v>
@@ -3555,7 +3560,7 @@
         <v>21341</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>189</v>
@@ -3584,7 +3589,7 @@
         <v>21341</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>190</v>
@@ -3613,7 +3618,7 @@
         <v>21341</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>191</v>
@@ -3642,7 +3647,7 @@
         <v>21341</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E9" s="17" t="s">
         <v>192</v>
@@ -3671,7 +3676,7 @@
         <v>21341</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>193</v>
@@ -3700,7 +3705,7 @@
         <v>21341</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>194</v>
@@ -3729,7 +3734,7 @@
         <v>21341</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>195</v>
@@ -3758,7 +3763,7 @@
         <v>21341</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E13" s="17" t="s">
         <v>196</v>
@@ -3787,7 +3792,7 @@
         <v>1000157</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E14" s="17" t="s">
         <v>185</v>
@@ -3796,10 +3801,10 @@
         <v>2000000</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -3816,7 +3821,7 @@
         <v>1000157</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E15" s="17" t="s">
         <v>186</v>
@@ -3825,10 +3830,10 @@
         <v>5000000</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I15">
         <v>2</v>
@@ -3845,7 +3850,7 @@
         <v>1000157</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E16" s="17" t="s">
         <v>187</v>
@@ -3854,10 +3859,10 @@
         <v>10000000</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I16">
         <v>3</v>
@@ -3874,7 +3879,7 @@
         <v>1000157</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E17" s="17" t="s">
         <v>188</v>
@@ -3883,10 +3888,10 @@
         <v>20000000</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I17">
         <v>4</v>
@@ -3903,7 +3908,7 @@
         <v>1000157</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E18" s="17" t="s">
         <v>189</v>
@@ -3912,10 +3917,10 @@
         <v>50000000</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I18">
         <v>5</v>
@@ -3932,7 +3937,7 @@
         <v>1000157</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E19" s="17" t="s">
         <v>190</v>
@@ -3941,10 +3946,10 @@
         <v>100000000</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I19">
         <v>6</v>
@@ -3961,7 +3966,7 @@
         <v>1000157</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E20" s="17" t="s">
         <v>191</v>
@@ -3970,10 +3975,10 @@
         <v>200000000</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H20" s="17" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I20">
         <v>7</v>
@@ -3990,7 +3995,7 @@
         <v>1000157</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E21" s="17" t="s">
         <v>192</v>
@@ -3999,10 +4004,10 @@
         <v>500000000</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I21">
         <v>8</v>
@@ -4019,7 +4024,7 @@
         <v>1000157</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E22" s="17" t="s">
         <v>193</v>
@@ -4028,10 +4033,10 @@
         <v>1000000000</v>
       </c>
       <c r="G22" s="17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H22" s="17" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I22">
         <v>9</v>
@@ -4048,7 +4053,7 @@
         <v>1000157</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E23" s="17" t="s">
         <v>194</v>
@@ -4057,10 +4062,10 @@
         <v>2000000000</v>
       </c>
       <c r="G23" s="17" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H23" s="17" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I23">
         <v>10</v>
@@ -4077,7 +4082,7 @@
         <v>1000157</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E24" s="17" t="s">
         <v>195</v>
@@ -4086,10 +4091,10 @@
         <v>3000000000</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H24" s="17" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I24">
         <v>11</v>
@@ -4106,7 +4111,7 @@
         <v>1000157</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E25" s="17" t="s">
         <v>196</v>
@@ -4115,10 +4120,10 @@
         <v>5000000000</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H25" s="17" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I25">
         <v>12</v>
@@ -4152,13 +4157,13 @@
         <v>57</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>56</v>
@@ -4170,10 +4175,10 @@
         <v>54</v>
       </c>
       <c r="H1" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>294</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -4184,25 +4189,25 @@
         <v>21314</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D2" s="5">
         <v>2</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -4213,25 +4218,25 @@
         <v>21016</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D3" s="5">
         <v>5</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F3" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>285</v>
-      </c>
       <c r="H3" s="5" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -4242,25 +4247,25 @@
         <v>21017</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D4" s="5">
         <v>7</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -4271,25 +4276,25 @@
         <v>1000152</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D5" s="5">
         <v>12</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -4300,25 +4305,25 @@
         <v>1000153</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D6" s="5">
         <v>2</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -4329,25 +4334,25 @@
         <v>1000154</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D7" s="5">
         <v>5</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -4358,25 +4363,25 @@
         <v>1000155</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D8" s="5">
         <v>7</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -4387,25 +4392,25 @@
         <v>1000156</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D9" s="5">
         <v>12</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -5150,13 +5155,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -5167,13 +5172,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -5184,13 +5189,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -5201,13 +5206,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -5218,10 +5223,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>37</v>
@@ -5235,13 +5240,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -5252,13 +5257,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -5269,13 +5274,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -5286,13 +5291,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -5306,10 +5311,10 @@
         <v>29</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -5323,10 +5328,10 @@
         <v>30</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -5340,10 +5345,10 @@
         <v>31</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -5357,10 +5362,10 @@
         <v>32</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -5374,10 +5379,10 @@
         <v>33</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -5391,10 +5396,10 @@
         <v>34</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E16">
         <v>1</v>

--- a/config_Release/vip2_config.xlsx
+++ b/config_Release/vip2_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,14 +25,14 @@
     <sheet name="fhfl|富豪福利" sheetId="18" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'dangci|档次'!$E$1:$E$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'dangci|档次'!$E$1:$E$49</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="400">
   <si>
     <t>total|总共充值</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -1028,10 +1028,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>cpl_notcjj</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>每日最多可参加排名挑战赛8次</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1565,6 +1561,18 @@
   </si>
   <si>
     <t>可使用Vip超级转盘，每日可抽&lt;color=#DA2020&gt;70次&lt;/color&gt;</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpl_notcjj</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpl_notcjj</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁福利券大转盘-VIP超级转盘，有机会获取海量福利券</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1719,7 +1727,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1801,6 +1809,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2079,10 +2090,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H56"/>
+  <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2112,7 +2123,7 @@
         <v>1</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>63</v>
@@ -2199,29 +2210,32 @@
         <v>200</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F6" s="15"/>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="25">
         <v>2</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="25">
         <v>200</v>
       </c>
-      <c r="E7" s="15" t="s">
-        <v>239</v>
-      </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="14"/>
+      <c r="D7" s="27" t="s">
+        <v>398</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>399</v>
+      </c>
+      <c r="F7" s="28"/>
+      <c r="G7" s="27"/>
     </row>
     <row r="8" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
@@ -2233,49 +2247,46 @@
       <c r="C8" s="1">
         <v>200</v>
       </c>
-      <c r="E8" s="16" t="s">
-        <v>226</v>
-      </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="5"/>
-    </row>
-    <row r="9" spans="1:8" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E8" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="F8" s="15"/>
+      <c r="G8" s="14"/>
+    </row>
+    <row r="9" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="25">
+      <c r="B9" s="1">
         <v>2</v>
       </c>
-      <c r="C9" s="25">
+      <c r="C9" s="1">
         <v>200</v>
       </c>
-      <c r="D9" s="27" t="s">
-        <v>257</v>
-      </c>
-      <c r="E9" s="26" t="s">
-        <v>248</v>
-      </c>
-      <c r="F9" s="26"/>
-      <c r="G9" s="27"/>
-    </row>
-    <row r="10" spans="1:8" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E9" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="F9" s="16"/>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="19">
-        <v>3</v>
-      </c>
-      <c r="C10" s="19">
-        <v>500</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>262</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>263</v>
-      </c>
-      <c r="F10" s="15"/>
-      <c r="G10" s="21"/>
+      <c r="B10" s="25">
+        <v>2</v>
+      </c>
+      <c r="C10" s="25">
+        <v>200</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>397</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>248</v>
+      </c>
+      <c r="F10" s="26"/>
+      <c r="G10" s="27"/>
     </row>
     <row r="11" spans="1:8" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
@@ -2288,10 +2299,10 @@
         <v>500</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>388</v>
+        <v>262</v>
       </c>
       <c r="F11" s="15"/>
       <c r="G11" s="21"/>
@@ -2306,10 +2317,14 @@
       <c r="C12" s="19">
         <v>500</v>
       </c>
+      <c r="D12" s="21" t="s">
+        <v>278</v>
+      </c>
       <c r="E12" s="15" t="s">
-        <v>240</v>
+        <v>387</v>
       </c>
       <c r="F12" s="15"/>
+      <c r="G12" s="21"/>
     </row>
     <row r="13" spans="1:8" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
@@ -2321,48 +2336,44 @@
       <c r="C13" s="19">
         <v>500</v>
       </c>
-      <c r="E13" s="16" t="s">
-        <v>227</v>
-      </c>
-      <c r="F13" s="16"/>
-    </row>
-    <row r="14" spans="1:8" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E13" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="F13" s="15"/>
+    </row>
+    <row r="14" spans="1:8" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="25">
+      <c r="B14" s="19">
         <v>3</v>
       </c>
-      <c r="C14" s="25">
+      <c r="C14" s="19">
         <v>500</v>
       </c>
-      <c r="D14" s="27" t="s">
-        <v>256</v>
-      </c>
-      <c r="E14" s="26" t="s">
-        <v>249</v>
-      </c>
-      <c r="F14" s="26"/>
-      <c r="G14" s="27"/>
-    </row>
-    <row r="15" spans="1:8" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E14" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="F14" s="16"/>
+    </row>
+    <row r="15" spans="1:8" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="19">
-        <v>4</v>
-      </c>
-      <c r="C15" s="19">
-        <v>1000</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>279</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>389</v>
-      </c>
-      <c r="F15" s="15"/>
-      <c r="G15" s="21"/>
+      <c r="B15" s="25">
+        <v>3</v>
+      </c>
+      <c r="C15" s="25">
+        <v>500</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>256</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>249</v>
+      </c>
+      <c r="F15" s="26"/>
+      <c r="G15" s="27"/>
     </row>
     <row r="16" spans="1:8" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
@@ -2374,10 +2385,14 @@
       <c r="C16" s="19">
         <v>1000</v>
       </c>
+      <c r="D16" s="21" t="s">
+        <v>278</v>
+      </c>
       <c r="E16" s="15" t="s">
-        <v>241</v>
+        <v>388</v>
       </c>
       <c r="F16" s="15"/>
+      <c r="G16" s="21"/>
     </row>
     <row r="17" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
@@ -2389,48 +2404,44 @@
       <c r="C17" s="19">
         <v>1000</v>
       </c>
-      <c r="E17" s="16" t="s">
-        <v>228</v>
-      </c>
-      <c r="F17" s="16"/>
-    </row>
-    <row r="18" spans="1:7" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E17" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="F17" s="15"/>
+    </row>
+    <row r="18" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="25">
+      <c r="B18" s="19">
         <v>4</v>
       </c>
-      <c r="C18" s="25">
+      <c r="C18" s="19">
         <v>1000</v>
       </c>
-      <c r="D18" s="27" t="s">
-        <v>256</v>
-      </c>
-      <c r="E18" s="26" t="s">
-        <v>250</v>
-      </c>
-      <c r="F18" s="26"/>
-      <c r="G18" s="27"/>
-    </row>
-    <row r="19" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E18" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="F18" s="16"/>
+    </row>
+    <row r="19" spans="1:7" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="19">
-        <v>5</v>
-      </c>
-      <c r="C19" s="19">
-        <v>2000</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>262</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="F19" s="15"/>
-      <c r="G19" s="21"/>
+      <c r="B19" s="25">
+        <v>4</v>
+      </c>
+      <c r="C19" s="25">
+        <v>1000</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>256</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>250</v>
+      </c>
+      <c r="F19" s="26"/>
+      <c r="G19" s="27"/>
     </row>
     <row r="20" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
@@ -2443,10 +2454,10 @@
         <v>2000</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>390</v>
+        <v>263</v>
       </c>
       <c r="F20" s="15"/>
       <c r="G20" s="21"/>
@@ -2461,13 +2472,16 @@
       <c r="C21" s="19">
         <v>2000</v>
       </c>
+      <c r="D21" s="21" t="s">
+        <v>281</v>
+      </c>
       <c r="E21" s="15" t="s">
-        <v>242</v>
+        <v>389</v>
       </c>
       <c r="F21" s="15"/>
-      <c r="G21" s="22"/>
-    </row>
-    <row r="22" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G21" s="21"/>
+    </row>
+    <row r="22" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2477,11 +2491,11 @@
       <c r="C22" s="19">
         <v>2000</v>
       </c>
-      <c r="E22" s="16" t="s">
-        <v>229</v>
-      </c>
-      <c r="F22" s="16"/>
-      <c r="G22" s="21"/>
+      <c r="E22" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="F22" s="15"/>
+      <c r="G22" s="22"/>
     </row>
     <row r="23" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
@@ -2494,48 +2508,45 @@
         <v>2000</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F23" s="16"/>
       <c r="G23" s="21"/>
     </row>
-    <row r="24" spans="1:7" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="25">
+      <c r="B24" s="19">
         <v>5</v>
       </c>
-      <c r="C24" s="25">
+      <c r="C24" s="19">
         <v>2000</v>
       </c>
-      <c r="D24" s="27" t="s">
-        <v>256</v>
-      </c>
-      <c r="E24" s="26" t="s">
-        <v>260</v>
-      </c>
-      <c r="F24" s="26"/>
-      <c r="G24" s="27"/>
-    </row>
-    <row r="25" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E24" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="F24" s="16"/>
+      <c r="G24" s="21"/>
+    </row>
+    <row r="25" spans="1:7" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="19">
-        <v>6</v>
-      </c>
-      <c r="C25" s="19">
-        <v>5000</v>
-      </c>
-      <c r="D25" s="21" t="s">
-        <v>279</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>391</v>
-      </c>
-      <c r="F25" s="15"/>
-      <c r="G25" s="21"/>
+      <c r="B25" s="25">
+        <v>5</v>
+      </c>
+      <c r="C25" s="25">
+        <v>2000</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>256</v>
+      </c>
+      <c r="E25" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="F25" s="26"/>
+      <c r="G25" s="27"/>
     </row>
     <row r="26" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
@@ -2547,10 +2558,14 @@
       <c r="C26" s="19">
         <v>5000</v>
       </c>
+      <c r="D26" s="21" t="s">
+        <v>278</v>
+      </c>
       <c r="E26" s="15" t="s">
-        <v>243</v>
+        <v>390</v>
       </c>
       <c r="F26" s="15"/>
+      <c r="G26" s="21"/>
     </row>
     <row r="27" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
@@ -2562,49 +2577,45 @@
       <c r="C27" s="19">
         <v>5000</v>
       </c>
-      <c r="E27" s="16" t="s">
-        <v>231</v>
-      </c>
-      <c r="F27" s="16"/>
-      <c r="G27" s="21"/>
-    </row>
-    <row r="28" spans="1:7" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E27" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="F27" s="15"/>
+    </row>
+    <row r="28" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="25">
+      <c r="B28" s="19">
         <v>6</v>
       </c>
-      <c r="C28" s="25">
+      <c r="C28" s="19">
         <v>5000</v>
       </c>
-      <c r="D28" s="27" t="s">
-        <v>258</v>
-      </c>
-      <c r="E28" s="26" t="s">
-        <v>251</v>
-      </c>
-      <c r="F28" s="26"/>
-      <c r="G28" s="27"/>
-    </row>
-    <row r="29" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E28" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="F28" s="16"/>
+      <c r="G28" s="21"/>
+    </row>
+    <row r="29" spans="1:7" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="19">
-        <v>7</v>
-      </c>
-      <c r="C29" s="19">
-        <v>10000</v>
-      </c>
-      <c r="D29" s="21" t="s">
-        <v>281</v>
-      </c>
-      <c r="E29" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="F29" s="15"/>
-      <c r="G29" s="21"/>
+      <c r="B29" s="25">
+        <v>6</v>
+      </c>
+      <c r="C29" s="25">
+        <v>5000</v>
+      </c>
+      <c r="D29" s="27" t="s">
+        <v>257</v>
+      </c>
+      <c r="E29" s="26" t="s">
+        <v>251</v>
+      </c>
+      <c r="F29" s="26"/>
+      <c r="G29" s="27"/>
     </row>
     <row r="30" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
@@ -2616,11 +2627,14 @@
       <c r="C30" s="19">
         <v>10000</v>
       </c>
+      <c r="D30" s="21" t="s">
+        <v>280</v>
+      </c>
       <c r="E30" s="15" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="F30" s="15"/>
-      <c r="G30" s="22"/>
+      <c r="G30" s="21"/>
     </row>
     <row r="31" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
@@ -2632,49 +2646,46 @@
       <c r="C31" s="19">
         <v>10000</v>
       </c>
-      <c r="E31" s="16" t="s">
-        <v>232</v>
-      </c>
-      <c r="F31" s="16"/>
-      <c r="G31" s="21"/>
-    </row>
-    <row r="32" spans="1:7" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E31" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="F31" s="15"/>
+      <c r="G31" s="22"/>
+    </row>
+    <row r="32" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" s="25">
+      <c r="B32" s="19">
         <v>7</v>
       </c>
-      <c r="C32" s="25">
+      <c r="C32" s="19">
         <v>10000</v>
       </c>
-      <c r="D32" s="27" t="s">
-        <v>259</v>
-      </c>
-      <c r="E32" s="26" t="s">
-        <v>252</v>
-      </c>
-      <c r="F32" s="26"/>
-      <c r="G32" s="27"/>
-    </row>
-    <row r="33" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E32" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="F32" s="16"/>
+      <c r="G32" s="21"/>
+    </row>
+    <row r="33" spans="1:7" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="19">
-        <v>8</v>
-      </c>
-      <c r="C33" s="19">
-        <v>20000</v>
-      </c>
-      <c r="D33" s="21" t="s">
-        <v>280</v>
-      </c>
-      <c r="E33" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="F33" s="15"/>
-      <c r="G33" s="21"/>
+      <c r="B33" s="25">
+        <v>7</v>
+      </c>
+      <c r="C33" s="25">
+        <v>10000</v>
+      </c>
+      <c r="D33" s="27" t="s">
+        <v>258</v>
+      </c>
+      <c r="E33" s="26" t="s">
+        <v>252</v>
+      </c>
+      <c r="F33" s="26"/>
+      <c r="G33" s="27"/>
     </row>
     <row r="34" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
@@ -2686,11 +2697,14 @@
       <c r="C34" s="19">
         <v>20000</v>
       </c>
+      <c r="D34" s="21" t="s">
+        <v>279</v>
+      </c>
       <c r="E34" s="15" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="F34" s="15"/>
-      <c r="G34" s="22"/>
+      <c r="G34" s="21"/>
     </row>
     <row r="35" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
@@ -2702,49 +2716,46 @@
       <c r="C35" s="19">
         <v>20000</v>
       </c>
-      <c r="E35" s="16" t="s">
-        <v>233</v>
-      </c>
-      <c r="F35" s="16"/>
-      <c r="G35" s="21"/>
-    </row>
-    <row r="36" spans="1:7" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E35" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="F35" s="15"/>
+      <c r="G35" s="22"/>
+    </row>
+    <row r="36" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36" s="25">
+      <c r="B36" s="19">
         <v>8</v>
       </c>
-      <c r="C36" s="25">
+      <c r="C36" s="19">
         <v>20000</v>
       </c>
-      <c r="D36" s="27" t="s">
-        <v>256</v>
-      </c>
-      <c r="E36" s="26" t="s">
-        <v>253</v>
-      </c>
-      <c r="F36" s="26"/>
-      <c r="G36" s="27"/>
-    </row>
-    <row r="37" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E36" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="F36" s="16"/>
+      <c r="G36" s="21"/>
+    </row>
+    <row r="37" spans="1:7" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
-      <c r="B37" s="19">
-        <v>9</v>
-      </c>
-      <c r="C37" s="19">
-        <v>30000</v>
-      </c>
-      <c r="D37" s="21" t="s">
-        <v>279</v>
-      </c>
-      <c r="E37" s="23" t="s">
-        <v>237</v>
-      </c>
-      <c r="F37" s="23"/>
-      <c r="G37" s="21"/>
+      <c r="B37" s="25">
+        <v>8</v>
+      </c>
+      <c r="C37" s="25">
+        <v>20000</v>
+      </c>
+      <c r="D37" s="27" t="s">
+        <v>256</v>
+      </c>
+      <c r="E37" s="26" t="s">
+        <v>253</v>
+      </c>
+      <c r="F37" s="26"/>
+      <c r="G37" s="27"/>
     </row>
     <row r="38" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
@@ -2756,11 +2767,14 @@
       <c r="C38" s="19">
         <v>30000</v>
       </c>
+      <c r="D38" s="21" t="s">
+        <v>278</v>
+      </c>
       <c r="E38" s="23" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="F38" s="23"/>
-      <c r="G38" s="22"/>
+      <c r="G38" s="21"/>
     </row>
     <row r="39" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
@@ -2772,49 +2786,46 @@
       <c r="C39" s="19">
         <v>30000</v>
       </c>
-      <c r="E39" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="F39" s="20"/>
-      <c r="G39" s="21"/>
-    </row>
-    <row r="40" spans="1:7" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E39" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="F39" s="23"/>
+      <c r="G39" s="22"/>
+    </row>
+    <row r="40" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="B40" s="25">
+      <c r="B40" s="19">
         <v>9</v>
       </c>
-      <c r="C40" s="25">
+      <c r="C40" s="19">
         <v>30000</v>
       </c>
-      <c r="D40" s="27" t="s">
-        <v>261</v>
-      </c>
-      <c r="E40" s="26" t="s">
-        <v>254</v>
-      </c>
-      <c r="F40" s="26"/>
-      <c r="G40" s="27"/>
-    </row>
-    <row r="41" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E40" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="F40" s="20"/>
+      <c r="G40" s="21"/>
+    </row>
+    <row r="41" spans="1:7" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="B41" s="19">
-        <v>10</v>
-      </c>
-      <c r="C41" s="19">
-        <v>50000</v>
-      </c>
-      <c r="D41" s="21" t="s">
-        <v>279</v>
-      </c>
-      <c r="E41" s="23" t="s">
-        <v>237</v>
-      </c>
-      <c r="F41" s="23"/>
-      <c r="G41" s="21"/>
+      <c r="B41" s="25">
+        <v>9</v>
+      </c>
+      <c r="C41" s="25">
+        <v>30000</v>
+      </c>
+      <c r="D41" s="27" t="s">
+        <v>260</v>
+      </c>
+      <c r="E41" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="F41" s="26"/>
+      <c r="G41" s="27"/>
     </row>
     <row r="42" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
@@ -2826,11 +2837,14 @@
       <c r="C42" s="19">
         <v>50000</v>
       </c>
+      <c r="D42" s="21" t="s">
+        <v>278</v>
+      </c>
       <c r="E42" s="23" t="s">
-        <v>393</v>
+        <v>237</v>
       </c>
       <c r="F42" s="23"/>
-      <c r="G42" s="22"/>
+      <c r="G42" s="21"/>
     </row>
     <row r="43" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
@@ -2842,47 +2856,46 @@
       <c r="C43" s="19">
         <v>50000</v>
       </c>
-      <c r="E43" s="20" t="s">
-        <v>235</v>
-      </c>
-      <c r="F43" s="20"/>
-      <c r="G43" s="21"/>
-    </row>
-    <row r="44" spans="1:7" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E43" s="23" t="s">
+        <v>392</v>
+      </c>
+      <c r="F43" s="23"/>
+      <c r="G43" s="22"/>
+    </row>
+    <row r="44" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
-      <c r="B44" s="25">
+      <c r="B44" s="19">
         <v>10</v>
       </c>
-      <c r="C44" s="25">
+      <c r="C44" s="19">
         <v>50000</v>
       </c>
-      <c r="D44" s="27" t="s">
-        <v>361</v>
-      </c>
-      <c r="E44" s="26" t="s">
-        <v>369</v>
-      </c>
-      <c r="F44" s="26"/>
-      <c r="G44" s="27"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E44" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="F44" s="20"/>
+      <c r="G44" s="21"/>
+    </row>
+    <row r="45" spans="1:7" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
-      <c r="B45" s="1">
-        <v>11</v>
+      <c r="B45" s="25">
+        <v>10</v>
+      </c>
+      <c r="C45" s="25">
+        <v>50000</v>
       </c>
       <c r="D45" s="27" t="s">
-        <v>361</v>
-      </c>
-      <c r="E45" s="12" t="s">
-        <v>362</v>
-      </c>
-      <c r="F45" s="1">
-        <v>15000</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="E45" s="26" t="s">
+        <v>368</v>
+      </c>
+      <c r="F45" s="26"/>
+      <c r="G45" s="27"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
@@ -2892,10 +2905,10 @@
         <v>11</v>
       </c>
       <c r="D46" s="27" t="s">
+        <v>360</v>
+      </c>
+      <c r="E46" s="12" t="s">
         <v>361</v>
-      </c>
-      <c r="E46" s="12" t="s">
-        <v>363</v>
       </c>
       <c r="F46" s="1">
         <v>15000</v>
@@ -2909,10 +2922,10 @@
         <v>11</v>
       </c>
       <c r="D47" s="27" t="s">
-        <v>392</v>
+        <v>360</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>397</v>
+        <v>362</v>
       </c>
       <c r="F47" s="1">
         <v>15000</v>
@@ -2926,10 +2939,10 @@
         <v>11</v>
       </c>
       <c r="D48" s="27" t="s">
-        <v>361</v>
+        <v>391</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="F48" s="1">
         <v>15000</v>
@@ -2943,10 +2956,10 @@
         <v>11</v>
       </c>
       <c r="D49" s="27" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>368</v>
+        <v>393</v>
       </c>
       <c r="F49" s="1">
         <v>15000</v>
@@ -2960,10 +2973,10 @@
         <v>11</v>
       </c>
       <c r="D50" s="27" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="F50" s="1">
         <v>15000</v>
@@ -2974,16 +2987,16 @@
         <v>50</v>
       </c>
       <c r="B51" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D51" s="27" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F51" s="1">
-        <v>40000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -2994,10 +3007,10 @@
         <v>12</v>
       </c>
       <c r="D52" s="27" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F52" s="1">
         <v>40000</v>
@@ -3011,10 +3024,10 @@
         <v>12</v>
       </c>
       <c r="D53" s="27" t="s">
-        <v>392</v>
+        <v>360</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>395</v>
+        <v>365</v>
       </c>
       <c r="F53" s="1">
         <v>40000</v>
@@ -3028,10 +3041,10 @@
         <v>12</v>
       </c>
       <c r="D54" s="27" t="s">
-        <v>361</v>
+        <v>391</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F54" s="1">
         <v>40000</v>
@@ -3045,10 +3058,10 @@
         <v>12</v>
       </c>
       <c r="D55" s="27" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>360</v>
+        <v>395</v>
       </c>
       <c r="F55" s="1">
         <v>40000</v>
@@ -3062,17 +3075,34 @@
         <v>12</v>
       </c>
       <c r="D56" s="27" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F56" s="1">
         <v>40000</v>
       </c>
     </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1">
+        <v>12</v>
+      </c>
+      <c r="D57" s="27" t="s">
+        <v>360</v>
+      </c>
+      <c r="E57" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="F57" s="1">
+        <v>40000</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="E1:E48"/>
+  <autoFilter ref="E1:E49"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3106,7 +3136,7 @@
         <v>165</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>166</v>
@@ -3140,10 +3170,10 @@
         <v>6</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -3161,10 +3191,10 @@
         <v>28</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -3182,10 +3212,10 @@
         <v>48</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -3203,10 +3233,10 @@
         <v>99</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H5" s="24" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -3224,10 +3254,10 @@
         <v>198</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H6" s="24" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -3245,10 +3275,10 @@
         <v>298</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H7" s="24" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -3266,10 +3296,10 @@
         <v>398</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H8" s="24" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -3287,10 +3317,10 @@
         <v>498</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H9" s="24" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -3308,10 +3338,10 @@
         <v>598</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H10" s="24" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -3329,10 +3359,10 @@
         <v>698</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H11" s="24" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -3343,19 +3373,19 @@
         <v>10411</v>
       </c>
       <c r="C12" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F12">
         <v>798</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H12" s="24" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -3366,19 +3396,19 @@
         <v>10412</v>
       </c>
       <c r="C13" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F13">
         <v>898</v>
       </c>
       <c r="G13" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="H13" s="24" t="s">
         <v>374</v>
-      </c>
-      <c r="H13" s="24" t="s">
-        <v>375</v>
       </c>
     </row>
   </sheetData>
@@ -3406,7 +3436,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="54" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>13</v>
@@ -3415,7 +3445,7 @@
         <v>181</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>182</v>
@@ -3444,7 +3474,7 @@
         <v>21341</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>185</v>
@@ -3473,7 +3503,7 @@
         <v>21341</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>186</v>
@@ -3502,7 +3532,7 @@
         <v>21341</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>187</v>
@@ -3531,7 +3561,7 @@
         <v>21341</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>188</v>
@@ -3560,7 +3590,7 @@
         <v>21341</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>189</v>
@@ -3589,7 +3619,7 @@
         <v>21341</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>190</v>
@@ -3618,7 +3648,7 @@
         <v>21341</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>191</v>
@@ -3647,7 +3677,7 @@
         <v>21341</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E9" s="17" t="s">
         <v>192</v>
@@ -3676,7 +3706,7 @@
         <v>21341</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>193</v>
@@ -3705,7 +3735,7 @@
         <v>21341</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>194</v>
@@ -3734,7 +3764,7 @@
         <v>21341</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>195</v>
@@ -3763,7 +3793,7 @@
         <v>21341</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E13" s="17" t="s">
         <v>196</v>
@@ -3792,7 +3822,7 @@
         <v>1000157</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E14" s="17" t="s">
         <v>185</v>
@@ -3801,10 +3831,10 @@
         <v>2000000</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -3821,7 +3851,7 @@
         <v>1000157</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E15" s="17" t="s">
         <v>186</v>
@@ -3830,10 +3860,10 @@
         <v>5000000</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I15">
         <v>2</v>
@@ -3850,7 +3880,7 @@
         <v>1000157</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E16" s="17" t="s">
         <v>187</v>
@@ -3859,10 +3889,10 @@
         <v>10000000</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I16">
         <v>3</v>
@@ -3879,7 +3909,7 @@
         <v>1000157</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E17" s="17" t="s">
         <v>188</v>
@@ -3888,10 +3918,10 @@
         <v>20000000</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I17">
         <v>4</v>
@@ -3908,7 +3938,7 @@
         <v>1000157</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E18" s="17" t="s">
         <v>189</v>
@@ -3917,10 +3947,10 @@
         <v>50000000</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I18">
         <v>5</v>
@@ -3937,7 +3967,7 @@
         <v>1000157</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E19" s="17" t="s">
         <v>190</v>
@@ -3946,10 +3976,10 @@
         <v>100000000</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I19">
         <v>6</v>
@@ -3966,7 +3996,7 @@
         <v>1000157</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E20" s="17" t="s">
         <v>191</v>
@@ -3975,10 +4005,10 @@
         <v>200000000</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H20" s="17" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I20">
         <v>7</v>
@@ -3995,7 +4025,7 @@
         <v>1000157</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E21" s="17" t="s">
         <v>192</v>
@@ -4004,10 +4034,10 @@
         <v>500000000</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I21">
         <v>8</v>
@@ -4024,7 +4054,7 @@
         <v>1000157</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E22" s="17" t="s">
         <v>193</v>
@@ -4033,10 +4063,10 @@
         <v>1000000000</v>
       </c>
       <c r="G22" s="17" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H22" s="17" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I22">
         <v>9</v>
@@ -4053,7 +4083,7 @@
         <v>1000157</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E23" s="17" t="s">
         <v>194</v>
@@ -4062,10 +4092,10 @@
         <v>2000000000</v>
       </c>
       <c r="G23" s="17" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H23" s="17" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I23">
         <v>10</v>
@@ -4082,7 +4112,7 @@
         <v>1000157</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E24" s="17" t="s">
         <v>195</v>
@@ -4091,10 +4121,10 @@
         <v>3000000000</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H24" s="17" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I24">
         <v>11</v>
@@ -4111,7 +4141,7 @@
         <v>1000157</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E25" s="17" t="s">
         <v>196</v>
@@ -4120,10 +4150,10 @@
         <v>5000000000</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H25" s="17" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I25">
         <v>12</v>
@@ -4157,13 +4187,13 @@
         <v>57</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>56</v>
@@ -4175,10 +4205,10 @@
         <v>54</v>
       </c>
       <c r="H1" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>293</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -4189,25 +4219,25 @@
         <v>21314</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D2" s="5">
         <v>2</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -4218,25 +4248,25 @@
         <v>21016</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D3" s="5">
         <v>5</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F3" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>284</v>
-      </c>
       <c r="H3" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -4247,25 +4277,25 @@
         <v>21017</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D4" s="5">
         <v>7</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -4276,25 +4306,25 @@
         <v>1000152</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D5" s="5">
         <v>12</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -4305,25 +4335,25 @@
         <v>1000153</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D6" s="5">
         <v>2</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -4334,25 +4364,25 @@
         <v>1000154</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D7" s="5">
         <v>5</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -4363,25 +4393,25 @@
         <v>1000155</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D8" s="5">
         <v>7</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -4392,25 +4422,25 @@
         <v>1000156</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D9" s="5">
         <v>12</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -5155,13 +5185,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -5172,13 +5202,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -5189,13 +5219,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -5206,13 +5236,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -5223,10 +5253,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>37</v>
@@ -5240,13 +5270,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -5257,13 +5287,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -5274,13 +5304,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -5291,13 +5321,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -5311,10 +5341,10 @@
         <v>29</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -5328,10 +5358,10 @@
         <v>30</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -5345,10 +5375,10 @@
         <v>31</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -5362,10 +5392,10 @@
         <v>32</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -5379,10 +5409,10 @@
         <v>33</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -5396,10 +5426,10 @@
         <v>34</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E16">
         <v>1</v>

--- a/config_Release/vip2_config.xlsx
+++ b/config_Release/vip2_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="597"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="597" firstSheet="4" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="dangci|档次" sheetId="7" r:id="rId1"/>
@@ -23,23 +23,24 @@
     <sheet name="qys|千元赛" sheetId="12" r:id="rId9"/>
     <sheet name="gift|VIP礼包" sheetId="17" r:id="rId10"/>
     <sheet name="fhfl|富豪福利" sheetId="18" r:id="rId11"/>
+    <sheet name="vip_up|vip等级提升提示" sheetId="20" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'dangci|档次'!$E$1:$E$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'dangci|档次'!$E$1:$E$72</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="472">
   <si>
     <t>total|总共充值</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>info|信息</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>name|任务名称</t>
@@ -76,27 +77,27 @@
   </si>
   <si>
     <t>index|索引</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>id|任务id</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>type|任务类型</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>day</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>level</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>gold</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -113,159 +114,159 @@
       </rPr>
       <t>atch</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>level|等级</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>head_img|图标</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>com_head_vip</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>text|名称</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>image|图标</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>isreal|是否是实物奖励</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>com_icon_gold</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>com_icon_gold</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>bbsc_icon_hb</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>vip_zx_icon_1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>vip_zx_icon_2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>vip_zx_icon_3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>vip_zx_icon_4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>vip_zx_icon_5</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>vip_zx_icon_6</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>5000鲸币</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>need|需求量</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>200000000</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>9</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>21</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>39</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>60</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>96</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>need|需求量</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>10万鲸币</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>8万鲸币</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>6万鲸币</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>5万鲸币</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>2万鲸币</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1万鲸币</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>hall_bg_head</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>title|抬头</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>text|名称</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>image|图标</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>index|索引</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>vip每周任务奖励1</t>
@@ -275,211 +276,211 @@
   </si>
   <si>
     <t>week</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>week</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>line|行号</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>gotoUI|跳转</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>vip|Vip等级</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>cfz|财富值</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>8000鲸币</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>4000000</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1红包劵</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>8000000</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>2红包劵</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>16000000</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>35000000</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>6红包券</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>14红包券</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>30红包劵</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>60红包券</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>120红包券</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>美的微波炉</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>智能扫地机器人</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>need|需求量</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>70000000</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>150000000</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>300000000</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>600000000</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1200000000</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>3000000000</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>6000000000</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>10000000000</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>activity_icon_gift144_mdwbl</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>activity_icon_gift145_sdjqr</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>全自动足疗机</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>"activity_icon_gift148_qsamy","activity_icon_gift149_yjds","activity_icon_gift150_ipad",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>"全身按摩椅","65英寸液晶电视","苹果ipad",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>remark|备注</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>实物大奖三选一</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>vip累积赢金挑战</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>gold_new</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>gold_repeat</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>vip累积赢金挑战新版</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>vip累积赢金新征程宝箱</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>activity_icon_gift151_zlj</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>vip11</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>vip11lb</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>vip12</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>vip12lb</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>VIP11至尊礼包领取</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>VIP11领取30次后领取</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>VIP12至尊礼包领取</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>VIP12领取30次后领取</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>小米空气净化器</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>美的空调</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>activity_icon_gift161_kqjhq</t>
@@ -502,155 +503,155 @@
       </rPr>
       <t>3</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>vip累计赢金挑战第三期</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>gold_three</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>2000000</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>3000000</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>6000鲸币</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>10000鲸币</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>2红包劵</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>4红包劵</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>8红包券</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>16红包券</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>35红包劵</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>70红包券</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>140红包券</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>拜尔电动牙刷</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>九阳电炖紫砂锅</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>美的智能烤箱</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>苏泊尔净水器</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>美的冰箱</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>800000000</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>24000000000</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>6000000</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>12000000</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>24000000</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>48000000</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>96000000</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>400000000</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1600000000</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>3200000000</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>6400000000</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>12000000000</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>activity_icon_gift171_ddys</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>"activity_icon_gift176_iwatch","activity_icon_gift177_zpsf","activity_icon_gift178_cd",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>activity_icon_gift175_bx</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>activity_icon_gift174_jsq</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>activity_icon_gift172_ddg</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>activity_icon_gift173_dkx</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>"苹果智能手表","北欧真皮沙发","席梦思高端床垫",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>"1.66万鲸币","锁定*1","记牌器*1"</t>
@@ -693,27 +694,27 @@
   </si>
   <si>
     <t>gift_id|礼包ID</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>title|名字</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>price|价格</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>award_img|图片</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>award_txt|描述</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>origin_price|价格</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>"VIP1礼包","(购买条件:&lt;color=#EDD112&gt;VIP等级≥1&lt;/color&gt;)",</t>
@@ -747,179 +748,179 @@
   </si>
   <si>
     <t>task_id|任务ID</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>title|描述</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>award_img|奖励图片</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>award_txt|奖励文字</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>身上拥有200万金币</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>身上拥有500万金币</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>身上拥有1000万金币</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>身上拥有2000万金币</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>身上拥有5000万金币</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>身上拥有1亿金币</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>身上拥有2亿金币</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>身上拥有5亿金币</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>身上拥有10亿金币</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>身上拥有20亿金币</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>身上拥有30亿金币</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>身上拥有50亿金币</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>"ty_icon_jb_6y","3dby_btn_sd","3dby_btn_bd",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>"ty_icon_jb_6y","3dby_btn_sd","3dby_btn_bd",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>"ty_icon_jb_15y","3dby_btn_sd","3dby_btn_bd",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>"ty_icon_jb_18y","3dby_btn_sd","3dby_btn_bd",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>"ty_icon_jb_30y","3dby_btn_sd","3dby_btn_bd",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>"ty_icon_jb_48y","3dby_btn_sd","3dby_btn_bd",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>"ty_icon_jb_50y","3dby_btn_sd","3dby_btn_bd",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>"ty_icon_jb_98y","3dby_btn_sd","3dby_btn_bd",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>"ty_icon_jb_198y","3dby_btn_sd","3dby_btn_bd",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>"ty_icon_jb_498y","3dby_btn_sd","3dby_btn_bd",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>"ty_icon_jb_998y","3dby_btn_sd","3dby_btn_bd",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>"ty_icon_jb_2498y","3dby_btn_sd","3dby_btn_bd",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>"8万金币","锁定*1","冰冻*1",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>"18万金币","锁定*1","冰冻*1",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>"28万金币","锁定*1","冰冻*1",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>"38万金币","锁定*2","冰冻*2",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>"48万金币","锁定*2","冰冻*2",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>"88万金币","锁定*2","冰冻*2",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>"128万金币","锁定*3","冰冻*3",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>"188万金币","锁定*3","冰冻*3",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>"288万金币","锁定*3","冰冻*3",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>"488万金币","锁定*5","冰冻*5",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>"588万金币","锁定*5","冰冻*5",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>"388万金币","锁定*5","冰冻*5",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>condition|进度</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>award_progress_lv|奖励阶段等级</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>fhfl</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>富豪福利</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>享受vip专享福利</t>
@@ -955,97 +956,37 @@
     <t>享受vip9所有特权并提高部分特权奖励</t>
   </si>
   <si>
-    <t>福利券容量提升为&lt;color=#DA2020&gt;5000福利券&lt;/color&gt;</t>
-  </si>
-  <si>
     <t>可使用Vip超级转盘，每日可抽&lt;color=#DA2020&gt;50次&lt;/color&gt;</t>
   </si>
   <si>
     <t>享受兑换商城商品&lt;color=#DA2020&gt;99%&lt;/color&gt;兑换权</t>
   </si>
   <si>
-    <t>福利券容量提升为&lt;color=#DA2020&gt;4万福利券&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>福利券容量提升为&lt;color=#DA2020&gt;10万福利券&lt;/color&gt;</t>
-  </si>
-  <si>
     <t>福利券容量提升为&lt;color=#DA2020&gt;15万福利券&lt;/color&gt;</t>
   </si>
   <si>
-    <t>福利券容量提升为&lt;color=#DA2020&gt;30万福利券&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>福利券容量提升为&lt;color=#DA2020&gt;50万福利券&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>福利券容量提升为&lt;color=#DA2020&gt;100万福利券&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>福利券容量提升为&lt;color=#DA2020&gt;200万福利券&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>福利券容量提升为&lt;color=#DA2020&gt;300万福利券&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>每日最多可参加排名挑战赛4次</t>
-  </si>
-  <si>
-    <t>每日最多可参加排名挑战赛5次</t>
-  </si>
-  <si>
-    <t>每日最多可参加排名挑战赛6次</t>
-  </si>
-  <si>
-    <t>每日最多可参加排名挑战赛7次</t>
-  </si>
-  <si>
-    <t>每日最多可参加排名挑战赛9次</t>
-  </si>
-  <si>
-    <t>每日最多可参加排名挑战赛10次</t>
-  </si>
-  <si>
-    <t>每日最多可参加排名挑战赛11次</t>
-  </si>
-  <si>
-    <t>每日最多可参加排名挑战赛12次</t>
-  </si>
-  <si>
     <t>key|权限</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>cpl_notcjj</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>cpl_notcjj</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>cpl_notcjj</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>每日最多可参加排名挑战赛8次</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>cpl_notcjj</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>vip_notcps</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>可获得&lt;color=#DA2020&gt;闪耀风暴&lt;/color&gt;炮台，有几率捕获激光范围内的任意鱼类</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>可获得&lt;color=#DA2020&gt;金币使者&lt;/color&gt;炮台，可捕获同移动线上的任意鱼类</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>"ty_icon_jb_48y","zpg_icon_shui","com_award_icon_cz1",</t>
@@ -1061,94 +1002,94 @@
   </si>
   <si>
     <t>"75万","1","1",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>"7688万","20","20",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>"6488万","10","10",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>"5488万","8","8",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>"4388万","7","7",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>"3288万","6","6",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>"2218万","5","5",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>"1108万","4","4",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>"538万","3","3",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>"318万","2","2",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>cjj_vip_desc</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>cjj_vip_desc</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>cjj_vip_desc</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>cjj_vip_desc</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>"30万鱼币","太阳*6","狂暴卡*10"</t>
   </si>
   <si>
     <t>vip&lt;color=#e41a1a&gt;3&lt;/color&gt;-vip&lt;color=#e41a1a&gt;5&lt;/color&gt;福利</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>vip&lt;color=#e41a1a&gt;2&lt;/color&gt;福利</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>vip&lt;color=#e41a1a&gt;8&lt;/color&gt;及以上福利</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>"com_award_icon_yb1","zpg_icon_yg","3dby_btn_kb"</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>"com_award_icon_yb1","zpg_icon_yg","3dby_btn_kb"</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>"com_award_icon_yb1","zpg_icon_yg","3dby_btn_kb"</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>"10万鱼币","太阳*2","狂暴卡*5"</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>"66万鱼币","太阳*10","狂暴卡*15"</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1164,87 +1105,87 @@
       </rPr>
       <t>|任务id</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>tips|点击图标描述</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>desc|</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>成为VIP2即可领取更丰厚的每周福利!</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>成为VIP8即可领取更丰厚的每周福利!</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>成为VIP6即可领取更丰厚的每周福利!</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>成为VIP3即可领取更丰厚的每周福利!</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>10000000</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>20000000</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>50000000</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>100000000</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>500000000</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1000000000</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>2000000000</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>5000000000</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>10000000000</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>20000000000</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>50000000000</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>100000000000</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>200000000000</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>500000000000</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>3万金币</t>
@@ -1290,103 +1231,103 @@
   </si>
   <si>
     <t>ty_icon_flq3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>ty_icon_flq3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>ty_icon_flq3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>ty_icon_flq2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>ty_icon_jb_6y</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>ty_icon_jb_15y</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>condi_key|推荐的条件key可以为空</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>cpl_notcjj</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>cpl_notcjj</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>cpl_notcjj</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>cpl_cjj</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>"100万鱼币","太阳*15","狂暴卡*20"</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>"ty_icon_yxb_2","zpg_icon_yg","com_award_icon_cz2"</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>"8万金币","水滴*1","玩具锤*1",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>"18万金币","水滴*1","玩具锤*1",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>"28万金币","水滴*1","玩具锤*1",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>"38万金币","水滴*1","玩具锤*1",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>"48万金币","水滴*1","玩具锤*1",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>"88万金币","水滴*1","玩具锤*1",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>"128万金币","水滴*1","玩具锤*1",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>"188万金币","水滴*1","玩具锤*1",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>"288万金币","水滴*1","玩具锤*1",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>"388万金币","水滴*1","玩具锤*1",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>"488万金币","水滴*1","玩具锤*1",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>"588万金币","水滴*1","玩具锤*1",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>"ty_icon_jb_6y","zpg_icon_shui","com_award_icon_cz1",</t>
@@ -1411,180 +1352,611 @@
   </si>
   <si>
     <t>vip</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>每日最多可参加排名挑战赛30次</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>cpl_notcjj</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>每日可免费领取至尊礼包1个</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>每领满30次至尊礼包额外奖励1000万鱼币</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>享受vip10所有特权并提高部分特权奖励</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>每日可免费领取至尊礼包1个</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>每领满30次至尊礼包额外奖励200元话费</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>享受vip11所有特权并提高部分特权奖励</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>每日最多可参加排名挑战赛20次</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>每日最多可参加排名挑战赛15次</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>line</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>"VIP11礼包","(购买条件:&lt;color=#EDD112&gt;VIP等级≥11&lt;/color&gt;)",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>"VIP12礼包","(购买条件:&lt;color=#EDD112&gt;VIP等级≥12&lt;/color&gt;)",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>"ty_icon_jb_998y","zpg_icon_shui","com_award_icon_cz1",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>"ty_icon_jb_2498y","zpg_icon_shui","com_award_icon_cz1",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>"9888万","40","40",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>"8888万","30","30",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>cfz|财富值</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>vip&lt;color=#e41a1a&gt;6&lt;/color&gt;-vip&lt;color=#e41a1a&gt;7&lt;/color&gt;福利</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>cpl_notcjj</t>
   </si>
   <si>
     <t>"小游戏币","可以再小游戏苹果大战中使用","在冲金鸡中使用",</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>"10万","太阳*2","木锤*1"</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>"30万","太阳*6","木锤*2"</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>"66万","太阳*10","木锤*3"</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>"100万","太阳*15","木锤*5"</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>"","可以再小游戏苹果大战中使用","在3D捕鱼中提高子弹威力",</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>荣耀平板</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>可使用Vip超级转盘，每日可抽&lt;color=#DA2020&gt;1次&lt;/color&gt;</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>可使用Vip超级转盘，每日可抽&lt;color=#DA2020&gt;3次&lt;/color&gt;</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>可使用Vip超级转盘，每日可抽&lt;color=#DA2020&gt;5次&lt;/color&gt;</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>可使用Vip超级转盘，每日可抽&lt;color=#DA2020&gt;10次&lt;/color&gt;</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>可使用Vip超级转盘，每日可抽&lt;color=#DA2020&gt;30次&lt;/color&gt;</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>cpl_notcjj_notcps</t>
   </si>
   <si>
     <t>福利券容量提升为&lt;color=#DA2020&gt;500万福利券&lt;/color&gt;</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>福利券容量提升为&lt;color=#DA2020&gt;800万&lt;/color&gt;福利券</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>可使用Vip超级转盘，每日可抽&lt;color=#DA2020&gt;70次&lt;/color&gt;</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>福利券容量提升为&lt;color=#DA2020&gt;1200万&lt;/color&gt;福利券</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>可使用Vip超级转盘，每日可抽&lt;color=#DA2020&gt;70次&lt;/color&gt;</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>cpl_notcjj</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpl_cjj</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpl_cjj</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpl_cjj</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpl_cjj</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpl_cjj</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpl_cjj</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpl_cjj</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpl_cjj</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpl_cjj</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>cjj_vip_desc</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>福利券容量提升为&lt;color=#DA2020&gt;5000福利券&lt;/color&gt;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久获得&lt;color=#DA2020&gt;自动开炮&lt;/color&gt;特权</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁&lt;color=#DA2020&gt;1元&lt;/color&gt;支付宝奖励金特权</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁存钱罐特权</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁更多小游戏玩法</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁&lt;color=#DA2020&gt;兑换商城&lt;/color&gt;实物商品特权</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>福利券容量提升为&lt;color=#DA2020&gt;5000福利券&lt;/color&gt;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启VIP超级转盘，解锁海量福利券、手机奖励</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁&lt;color=#DA2020&gt;3元&lt;/color&gt;支付宝奖励金特权</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁&lt;color=#DA2020&gt;10元京东E卡&lt;/color&gt;兑换特权</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁VIP每周福利，每周&lt;color=#DA2020&gt;免费领礼包&lt;/color&gt;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁全部游戏玩法</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>福利券容量提升为&lt;color=#DA2020&gt;4万福利券&lt;/color&gt;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>福利券容量提升为&lt;color=#DA2020&gt;4万福利券&lt;/color&gt;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>享受VIP1所有特权并提高部分特权奖励</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁&lt;color=#DA2020&gt;闪耀风暴&lt;/color&gt;炮台，有几率捕获激光范围内的任意鱼类</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁&lt;color=#DA2020&gt;5元&lt;/color&gt;支付宝奖励金特权</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁&lt;color=#DA2020&gt;20元京东E卡，50元话费&lt;/color&gt;兑换特权</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>福利券容量提升为&lt;color=#DA2020&gt;10万福利券&lt;/color&gt;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>享受VIP2所有特权并提高部分特权奖励</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>福利券容量提升为&lt;color=#DA2020&gt;10万福利券&lt;/color&gt;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁&lt;color=#DA2020&gt;10元&lt;/color&gt;支付宝奖励金特权</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁&lt;color=#DA2020&gt;100元京东E卡，100元话费&lt;/color&gt;兑换特权</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>福利券容量提升为&lt;color=#DA2020&gt;15万&lt;/color&gt;福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>享受VIP3所有特权并提高部分特权奖励</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>可获得&lt;color=#DA2020&gt;金币使者&lt;/color&gt;炮台，可捕获同移动线上的任意鱼类</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁&lt;color=#DA2020&gt;200元京东E卡，300元京东E卡&lt;/color&gt;兑换特权</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>cpl_notcjj</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>解锁福利券大转盘-VIP超级转盘，有机会获取海量福利券</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>福利券容量提升为&lt;color=#DA2020&gt;30万福利券&lt;/color&gt;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>福利券容量提升为&lt;color=#DA2020&gt;30万福利券&lt;/color&gt;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>享受VIP4所有特权并提高部分特权奖励</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>福利券容量提升为&lt;color=#DA2020&gt;50万福利券&lt;/color&gt;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>福利券容量提升为&lt;color=#DA2020&gt;50万福利券&lt;/color&gt;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>享受VIP5所有特权并提高部分特权奖励</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>福利券容量提升为&lt;color=#DA2020&gt;100万福利券&lt;/color&gt;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>福利券容量提升为&lt;color=#DA2020&gt;100万福利券&lt;/color&gt;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>福利券容量提升为&lt;color=#DA2020&gt;200万福利券&lt;/color&gt;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>福利券容量提升为&lt;color=#DA2020&gt;200万福利券&lt;/color&gt;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>享受VIP6所有特权并提高部分特权奖励</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>福利券容量提升为&lt;color=#DA2020&gt;300万福利券&lt;/color&gt;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>福利券容量提升为&lt;color=#DA2020&gt;300万福利券&lt;/color&gt;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>享受VIP7所有特权并提高部分特权奖励</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>福利券容量提升为&lt;color=#DA2020&gt;500万福利券&lt;/color&gt;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>享受VIP8所有特权并提高部分特权奖励</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>享受VIP9所有特权并提高部分特权奖励</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>身上拥有50万金币</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>index|行号</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>vip_level|VIP等级</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_img|图标图片</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>name_txt|描述</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc|备注</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>"10元支付宝红包","100元京东E卡","100元话费","福利券容量提升"</t>
+  </si>
+  <si>
+    <t>"炮台","200元京东E卡","300元京东E卡","福利券容量提升"</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>"福利券转盘","兑换特权","兑换特权","容量提升"</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>"兑换特权","兑换特权","兑换特权","容量提升"</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>"金币使者","兑换特权","兑换特权","容量提升"</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>"炮台基座","自动开炮","1元支付宝红包","存钱罐","福利券容量提升"</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>"绿芒","自动开炮","兑换特权","存钱罐","容量提升"</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>"容量提升",</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>"容量提升",</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"福利券容量提升"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"福利券容量提升"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_rlts",</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_dz_02","ty_icon_zdkp","ty_icon_zfbhb1","ty_icon_cqg","ty_icon_rlts"</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_flqzp","ty_icon_zfbhb3","ty_icon_jdek10","ty_icon_rlts"</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_rlts",</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_pt_03","ty_icon_jdek200","ty_icon_jdek300","ty_icon_rlts"</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>"福利券转盘","3元支付宝红包","10元京东E卡","福利券容量提升"</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"炮台","5元支付宝红包","20元京东E卡","50元话费","福利券容量提升"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>炮台基座</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_zfbhb10","ty_icon_jdek100","ty_icon_hf100","ty_icon_rlts"</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_pt_02","ty_icon_zfbhb5","ty_icon_jdek20","ty_icon_hf50","ty_icon_rlts","ty_icon_dz_03"</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>"闪耀风暴","兑换特权","兑换特权","兑换特权","容量提升","寒霜"</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_042_xshb","panel"</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sys_cqg","panel"</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sys_flqcj","panel"</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_042_xshb","panel"</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>gotoShop</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>"容量提升",</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>"至尊礼包","容量提升",</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>"至尊礼包","容量提升",</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_rlts",</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_zzlb","ty_icon_rlts",</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_zzlb","ty_icon_rlts",</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>"至尊礼包","福利券容量提升",</t>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1658,8 +2030,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1682,6 +2060,12 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -1720,101 +2104,111 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="40% - 着色 1" xfId="3" builtinId="31"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="常规 4" xfId="2"/>
@@ -2090,10 +2484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H57"/>
+  <dimension ref="A1:I80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView topLeftCell="C16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I24" activeCellId="1" sqref="H41 I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2103,10 +2497,11 @@
     <col min="5" max="5" width="90.25" style="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="8" max="8" width="17.375" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>62</v>
       </c>
@@ -2117,22 +2512,25 @@
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>376</v>
+        <v>356</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="30" t="s">
+        <v>464</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2142,13 +2540,17 @@
       <c r="C2" s="1">
         <v>10</v>
       </c>
+      <c r="D2" s="1" t="s">
+        <v>378</v>
+      </c>
       <c r="E2" s="15" t="s">
-        <v>236</v>
+        <v>388</v>
       </c>
       <c r="F2" s="15"/>
       <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2158,13 +2560,17 @@
       <c r="C3" s="1">
         <v>10</v>
       </c>
+      <c r="D3" s="1" t="s">
+        <v>378</v>
+      </c>
       <c r="E3" s="16" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F3" s="16"/>
       <c r="G3" s="13"/>
-    </row>
-    <row r="4" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H3" s="13"/>
+    </row>
+    <row r="4" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2174,13 +2580,17 @@
       <c r="C4" s="1">
         <v>10</v>
       </c>
+      <c r="D4" s="5" t="s">
+        <v>379</v>
+      </c>
       <c r="E4" s="16" t="s">
         <v>225</v>
       </c>
       <c r="F4" s="16"/>
       <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:8" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:9" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2191,919 +2601,1494 @@
         <v>10</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>247</v>
+        <v>389</v>
       </c>
       <c r="F5" s="26"/>
       <c r="G5" s="27"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H5" s="27"/>
+    </row>
+    <row r="6" spans="1:9" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1">
-        <v>200</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>386</v>
-      </c>
-      <c r="F6" s="15"/>
-      <c r="G6" s="5"/>
-    </row>
-    <row r="7" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="25">
+        <v>1</v>
+      </c>
+      <c r="C6" s="25">
+        <v>10</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>240</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>390</v>
+      </c>
+      <c r="F6" s="26"/>
+      <c r="G6" s="27" t="s">
+        <v>460</v>
+      </c>
+      <c r="H6" s="27"/>
+    </row>
+    <row r="7" spans="1:9" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" s="25">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>398</v>
-      </c>
-      <c r="E7" s="28" t="s">
-        <v>399</v>
-      </c>
-      <c r="F7" s="28"/>
+        <v>240</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>393</v>
+      </c>
+      <c r="F7" s="26"/>
       <c r="G7" s="27"/>
-    </row>
-    <row r="8" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H7" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
-        <v>2</v>
-      </c>
-      <c r="C8" s="1">
-        <v>200</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>239</v>
-      </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="14"/>
-    </row>
-    <row r="9" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="25">
+        <v>1</v>
+      </c>
+      <c r="C8" s="25">
+        <v>10</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>240</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>391</v>
+      </c>
+      <c r="F8" s="26"/>
+      <c r="G8" s="27" t="s">
+        <v>461</v>
+      </c>
+      <c r="H8" s="27"/>
+    </row>
+    <row r="9" spans="1:9" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
-        <v>2</v>
-      </c>
-      <c r="C9" s="1">
-        <v>200</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>226</v>
-      </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="5"/>
-    </row>
-    <row r="10" spans="1:8" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="25">
+        <v>1</v>
+      </c>
+      <c r="C9" s="25">
+        <v>10</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>240</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="F9" s="26"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+    </row>
+    <row r="10" spans="1:9" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" s="25">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>397</v>
+        <v>240</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>248</v>
+        <v>394</v>
       </c>
       <c r="F10" s="26"/>
       <c r="G10" s="27"/>
-    </row>
-    <row r="11" spans="1:8" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H10" s="27"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="19">
-        <v>3</v>
-      </c>
-      <c r="C11" s="19">
-        <v>500</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>261</v>
+      <c r="B11" s="1">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1">
+        <v>200</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>387</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>262</v>
+        <v>366</v>
       </c>
       <c r="F11" s="15"/>
-      <c r="G11" s="21"/>
-    </row>
-    <row r="12" spans="1:8" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="19">
-        <v>3</v>
-      </c>
-      <c r="C12" s="19">
-        <v>500</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>278</v>
+      <c r="B12" s="1">
+        <v>2</v>
+      </c>
+      <c r="C12" s="1">
+        <v>200</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>378</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="F12" s="15"/>
-      <c r="G12" s="21"/>
-    </row>
-    <row r="13" spans="1:8" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+    </row>
+    <row r="13" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="19">
-        <v>3</v>
-      </c>
-      <c r="C13" s="19">
-        <v>500</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>240</v>
-      </c>
-      <c r="F13" s="15"/>
-    </row>
-    <row r="14" spans="1:8" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="1">
+        <v>2</v>
+      </c>
+      <c r="C13" s="1">
+        <v>200</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="F13" s="16"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:9" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="19">
-        <v>3</v>
-      </c>
-      <c r="C14" s="19">
-        <v>500</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>227</v>
-      </c>
-      <c r="F14" s="16"/>
-    </row>
-    <row r="15" spans="1:8" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="25">
+        <v>2</v>
+      </c>
+      <c r="C14" s="25">
+        <v>200</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>395</v>
+      </c>
+      <c r="F14" s="26"/>
+      <c r="G14" s="27" t="s">
+        <v>462</v>
+      </c>
+      <c r="H14" s="27"/>
+    </row>
+    <row r="15" spans="1:9" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C15" s="25">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>249</v>
+        <v>396</v>
       </c>
       <c r="F15" s="26"/>
-      <c r="G15" s="27"/>
-    </row>
-    <row r="16" spans="1:8" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G15" s="27" t="s">
+        <v>463</v>
+      </c>
+      <c r="H15" s="27"/>
+    </row>
+    <row r="16" spans="1:9" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="19">
-        <v>4</v>
-      </c>
-      <c r="C16" s="19">
-        <v>1000</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>278</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>388</v>
-      </c>
-      <c r="F16" s="15"/>
-      <c r="G16" s="21"/>
-    </row>
-    <row r="17" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="25">
+        <v>2</v>
+      </c>
+      <c r="C16" s="25">
+        <v>200</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>240</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>397</v>
+      </c>
+      <c r="F16" s="26"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="19">
-        <v>4</v>
-      </c>
-      <c r="C17" s="19">
-        <v>1000</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="F17" s="15"/>
-    </row>
-    <row r="18" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="25">
+        <v>2</v>
+      </c>
+      <c r="C17" s="25">
+        <v>200</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>240</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>398</v>
+      </c>
+      <c r="F17" s="26"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+    </row>
+    <row r="18" spans="1:8" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="19">
-        <v>4</v>
-      </c>
-      <c r="C18" s="19">
-        <v>1000</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>228</v>
-      </c>
-      <c r="F18" s="16"/>
-    </row>
-    <row r="19" spans="1:7" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="25">
+        <v>2</v>
+      </c>
+      <c r="C18" s="25">
+        <v>200</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>240</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>399</v>
+      </c>
+      <c r="F18" s="26"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+    </row>
+    <row r="19" spans="1:8" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="25">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C19" s="25">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="E19" s="26" t="s">
-        <v>250</v>
+        <v>401</v>
       </c>
       <c r="F19" s="26"/>
       <c r="G19" s="27"/>
-    </row>
-    <row r="20" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H19" s="27"/>
+    </row>
+    <row r="20" spans="1:8" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="19">
-        <v>5</v>
-      </c>
-      <c r="C20" s="19">
-        <v>2000</v>
-      </c>
-      <c r="D20" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>263</v>
-      </c>
-      <c r="F20" s="15"/>
-      <c r="G20" s="21"/>
-    </row>
-    <row r="21" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="25">
+        <v>2</v>
+      </c>
+      <c r="C20" s="25">
+        <v>200</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>240</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>402</v>
+      </c>
+      <c r="F20" s="26"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+    </row>
+    <row r="21" spans="1:8" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="19">
-        <v>5</v>
-      </c>
-      <c r="C21" s="19">
-        <v>2000</v>
-      </c>
-      <c r="D21" s="21" t="s">
-        <v>281</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>389</v>
-      </c>
-      <c r="F21" s="15"/>
-      <c r="G21" s="21"/>
-    </row>
-    <row r="22" spans="1:7" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="25">
+        <v>3</v>
+      </c>
+      <c r="C21" s="25">
+        <v>500</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>244</v>
+      </c>
+      <c r="E21" s="28" t="s">
+        <v>403</v>
+      </c>
+      <c r="F21" s="28"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+    </row>
+    <row r="22" spans="1:8" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C22" s="19">
-        <v>2000</v>
+        <v>500</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>259</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>242</v>
+        <v>367</v>
       </c>
       <c r="F22" s="15"/>
-      <c r="G22" s="22"/>
-    </row>
-    <row r="23" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+    </row>
+    <row r="23" spans="1:8" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C23" s="19">
-        <v>2000</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>229</v>
-      </c>
-      <c r="F23" s="16"/>
-      <c r="G23" s="21"/>
-    </row>
-    <row r="24" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+        <v>500</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>381</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>406</v>
+      </c>
+      <c r="F23" s="15"/>
+    </row>
+    <row r="24" spans="1:8" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C24" s="19">
-        <v>2000</v>
+        <v>500</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>379</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F24" s="16"/>
-      <c r="G24" s="21"/>
-    </row>
-    <row r="25" spans="1:7" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:8" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="25">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C25" s="25">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="D25" s="27" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>259</v>
+        <v>404</v>
       </c>
       <c r="F25" s="26"/>
-      <c r="G25" s="27"/>
-    </row>
-    <row r="26" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G25" s="27" t="s">
+        <v>460</v>
+      </c>
+      <c r="H25" s="27"/>
+    </row>
+    <row r="26" spans="1:8" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="19">
-        <v>6</v>
-      </c>
-      <c r="C26" s="19">
-        <v>5000</v>
-      </c>
-      <c r="D26" s="21" t="s">
-        <v>278</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>390</v>
-      </c>
-      <c r="F26" s="15"/>
-      <c r="G26" s="21"/>
-    </row>
-    <row r="27" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="25">
+        <v>3</v>
+      </c>
+      <c r="C26" s="25">
+        <v>500</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>240</v>
+      </c>
+      <c r="E26" s="26" t="s">
+        <v>405</v>
+      </c>
+      <c r="F26" s="26"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="19">
-        <v>6</v>
-      </c>
-      <c r="C27" s="19">
-        <v>5000</v>
-      </c>
-      <c r="E27" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="F27" s="15"/>
-    </row>
-    <row r="28" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="25">
+        <v>3</v>
+      </c>
+      <c r="C27" s="25">
+        <v>500</v>
+      </c>
+      <c r="D27" s="27" t="s">
+        <v>240</v>
+      </c>
+      <c r="E27" s="26" t="s">
+        <v>408</v>
+      </c>
+      <c r="F27" s="26"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+    </row>
+    <row r="28" spans="1:8" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="19">
-        <v>6</v>
-      </c>
-      <c r="C28" s="19">
-        <v>5000</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>231</v>
-      </c>
-      <c r="F28" s="16"/>
-      <c r="G28" s="21"/>
-    </row>
-    <row r="29" spans="1:7" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="25">
+        <v>3</v>
+      </c>
+      <c r="C28" s="25">
+        <v>500</v>
+      </c>
+      <c r="D28" s="27" t="s">
+        <v>240</v>
+      </c>
+      <c r="E28" s="26" t="s">
+        <v>407</v>
+      </c>
+      <c r="F28" s="26"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+    </row>
+    <row r="29" spans="1:8" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="25">
-        <v>6</v>
-      </c>
-      <c r="C29" s="25">
-        <v>5000</v>
-      </c>
-      <c r="D29" s="27" t="s">
-        <v>257</v>
-      </c>
-      <c r="E29" s="26" t="s">
-        <v>251</v>
-      </c>
-      <c r="F29" s="26"/>
-      <c r="G29" s="27"/>
-    </row>
-    <row r="30" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="19">
+        <v>4</v>
+      </c>
+      <c r="C29" s="19">
+        <v>1000</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="F29" s="15"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+    </row>
+    <row r="30" spans="1:8" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="19">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C30" s="19">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>280</v>
+        <v>381</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F30" s="15"/>
-      <c r="G30" s="21"/>
-    </row>
-    <row r="31" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:8" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="19">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C31" s="19">
-        <v>10000</v>
-      </c>
-      <c r="E31" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="F31" s="15"/>
-      <c r="G31" s="22"/>
-    </row>
-    <row r="32" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+        <v>1000</v>
+      </c>
+      <c r="D31" s="21" t="s">
+        <v>380</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="F31" s="16"/>
+    </row>
+    <row r="32" spans="1:8" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" s="19">
-        <v>7</v>
-      </c>
-      <c r="C32" s="19">
-        <v>10000</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>232</v>
-      </c>
-      <c r="F32" s="16"/>
-      <c r="G32" s="21"/>
-    </row>
-    <row r="33" spans="1:7" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="25">
+        <v>4</v>
+      </c>
+      <c r="C32" s="25">
+        <v>1000</v>
+      </c>
+      <c r="D32" s="27" t="s">
+        <v>240</v>
+      </c>
+      <c r="E32" s="26" t="s">
+        <v>409</v>
+      </c>
+      <c r="F32" s="26"/>
+      <c r="G32" s="27" t="s">
+        <v>460</v>
+      </c>
+      <c r="H32" s="27"/>
+    </row>
+    <row r="33" spans="1:8" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="25">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C33" s="25">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="D33" s="27" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="E33" s="26" t="s">
-        <v>252</v>
+        <v>410</v>
       </c>
       <c r="F33" s="26"/>
       <c r="G33" s="27"/>
-    </row>
-    <row r="34" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H33" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34" s="19">
-        <v>8</v>
-      </c>
-      <c r="C34" s="19">
-        <v>20000</v>
-      </c>
-      <c r="D34" s="21" t="s">
-        <v>279</v>
-      </c>
-      <c r="E34" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="F34" s="15"/>
-      <c r="G34" s="21"/>
-    </row>
-    <row r="35" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="25">
+        <v>4</v>
+      </c>
+      <c r="C34" s="25">
+        <v>1000</v>
+      </c>
+      <c r="D34" s="27" t="s">
+        <v>240</v>
+      </c>
+      <c r="E34" s="26" t="s">
+        <v>411</v>
+      </c>
+      <c r="F34" s="26"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+    </row>
+    <row r="35" spans="1:8" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35" s="19">
-        <v>8</v>
-      </c>
-      <c r="C35" s="19">
-        <v>20000</v>
-      </c>
-      <c r="E35" s="15" t="s">
-        <v>245</v>
-      </c>
-      <c r="F35" s="15"/>
-      <c r="G35" s="22"/>
-    </row>
-    <row r="36" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="25">
+        <v>4</v>
+      </c>
+      <c r="C35" s="25">
+        <v>1000</v>
+      </c>
+      <c r="D35" s="27" t="s">
+        <v>240</v>
+      </c>
+      <c r="E35" s="26" t="s">
+        <v>412</v>
+      </c>
+      <c r="F35" s="26"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+    </row>
+    <row r="36" spans="1:8" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36" s="19">
-        <v>8</v>
-      </c>
-      <c r="C36" s="19">
-        <v>20000</v>
-      </c>
-      <c r="E36" s="16" t="s">
-        <v>233</v>
-      </c>
-      <c r="F36" s="16"/>
-      <c r="G36" s="21"/>
-    </row>
-    <row r="37" spans="1:7" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="25">
+        <v>5</v>
+      </c>
+      <c r="C36" s="25">
+        <v>2000</v>
+      </c>
+      <c r="D36" s="27" t="s">
+        <v>244</v>
+      </c>
+      <c r="E36" s="28" t="s">
+        <v>413</v>
+      </c>
+      <c r="F36" s="28"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+    </row>
+    <row r="37" spans="1:8" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
-      <c r="B37" s="25">
-        <v>8</v>
-      </c>
-      <c r="C37" s="25">
-        <v>20000</v>
-      </c>
-      <c r="D37" s="27" t="s">
-        <v>256</v>
-      </c>
-      <c r="E37" s="26" t="s">
-        <v>253</v>
-      </c>
-      <c r="F37" s="26"/>
-      <c r="G37" s="27"/>
-    </row>
-    <row r="38" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="19">
+        <v>5</v>
+      </c>
+      <c r="C37" s="19">
+        <v>2000</v>
+      </c>
+      <c r="D37" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>369</v>
+      </c>
+      <c r="F37" s="15"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+    </row>
+    <row r="38" spans="1:8" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" s="19">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C38" s="19">
-        <v>30000</v>
+        <v>2000</v>
       </c>
       <c r="D38" s="21" t="s">
-        <v>278</v>
-      </c>
-      <c r="E38" s="23" t="s">
-        <v>237</v>
-      </c>
-      <c r="F38" s="23"/>
-      <c r="G38" s="21"/>
-    </row>
-    <row r="39" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+        <v>382</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="F38" s="15"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
+    </row>
+    <row r="39" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" s="19">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C39" s="19">
-        <v>30000</v>
-      </c>
-      <c r="E39" s="23" t="s">
-        <v>246</v>
-      </c>
-      <c r="F39" s="23"/>
-      <c r="G39" s="22"/>
-    </row>
-    <row r="40" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+        <v>2000</v>
+      </c>
+      <c r="D39" s="21" t="s">
+        <v>383</v>
+      </c>
+      <c r="E39" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="F39" s="16"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+    </row>
+    <row r="40" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" s="19">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C40" s="19">
-        <v>30000</v>
-      </c>
-      <c r="E40" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="F40" s="20"/>
+        <v>2000</v>
+      </c>
+      <c r="D40" s="21" t="s">
+        <v>378</v>
+      </c>
+      <c r="E40" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="F40" s="16"/>
       <c r="G40" s="21"/>
-    </row>
-    <row r="41" spans="1:7" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H40" s="21"/>
+    </row>
+    <row r="41" spans="1:8" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" s="25">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C41" s="25">
-        <v>30000</v>
+        <v>2000</v>
       </c>
       <c r="D41" s="27" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="E41" s="26" t="s">
-        <v>254</v>
+        <v>414</v>
       </c>
       <c r="F41" s="26"/>
       <c r="G41" s="27"/>
-    </row>
-    <row r="42" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H41" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
-      <c r="B42" s="19">
-        <v>10</v>
-      </c>
-      <c r="C42" s="19">
-        <v>50000</v>
-      </c>
-      <c r="D42" s="21" t="s">
-        <v>278</v>
-      </c>
-      <c r="E42" s="23" t="s">
-        <v>237</v>
-      </c>
-      <c r="F42" s="23"/>
-      <c r="G42" s="21"/>
-    </row>
-    <row r="43" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="25">
+        <v>5</v>
+      </c>
+      <c r="C42" s="25">
+        <v>2000</v>
+      </c>
+      <c r="D42" s="27" t="s">
+        <v>415</v>
+      </c>
+      <c r="E42" s="26" t="s">
+        <v>417</v>
+      </c>
+      <c r="F42" s="26"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27"/>
+    </row>
+    <row r="43" spans="1:8" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
-      <c r="B43" s="19">
-        <v>10</v>
-      </c>
-      <c r="C43" s="19">
-        <v>50000</v>
-      </c>
-      <c r="E43" s="23" t="s">
-        <v>392</v>
-      </c>
-      <c r="F43" s="23"/>
-      <c r="G43" s="22"/>
-    </row>
-    <row r="44" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="25">
+        <v>5</v>
+      </c>
+      <c r="C43" s="25">
+        <v>2000</v>
+      </c>
+      <c r="D43" s="27" t="s">
+        <v>415</v>
+      </c>
+      <c r="E43" s="26" t="s">
+        <v>418</v>
+      </c>
+      <c r="F43" s="26"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="27"/>
+    </row>
+    <row r="44" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
       <c r="B44" s="19">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C44" s="19">
-        <v>50000</v>
-      </c>
-      <c r="E44" s="20" t="s">
-        <v>235</v>
-      </c>
-      <c r="F44" s="20"/>
+        <v>5000</v>
+      </c>
+      <c r="D44" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="E44" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="F44" s="15"/>
       <c r="G44" s="21"/>
-    </row>
-    <row r="45" spans="1:7" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H44" s="21"/>
+    </row>
+    <row r="45" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
-      <c r="B45" s="25">
-        <v>10</v>
-      </c>
-      <c r="C45" s="25">
-        <v>50000</v>
-      </c>
-      <c r="D45" s="27" t="s">
-        <v>360</v>
-      </c>
-      <c r="E45" s="26" t="s">
-        <v>368</v>
-      </c>
-      <c r="F45" s="26"/>
-      <c r="G45" s="27"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B45" s="19">
+        <v>6</v>
+      </c>
+      <c r="C45" s="19">
+        <v>5000</v>
+      </c>
+      <c r="D45" s="21" t="s">
+        <v>384</v>
+      </c>
+      <c r="E45" s="15" t="s">
+        <v>419</v>
+      </c>
+      <c r="F45" s="15"/>
+    </row>
+    <row r="46" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
-      <c r="B46" s="1">
-        <v>11</v>
-      </c>
-      <c r="D46" s="27" t="s">
-        <v>360</v>
-      </c>
-      <c r="E46" s="12" t="s">
-        <v>361</v>
-      </c>
-      <c r="F46" s="1">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B46" s="19">
+        <v>6</v>
+      </c>
+      <c r="C46" s="19">
+        <v>5000</v>
+      </c>
+      <c r="D46" s="21" t="s">
+        <v>378</v>
+      </c>
+      <c r="E46" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="F46" s="16"/>
+      <c r="G46" s="21"/>
+      <c r="H46" s="21"/>
+    </row>
+    <row r="47" spans="1:8" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>46</v>
       </c>
-      <c r="B47" s="1">
-        <v>11</v>
+      <c r="B47" s="25">
+        <v>6</v>
+      </c>
+      <c r="C47" s="25">
+        <v>5000</v>
       </c>
       <c r="D47" s="27" t="s">
-        <v>360</v>
-      </c>
-      <c r="E47" s="12" t="s">
-        <v>362</v>
-      </c>
-      <c r="F47" s="1">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+      <c r="E47" s="26" t="s">
+        <v>420</v>
+      </c>
+      <c r="F47" s="26"/>
+      <c r="G47" s="27"/>
+      <c r="H47" s="27"/>
+    </row>
+    <row r="48" spans="1:8" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>47</v>
       </c>
-      <c r="B48" s="1">
-        <v>11</v>
+      <c r="B48" s="25">
+        <v>6</v>
+      </c>
+      <c r="C48" s="25">
+        <v>5000</v>
       </c>
       <c r="D48" s="27" t="s">
-        <v>391</v>
-      </c>
-      <c r="E48" s="12" t="s">
-        <v>396</v>
-      </c>
-      <c r="F48" s="1">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+      <c r="E48" s="26" t="s">
+        <v>421</v>
+      </c>
+      <c r="F48" s="26"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="27"/>
+    </row>
+    <row r="49" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>48</v>
       </c>
-      <c r="B49" s="1">
-        <v>11</v>
-      </c>
-      <c r="D49" s="27" t="s">
-        <v>360</v>
-      </c>
-      <c r="E49" s="12" t="s">
-        <v>393</v>
-      </c>
-      <c r="F49" s="1">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B49" s="19">
+        <v>7</v>
+      </c>
+      <c r="C49" s="19">
+        <v>10000</v>
+      </c>
+      <c r="D49" s="21" t="s">
+        <v>261</v>
+      </c>
+      <c r="E49" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="F49" s="15"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="21"/>
+    </row>
+    <row r="50" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>49</v>
       </c>
-      <c r="B50" s="1">
-        <v>11</v>
-      </c>
-      <c r="D50" s="27" t="s">
-        <v>360</v>
-      </c>
-      <c r="E50" s="12" t="s">
-        <v>367</v>
-      </c>
-      <c r="F50" s="1">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B50" s="19">
+        <v>7</v>
+      </c>
+      <c r="C50" s="19">
+        <v>10000</v>
+      </c>
+      <c r="D50" s="21" t="s">
+        <v>381</v>
+      </c>
+      <c r="E50" s="15" t="s">
+        <v>422</v>
+      </c>
+      <c r="F50" s="15"/>
+      <c r="G50" s="22"/>
+      <c r="H50" s="22"/>
+    </row>
+    <row r="51" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>50</v>
       </c>
-      <c r="B51" s="1">
-        <v>11</v>
-      </c>
-      <c r="D51" s="27" t="s">
-        <v>360</v>
-      </c>
-      <c r="E51" s="12" t="s">
-        <v>363</v>
-      </c>
-      <c r="F51" s="1">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B51" s="19">
+        <v>7</v>
+      </c>
+      <c r="C51" s="19">
+        <v>10000</v>
+      </c>
+      <c r="D51" s="21" t="s">
+        <v>381</v>
+      </c>
+      <c r="E51" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="F51" s="16"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="21"/>
+    </row>
+    <row r="52" spans="1:8" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>51</v>
       </c>
-      <c r="B52" s="1">
-        <v>12</v>
+      <c r="B52" s="25">
+        <v>7</v>
+      </c>
+      <c r="C52" s="25">
+        <v>10000</v>
       </c>
       <c r="D52" s="27" t="s">
-        <v>360</v>
-      </c>
-      <c r="E52" s="12" t="s">
-        <v>364</v>
-      </c>
-      <c r="F52" s="1">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+        <v>242</v>
+      </c>
+      <c r="E52" s="26" t="s">
+        <v>423</v>
+      </c>
+      <c r="F52" s="26"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="27"/>
+    </row>
+    <row r="53" spans="1:8" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>52</v>
       </c>
-      <c r="B53" s="1">
-        <v>12</v>
+      <c r="B53" s="25">
+        <v>7</v>
+      </c>
+      <c r="C53" s="25">
+        <v>10000</v>
       </c>
       <c r="D53" s="27" t="s">
-        <v>360</v>
-      </c>
-      <c r="E53" s="12" t="s">
-        <v>365</v>
-      </c>
-      <c r="F53" s="1">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+      <c r="E53" s="26" t="s">
+        <v>426</v>
+      </c>
+      <c r="F53" s="26"/>
+      <c r="G53" s="27"/>
+      <c r="H53" s="27"/>
+    </row>
+    <row r="54" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>53</v>
       </c>
-      <c r="B54" s="1">
-        <v>12</v>
-      </c>
-      <c r="D54" s="27" t="s">
-        <v>391</v>
-      </c>
-      <c r="E54" s="12" t="s">
-        <v>394</v>
-      </c>
-      <c r="F54" s="1">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B54" s="19">
+        <v>8</v>
+      </c>
+      <c r="C54" s="19">
+        <v>20000</v>
+      </c>
+      <c r="D54" s="21" t="s">
+        <v>260</v>
+      </c>
+      <c r="E54" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="F54" s="15"/>
+      <c r="G54" s="21"/>
+      <c r="H54" s="21"/>
+    </row>
+    <row r="55" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>54</v>
       </c>
-      <c r="B55" s="1">
-        <v>12</v>
-      </c>
-      <c r="D55" s="27" t="s">
-        <v>360</v>
-      </c>
-      <c r="E55" s="12" t="s">
-        <v>395</v>
-      </c>
-      <c r="F55" s="1">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B55" s="19">
+        <v>8</v>
+      </c>
+      <c r="C55" s="19">
+        <v>20000</v>
+      </c>
+      <c r="D55" s="21" t="s">
+        <v>380</v>
+      </c>
+      <c r="E55" s="15" t="s">
+        <v>424</v>
+      </c>
+      <c r="F55" s="15"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="22"/>
+    </row>
+    <row r="56" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>55</v>
       </c>
-      <c r="B56" s="1">
-        <v>12</v>
-      </c>
-      <c r="D56" s="27" t="s">
-        <v>360</v>
-      </c>
-      <c r="E56" s="12" t="s">
-        <v>359</v>
-      </c>
-      <c r="F56" s="1">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B56" s="19">
+        <v>8</v>
+      </c>
+      <c r="C56" s="19">
+        <v>20000</v>
+      </c>
+      <c r="D56" s="21" t="s">
+        <v>378</v>
+      </c>
+      <c r="E56" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="F56" s="16"/>
+      <c r="G56" s="21"/>
+      <c r="H56" s="21"/>
+    </row>
+    <row r="57" spans="1:8" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>56</v>
       </c>
-      <c r="B57" s="1">
+      <c r="B57" s="25">
+        <v>8</v>
+      </c>
+      <c r="C57" s="25">
+        <v>20000</v>
+      </c>
+      <c r="D57" s="27" t="s">
+        <v>240</v>
+      </c>
+      <c r="E57" s="26" t="s">
+        <v>425</v>
+      </c>
+      <c r="F57" s="26"/>
+      <c r="G57" s="27"/>
+      <c r="H57" s="27"/>
+    </row>
+    <row r="58" spans="1:8" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58" s="25">
+        <v>8</v>
+      </c>
+      <c r="C58" s="25">
+        <v>20000</v>
+      </c>
+      <c r="D58" s="27" t="s">
+        <v>240</v>
+      </c>
+      <c r="E58" s="26" t="s">
+        <v>429</v>
+      </c>
+      <c r="F58" s="26"/>
+      <c r="G58" s="27"/>
+      <c r="H58" s="27"/>
+    </row>
+    <row r="59" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" s="19">
+        <v>9</v>
+      </c>
+      <c r="C59" s="19">
+        <v>30000</v>
+      </c>
+      <c r="D59" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="E59" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="F59" s="23"/>
+      <c r="G59" s="21"/>
+      <c r="H59" s="21"/>
+    </row>
+    <row r="60" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60" s="19">
+        <v>9</v>
+      </c>
+      <c r="C60" s="19">
+        <v>30000</v>
+      </c>
+      <c r="D60" s="21" t="s">
+        <v>381</v>
+      </c>
+      <c r="E60" s="23" t="s">
+        <v>427</v>
+      </c>
+      <c r="F60" s="23"/>
+      <c r="G60" s="22"/>
+      <c r="H60" s="22"/>
+    </row>
+    <row r="61" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61" s="19">
+        <v>9</v>
+      </c>
+      <c r="C61" s="19">
+        <v>30000</v>
+      </c>
+      <c r="D61" s="21" t="s">
+        <v>385</v>
+      </c>
+      <c r="E61" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="F61" s="20"/>
+      <c r="G61" s="21"/>
+      <c r="H61" s="21"/>
+    </row>
+    <row r="62" spans="1:8" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62" s="25">
+        <v>9</v>
+      </c>
+      <c r="C62" s="25">
+        <v>30000</v>
+      </c>
+      <c r="D62" s="27" t="s">
+        <v>243</v>
+      </c>
+      <c r="E62" s="26" t="s">
+        <v>428</v>
+      </c>
+      <c r="F62" s="26"/>
+      <c r="G62" s="27"/>
+      <c r="H62" s="27"/>
+    </row>
+    <row r="63" spans="1:8" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63" s="25">
+        <v>9</v>
+      </c>
+      <c r="C63" s="25">
+        <v>30000</v>
+      </c>
+      <c r="D63" s="27" t="s">
+        <v>240</v>
+      </c>
+      <c r="E63" s="26" t="s">
+        <v>431</v>
+      </c>
+      <c r="F63" s="26"/>
+      <c r="G63" s="27"/>
+      <c r="H63" s="27"/>
+    </row>
+    <row r="64" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64" s="19">
+        <v>10</v>
+      </c>
+      <c r="C64" s="19">
+        <v>50000</v>
+      </c>
+      <c r="D64" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="E64" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="F64" s="23"/>
+      <c r="G64" s="21"/>
+      <c r="H64" s="21"/>
+    </row>
+    <row r="65" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65" s="19">
+        <v>10</v>
+      </c>
+      <c r="C65" s="19">
+        <v>50000</v>
+      </c>
+      <c r="D65" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="E65" s="23" t="s">
+        <v>430</v>
+      </c>
+      <c r="F65" s="23"/>
+      <c r="G65" s="22"/>
+      <c r="H65" s="22"/>
+    </row>
+    <row r="66" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66" s="19">
+        <v>10</v>
+      </c>
+      <c r="C66" s="19">
+        <v>50000</v>
+      </c>
+      <c r="D66" s="21" t="s">
+        <v>381</v>
+      </c>
+      <c r="E66" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="F66" s="20"/>
+      <c r="G66" s="21"/>
+      <c r="H66" s="21"/>
+    </row>
+    <row r="67" spans="1:8" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67" s="25">
+        <v>10</v>
+      </c>
+      <c r="C67" s="25">
+        <v>50000</v>
+      </c>
+      <c r="D67" s="27" t="s">
+        <v>341</v>
+      </c>
+      <c r="E67" s="26" t="s">
+        <v>372</v>
+      </c>
+      <c r="F67" s="26"/>
+      <c r="G67" s="27"/>
+      <c r="H67" s="27"/>
+    </row>
+    <row r="68" spans="1:8" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68" s="25">
+        <v>10</v>
+      </c>
+      <c r="C68" s="25">
+        <v>50000</v>
+      </c>
+      <c r="D68" s="27" t="s">
+        <v>240</v>
+      </c>
+      <c r="E68" s="26" t="s">
+        <v>432</v>
+      </c>
+      <c r="F68" s="26"/>
+      <c r="G68" s="27"/>
+      <c r="H68" s="27"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69" s="1">
+        <v>11</v>
+      </c>
+      <c r="D69" s="27" t="s">
+        <v>341</v>
+      </c>
+      <c r="E69" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="F69" s="1">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70" s="1">
+        <v>11</v>
+      </c>
+      <c r="D70" s="27" t="s">
+        <v>341</v>
+      </c>
+      <c r="E70" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="F70" s="1">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71" s="1">
+        <v>11</v>
+      </c>
+      <c r="D71" s="27" t="s">
+        <v>371</v>
+      </c>
+      <c r="E71" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="F71" s="1">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72" s="1">
+        <v>11</v>
+      </c>
+      <c r="D72" s="27" t="s">
+        <v>341</v>
+      </c>
+      <c r="E72" s="12" t="s">
+        <v>373</v>
+      </c>
+      <c r="F72" s="1">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73" s="1">
+        <v>11</v>
+      </c>
+      <c r="D73" s="27" t="s">
+        <v>341</v>
+      </c>
+      <c r="E73" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="F73" s="1">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74" s="1">
+        <v>11</v>
+      </c>
+      <c r="D74" s="27" t="s">
+        <v>341</v>
+      </c>
+      <c r="E74" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="F74" s="1">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75" s="1">
         <v>12</v>
       </c>
-      <c r="D57" s="27" t="s">
-        <v>360</v>
-      </c>
-      <c r="E57" s="12" t="s">
-        <v>366</v>
-      </c>
-      <c r="F57" s="1">
+      <c r="D75" s="27" t="s">
+        <v>341</v>
+      </c>
+      <c r="E75" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="F75" s="1">
         <v>40000</v>
       </c>
     </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76" s="1">
+        <v>12</v>
+      </c>
+      <c r="D76" s="27" t="s">
+        <v>341</v>
+      </c>
+      <c r="E76" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="F76" s="1">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77" s="1">
+        <v>12</v>
+      </c>
+      <c r="D77" s="27" t="s">
+        <v>371</v>
+      </c>
+      <c r="E77" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="F77" s="1">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78" s="1">
+        <v>12</v>
+      </c>
+      <c r="D78" s="27" t="s">
+        <v>341</v>
+      </c>
+      <c r="E78" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="F78" s="1">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79" s="1">
+        <v>12</v>
+      </c>
+      <c r="D79" s="27" t="s">
+        <v>341</v>
+      </c>
+      <c r="E79" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="F79" s="1">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80" s="1">
+        <v>12</v>
+      </c>
+      <c r="D80" s="27" t="s">
+        <v>341</v>
+      </c>
+      <c r="E80" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="F80" s="1">
+        <v>40000</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="E1:E49"/>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <autoFilter ref="E1:E72"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -3136,7 +4121,7 @@
         <v>165</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>332</v>
+        <v>313</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>166</v>
@@ -3170,10 +4155,10 @@
         <v>6</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -3191,10 +4176,10 @@
         <v>28</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -3212,10 +4197,10 @@
         <v>48</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>276</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -3233,10 +4218,10 @@
         <v>99</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
       <c r="H5" s="24" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -3254,10 +4239,10 @@
         <v>198</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
       <c r="H6" s="24" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -3275,10 +4260,10 @@
         <v>298</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
       <c r="H7" s="24" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -3296,10 +4281,10 @@
         <v>398</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="H8" s="24" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -3317,10 +4302,10 @@
         <v>498</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="H9" s="24" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -3338,10 +4323,10 @@
         <v>598</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="H10" s="24" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -3359,10 +4344,10 @@
         <v>698</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="H11" s="24" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -3373,19 +4358,19 @@
         <v>10411</v>
       </c>
       <c r="C12" t="s">
-        <v>378</v>
+        <v>358</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>370</v>
+        <v>350</v>
       </c>
       <c r="F12">
         <v>798</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>372</v>
+        <v>352</v>
       </c>
       <c r="H12" s="24" t="s">
-        <v>375</v>
+        <v>355</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -3396,23 +4381,23 @@
         <v>10412</v>
       </c>
       <c r="C13" t="s">
-        <v>378</v>
+        <v>358</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>371</v>
+        <v>351</v>
       </c>
       <c r="F13">
         <v>898</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>373</v>
+        <v>353</v>
       </c>
       <c r="H13" s="24" t="s">
-        <v>374</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3422,7 +4407,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3436,7 +4421,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="54" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>369</v>
+        <v>349</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>13</v>
@@ -3445,7 +4430,7 @@
         <v>181</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>332</v>
+        <v>313</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>182</v>
@@ -3474,13 +4459,13 @@
         <v>21341</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>333</v>
+        <v>314</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>185</v>
+        <v>433</v>
       </c>
       <c r="F2" s="17">
-        <v>2000000</v>
+        <v>500000</v>
       </c>
       <c r="G2" s="17" t="s">
         <v>197</v>
@@ -3503,7 +4488,7 @@
         <v>21341</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>334</v>
+        <v>315</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>186</v>
@@ -3532,7 +4517,7 @@
         <v>21341</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>335</v>
+        <v>316</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>187</v>
@@ -3561,7 +4546,7 @@
         <v>21341</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>335</v>
+        <v>316</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>188</v>
@@ -3590,7 +4575,7 @@
         <v>21341</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>335</v>
+        <v>316</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>189</v>
@@ -3619,7 +4604,7 @@
         <v>21341</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>335</v>
+        <v>316</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>190</v>
@@ -3648,7 +4633,7 @@
         <v>21341</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>335</v>
+        <v>316</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>191</v>
@@ -3677,7 +4662,7 @@
         <v>21341</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>335</v>
+        <v>316</v>
       </c>
       <c r="E9" s="17" t="s">
         <v>192</v>
@@ -3706,7 +4691,7 @@
         <v>21341</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>335</v>
+        <v>316</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>193</v>
@@ -3735,7 +4720,7 @@
         <v>21341</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>335</v>
+        <v>316</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>194</v>
@@ -3764,7 +4749,7 @@
         <v>21341</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>335</v>
+        <v>316</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>195</v>
@@ -3793,7 +4778,7 @@
         <v>21341</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>335</v>
+        <v>316</v>
       </c>
       <c r="E13" s="17" t="s">
         <v>196</v>
@@ -3822,7 +4807,7 @@
         <v>1000157</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>336</v>
+        <v>317</v>
       </c>
       <c r="E14" s="17" t="s">
         <v>185</v>
@@ -3831,10 +4816,10 @@
         <v>2000000</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>339</v>
+        <v>320</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -3851,7 +4836,7 @@
         <v>1000157</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>336</v>
+        <v>317</v>
       </c>
       <c r="E15" s="17" t="s">
         <v>186</v>
@@ -3860,10 +4845,10 @@
         <v>5000000</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>340</v>
+        <v>321</v>
       </c>
       <c r="I15">
         <v>2</v>
@@ -3880,7 +4865,7 @@
         <v>1000157</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>336</v>
+        <v>317</v>
       </c>
       <c r="E16" s="17" t="s">
         <v>187</v>
@@ -3889,10 +4874,10 @@
         <v>10000000</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>352</v>
+        <v>333</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>341</v>
+        <v>322</v>
       </c>
       <c r="I16">
         <v>3</v>
@@ -3909,7 +4894,7 @@
         <v>1000157</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>336</v>
+        <v>317</v>
       </c>
       <c r="E17" s="17" t="s">
         <v>188</v>
@@ -3918,10 +4903,10 @@
         <v>20000000</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>353</v>
+        <v>334</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>342</v>
+        <v>323</v>
       </c>
       <c r="I17">
         <v>4</v>
@@ -3938,7 +4923,7 @@
         <v>1000157</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>336</v>
+        <v>317</v>
       </c>
       <c r="E18" s="17" t="s">
         <v>189</v>
@@ -3947,10 +4932,10 @@
         <v>50000000</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>354</v>
+        <v>335</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>343</v>
+        <v>324</v>
       </c>
       <c r="I18">
         <v>5</v>
@@ -3967,7 +4952,7 @@
         <v>1000157</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>336</v>
+        <v>317</v>
       </c>
       <c r="E19" s="17" t="s">
         <v>190</v>
@@ -3976,10 +4961,10 @@
         <v>100000000</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
       <c r="I19">
         <v>6</v>
@@ -3996,7 +4981,7 @@
         <v>1000157</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>336</v>
+        <v>317</v>
       </c>
       <c r="E20" s="17" t="s">
         <v>191</v>
@@ -4005,10 +4990,10 @@
         <v>200000000</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
       <c r="H20" s="17" t="s">
-        <v>345</v>
+        <v>326</v>
       </c>
       <c r="I20">
         <v>7</v>
@@ -4025,7 +5010,7 @@
         <v>1000157</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>336</v>
+        <v>317</v>
       </c>
       <c r="E21" s="17" t="s">
         <v>192</v>
@@ -4034,10 +5019,10 @@
         <v>500000000</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="I21">
         <v>8</v>
@@ -4054,7 +5039,7 @@
         <v>1000157</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>336</v>
+        <v>317</v>
       </c>
       <c r="E22" s="17" t="s">
         <v>193</v>
@@ -4063,10 +5048,10 @@
         <v>1000000000</v>
       </c>
       <c r="G22" s="17" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="H22" s="17" t="s">
-        <v>347</v>
+        <v>328</v>
       </c>
       <c r="I22">
         <v>9</v>
@@ -4083,7 +5068,7 @@
         <v>1000157</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>336</v>
+        <v>317</v>
       </c>
       <c r="E23" s="17" t="s">
         <v>194</v>
@@ -4092,10 +5077,10 @@
         <v>2000000000</v>
       </c>
       <c r="G23" s="17" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="H23" s="17" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="I23">
         <v>10</v>
@@ -4112,7 +5097,7 @@
         <v>1000157</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>336</v>
+        <v>317</v>
       </c>
       <c r="E24" s="17" t="s">
         <v>195</v>
@@ -4121,10 +5106,10 @@
         <v>3000000000</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="H24" s="17" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="I24">
         <v>11</v>
@@ -4141,7 +5126,7 @@
         <v>1000157</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>336</v>
+        <v>317</v>
       </c>
       <c r="E25" s="17" t="s">
         <v>196</v>
@@ -4150,18 +5135,264 @@
         <v>5000000000</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>357</v>
+        <v>338</v>
       </c>
       <c r="H25" s="17" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
       <c r="I25">
         <v>12</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.25" customWidth="1"/>
+    <col min="2" max="2" width="12.875" customWidth="1"/>
+    <col min="3" max="3" width="67.375" customWidth="1"/>
+    <col min="4" max="4" width="62.75" customWidth="1"/>
+    <col min="5" max="5" width="96.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="29" t="s">
+        <v>434</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>435</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>438</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>437</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>436</v>
+      </c>
+      <c r="F1" s="29"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>444</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>445</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>455</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>441</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>456</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>459</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>439</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>442</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>440</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>443</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>448</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>449</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>447</v>
+      </c>
+      <c r="E8" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>449</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="E9" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>449</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>447</v>
+      </c>
+      <c r="E10" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>448</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>465</v>
+      </c>
+      <c r="E11" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>471</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>466</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>471</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>467</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>470</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4187,13 +5418,13 @@
         <v>57</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>332</v>
+        <v>313</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>358</v>
+        <v>339</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>56</v>
@@ -4205,10 +5436,10 @@
         <v>54</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>293</v>
+        <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -4219,25 +5450,25 @@
         <v>21314</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>333</v>
+        <v>314</v>
       </c>
       <c r="D2" s="5">
         <v>2</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>284</v>
+        <v>265</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>384</v>
+        <v>364</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -4248,25 +5479,25 @@
         <v>21016</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>334</v>
+        <v>315</v>
       </c>
       <c r="D3" s="5">
         <v>5</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>287</v>
+        <v>268</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>384</v>
+        <v>364</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -4277,25 +5508,25 @@
         <v>21017</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>335</v>
+        <v>316</v>
       </c>
       <c r="D4" s="5">
         <v>7</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>287</v>
+        <v>268</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>290</v>
+        <v>271</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>377</v>
+        <v>357</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>384</v>
+        <v>364</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -4306,25 +5537,25 @@
         <v>1000152</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>335</v>
+        <v>316</v>
       </c>
       <c r="D5" s="5">
         <v>12</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>384</v>
+        <v>364</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>295</v>
+        <v>276</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -4335,25 +5566,25 @@
         <v>1000153</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>336</v>
+        <v>317</v>
       </c>
       <c r="D6" s="5">
         <v>2</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>284</v>
+        <v>265</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>379</v>
+        <v>359</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -4364,25 +5595,25 @@
         <v>1000154</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>336</v>
+        <v>317</v>
       </c>
       <c r="D7" s="5">
         <v>5</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>381</v>
+        <v>361</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>379</v>
+        <v>359</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -4393,25 +5624,25 @@
         <v>1000155</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>336</v>
+        <v>317</v>
       </c>
       <c r="D8" s="5">
         <v>7</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>382</v>
+        <v>362</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>377</v>
+        <v>357</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>379</v>
+        <v>359</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -4422,25 +5653,25 @@
         <v>1000156</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>336</v>
+        <v>317</v>
       </c>
       <c r="D9" s="5">
         <v>12</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>383</v>
+        <v>363</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>379</v>
+        <v>359</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>295</v>
+        <v>276</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -4468,7 +5699,7 @@
       <c r="F12" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -4812,7 +6043,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -4978,7 +6209,7 @@
       <c r="D12" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5142,7 +6373,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5185,13 +6416,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>330</v>
+        <v>311</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -5202,13 +6433,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>331</v>
+        <v>312</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>313</v>
+        <v>294</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>299</v>
+        <v>280</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -5219,13 +6450,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>329</v>
+        <v>310</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -5236,13 +6467,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>329</v>
+        <v>310</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>315</v>
+        <v>296</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -5253,10 +6484,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>329</v>
+        <v>310</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>316</v>
+        <v>297</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>37</v>
@@ -5270,13 +6501,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>329</v>
+        <v>310</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>302</v>
+        <v>283</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -5287,13 +6518,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>328</v>
+        <v>309</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>318</v>
+        <v>299</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>303</v>
+        <v>284</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -5304,13 +6535,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>327</v>
+        <v>308</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>319</v>
+        <v>300</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -5321,13 +6552,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>326</v>
+        <v>307</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -5341,10 +6572,10 @@
         <v>29</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -5358,10 +6589,10 @@
         <v>30</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>322</v>
+        <v>303</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>307</v>
+        <v>288</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -5375,10 +6606,10 @@
         <v>31</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>323</v>
+        <v>304</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -5392,10 +6623,10 @@
         <v>32</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>385</v>
+        <v>365</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>309</v>
+        <v>290</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -5409,10 +6640,10 @@
         <v>33</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -5426,10 +6657,10 @@
         <v>34</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>325</v>
+        <v>306</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -5439,7 +6670,7 @@
       <c r="D17" s="7"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -5743,7 +6974,7 @@
       <c r="D17" s="7"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6047,7 +7278,7 @@
       <c r="C19" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -6196,7 +7427,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/config_Release/vip2_config.xlsx
+++ b/config_Release/vip2_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="597" firstSheet="4" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="dangci|档次" sheetId="7" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="470">
   <si>
     <t>total|总共充值</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -989,58 +989,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>"ty_icon_jb_48y","zpg_icon_shui","com_award_icon_cz1",</t>
-  </si>
-  <si>
-    <t>"ty_icon_jb_50y","zpg_icon_shui","com_award_icon_cz1",</t>
-  </si>
-  <si>
-    <t>"ty_icon_jb_98y","zpg_icon_shui","com_award_icon_cz1",</t>
-  </si>
-  <si>
-    <t>"ty_icon_jb_198y","zpg_icon_shui","com_award_icon_cz1",</t>
-  </si>
-  <si>
-    <t>"75万","1","1",</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"7688万","20","20",</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"6488万","10","10",</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"5488万","8","8",</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"4388万","7","7",</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"3288万","6","6",</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"2218万","5","5",</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"1108万","4","4",</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"538万","3","3",</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"318万","2","2",</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>cjj_vip_desc</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1055,9 +1003,6 @@
   <si>
     <t>cjj_vip_desc</t>
     <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>"30万鱼币","太阳*6","狂暴卡*10"</t>
   </si>
   <si>
     <t>vip&lt;color=#e41a1a&gt;3&lt;/color&gt;-vip&lt;color=#e41a1a&gt;5&lt;/color&gt;福利</t>
@@ -1069,26 +1014,6 @@
   </si>
   <si>
     <t>vip&lt;color=#e41a1a&gt;8&lt;/color&gt;及以上福利</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"com_award_icon_yb1","zpg_icon_yg","3dby_btn_kb"</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"com_award_icon_yb1","zpg_icon_yg","3dby_btn_kb"</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"com_award_icon_yb1","zpg_icon_yg","3dby_btn_kb"</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"10万鱼币","太阳*2","狂暴卡*5"</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"66万鱼币","太阳*10","狂暴卡*15"</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -1274,83 +1199,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>"100万鱼币","太阳*15","狂暴卡*20"</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_yxb_2","zpg_icon_yg","com_award_icon_cz2"</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"8万金币","水滴*1","玩具锤*1",</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"18万金币","水滴*1","玩具锤*1",</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"28万金币","水滴*1","玩具锤*1",</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"38万金币","水滴*1","玩具锤*1",</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"48万金币","水滴*1","玩具锤*1",</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"88万金币","水滴*1","玩具锤*1",</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"128万金币","水滴*1","玩具锤*1",</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"188万金币","水滴*1","玩具锤*1",</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"288万金币","水滴*1","玩具锤*1",</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"388万金币","水滴*1","玩具锤*1",</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"488万金币","水滴*1","玩具锤*1",</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"588万金币","水滴*1","玩具锤*1",</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_jb_6y","zpg_icon_shui","com_award_icon_cz1",</t>
-  </si>
-  <si>
-    <t>"ty_icon_jb_15y","zpg_icon_shui","com_award_icon_cz1",</t>
-  </si>
-  <si>
-    <t>"ty_icon_jb_18y","zpg_icon_shui","com_award_icon_cz1",</t>
-  </si>
-  <si>
-    <t>"ty_icon_jb_30y","zpg_icon_shui","com_award_icon_cz1",</t>
-  </si>
-  <si>
-    <t>"ty_icon_jb_498y","zpg_icon_shui","com_award_icon_cz1",</t>
-  </si>
-  <si>
-    <t>"ty_icon_jb_998y","zpg_icon_shui","com_award_icon_cz1",</t>
-  </si>
-  <si>
-    <t>"ty_icon_jb_2498y","zpg_icon_shui","com_award_icon_cz1",</t>
-  </si>
-  <si>
     <t>vip</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -1403,22 +1251,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>"ty_icon_jb_998y","zpg_icon_shui","com_award_icon_cz1",</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_jb_2498y","zpg_icon_shui","com_award_icon_cz1",</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"9888万","40","40",</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"8888万","30","30",</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>cfz|财富值</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1428,30 +1260,6 @@
   </si>
   <si>
     <t>cpl_notcjj</t>
-  </si>
-  <si>
-    <t>"小游戏币","可以再小游戏苹果大战中使用","在冲金鸡中使用",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"10万","太阳*2","木锤*1"</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"30万","太阳*6","木锤*2"</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"66万","太阳*10","木锤*3"</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"100万","太阳*15","木锤*5"</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"","可以再小游戏苹果大战中使用","在3D捕鱼中提高子弹威力",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>荣耀平板</t>
@@ -1938,6 +1746,176 @@
   <si>
     <t>"至尊礼包","福利券容量提升",</t>
     <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>"com_award_icon_yb1","ty_icon_jb_15y","3dby_btn_kb"</t>
+  </si>
+  <si>
+    <t>"","","在3D捕鱼中提高子弹威力",</t>
+  </si>
+  <si>
+    <t>"","","在3D捕鱼中提高子弹威力",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"小游戏币","","在冲金鸡中使用",</t>
+  </si>
+  <si>
+    <t>"10万鱼币","10万金币","狂暴卡*5"</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"30万鱼币","30万金币","狂暴卡*10"</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"66万鱼币","50万金币","狂暴卡*15"</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"100万鱼币","75万金币","狂暴卡*20"</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"10万","10万金币","木锤*1"</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"30万","30万金币","木锤*2"</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"66万","50万金币","木锤*3"</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"100万","75万金币","木锤*5"</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_48y","ty_icon_yxb_2","com_award_icon_cz1",</t>
+  </si>
+  <si>
+    <t>"ty_icon_jb_50y","ty_icon_yxb_2","com_award_icon_cz1",</t>
+  </si>
+  <si>
+    <t>"ty_icon_jb_98y","ty_icon_yxb_2","com_award_icon_cz1",</t>
+  </si>
+  <si>
+    <t>"ty_icon_jb_198y","ty_icon_yxb_2","com_award_icon_cz1",</t>
+  </si>
+  <si>
+    <t>"ty_icon_jb_998y","ty_icon_yxb_2","com_award_icon_cz1",</t>
+  </si>
+  <si>
+    <t>"ty_icon_jb_2498y","ty_icon_yxb_2","com_award_icon_cz1",</t>
+  </si>
+  <si>
+    <t>"75万","5000","1",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"318万","10000","2",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"538万","15000","3",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1108万","20000","4",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2218万","25000","5",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"3288万","30000","6",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4388万","35000","7",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"5488万","40000","8",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"6488万","50000","10",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"7688万","100000","20",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"8888万","150000","30",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"9888万","200000","40",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"8万金币","小游戏币*5000","玩具锤*1",</t>
+  </si>
+  <si>
+    <t>"18万金币","小游戏币*5000","玩具锤*1",</t>
+  </si>
+  <si>
+    <t>"28万金币","小游戏币*5000","玩具锤*1",</t>
+  </si>
+  <si>
+    <t>"38万金币","小游戏币*5000","玩具锤*1",</t>
+  </si>
+  <si>
+    <t>"48万金币","小游戏币*5000","玩具锤*1",</t>
+  </si>
+  <si>
+    <t>"88万金币","小游戏币*5000","玩具锤*1",</t>
+  </si>
+  <si>
+    <t>"128万金币","小游戏币*5000","玩具锤*1",</t>
+  </si>
+  <si>
+    <t>"188万金币","小游戏币*5000","玩具锤*1",</t>
+  </si>
+  <si>
+    <t>"288万金币","小游戏币*5000","玩具锤*1",</t>
+  </si>
+  <si>
+    <t>"388万金币","小游戏币*5000","玩具锤*1",</t>
+  </si>
+  <si>
+    <t>"488万金币","小游戏币*5000","玩具锤*1",</t>
+  </si>
+  <si>
+    <t>"588万金币","小游戏币*5000","玩具锤*1",</t>
+  </si>
+  <si>
+    <t>"ty_icon_jb_48y","ty_icon_yxb_2","com_award_icon_cz1",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_6y","ty_icon_yxb_2","com_award_icon_cz1",</t>
+  </si>
+  <si>
+    <t>"ty_icon_jb_15y","ty_icon_yxb_2","com_award_icon_cz1",</t>
+  </si>
+  <si>
+    <t>"ty_icon_jb_18y","ty_icon_yxb_2","com_award_icon_cz1",</t>
+  </si>
+  <si>
+    <t>"ty_icon_jb_30y","ty_icon_yxb_2","com_award_icon_cz1",</t>
+  </si>
+  <si>
+    <t>"ty_icon_jb_498y","ty_icon_yxb_2","com_award_icon_cz1",</t>
+  </si>
+  <si>
+    <t>"ty_icon_yxb_2","ty_icon_jb_15y","com_award_icon_cz2"</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2518,13 +2496,13 @@
         <v>1</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>356</v>
+        <v>311</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>63</v>
       </c>
       <c r="H1" s="30" t="s">
-        <v>464</v>
+        <v>413</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>65</v>
@@ -2541,10 +2519,10 @@
         <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>378</v>
+        <v>327</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>388</v>
+        <v>337</v>
       </c>
       <c r="F2" s="15"/>
       <c r="G2" s="5"/>
@@ -2561,7 +2539,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>378</v>
+        <v>327</v>
       </c>
       <c r="E3" s="16" t="s">
         <v>237</v>
@@ -2581,7 +2559,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>379</v>
+        <v>328</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>225</v>
@@ -2604,7 +2582,7 @@
         <v>240</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>389</v>
+        <v>338</v>
       </c>
       <c r="F5" s="26"/>
       <c r="G5" s="27"/>
@@ -2624,11 +2602,11 @@
         <v>240</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>390</v>
+        <v>339</v>
       </c>
       <c r="F6" s="26"/>
       <c r="G6" s="27" t="s">
-        <v>460</v>
+        <v>409</v>
       </c>
       <c r="H6" s="27"/>
     </row>
@@ -2646,7 +2624,7 @@
         <v>240</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>393</v>
+        <v>342</v>
       </c>
       <c r="F7" s="26"/>
       <c r="G7" s="27"/>
@@ -2668,11 +2646,11 @@
         <v>240</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>391</v>
+        <v>340</v>
       </c>
       <c r="F8" s="26"/>
       <c r="G8" s="27" t="s">
-        <v>461</v>
+        <v>410</v>
       </c>
       <c r="H8" s="27"/>
     </row>
@@ -2690,7 +2668,7 @@
         <v>240</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>392</v>
+        <v>341</v>
       </c>
       <c r="F9" s="26"/>
       <c r="G9" s="27"/>
@@ -2710,7 +2688,7 @@
         <v>240</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>394</v>
+        <v>343</v>
       </c>
       <c r="F10" s="26"/>
       <c r="G10" s="27"/>
@@ -2727,10 +2705,10 @@
         <v>200</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>387</v>
+        <v>336</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>366</v>
+        <v>315</v>
       </c>
       <c r="F11" s="15"/>
       <c r="G11" s="5"/>
@@ -2747,10 +2725,10 @@
         <v>200</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>378</v>
+        <v>327</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>400</v>
+        <v>349</v>
       </c>
       <c r="F12" s="15"/>
       <c r="G12" s="14"/>
@@ -2767,7 +2745,7 @@
         <v>200</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>380</v>
+        <v>329</v>
       </c>
       <c r="E13" s="16" t="s">
         <v>226</v>
@@ -2787,14 +2765,14 @@
         <v>200</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>377</v>
+        <v>326</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>395</v>
+        <v>344</v>
       </c>
       <c r="F14" s="26"/>
       <c r="G14" s="27" t="s">
-        <v>462</v>
+        <v>411</v>
       </c>
       <c r="H14" s="27"/>
     </row>
@@ -2812,11 +2790,11 @@
         <v>240</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>396</v>
+        <v>345</v>
       </c>
       <c r="F15" s="26"/>
       <c r="G15" s="27" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="H15" s="27"/>
     </row>
@@ -2834,7 +2812,7 @@
         <v>240</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>397</v>
+        <v>346</v>
       </c>
       <c r="F16" s="26"/>
       <c r="G16" s="27"/>
@@ -2856,7 +2834,7 @@
         <v>240</v>
       </c>
       <c r="E17" s="26" t="s">
-        <v>398</v>
+        <v>347</v>
       </c>
       <c r="F17" s="26"/>
       <c r="G17" s="27"/>
@@ -2876,7 +2854,7 @@
         <v>240</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>399</v>
+        <v>348</v>
       </c>
       <c r="F18" s="26"/>
       <c r="G18" s="27"/>
@@ -2896,7 +2874,7 @@
         <v>240</v>
       </c>
       <c r="E19" s="26" t="s">
-        <v>401</v>
+        <v>350</v>
       </c>
       <c r="F19" s="26"/>
       <c r="G19" s="27"/>
@@ -2916,7 +2894,7 @@
         <v>240</v>
       </c>
       <c r="E20" s="26" t="s">
-        <v>402</v>
+        <v>351</v>
       </c>
       <c r="F20" s="26"/>
       <c r="G20" s="27"/>
@@ -2936,7 +2914,7 @@
         <v>244</v>
       </c>
       <c r="E21" s="28" t="s">
-        <v>403</v>
+        <v>352</v>
       </c>
       <c r="F21" s="28"/>
       <c r="G21" s="27"/>
@@ -2953,10 +2931,10 @@
         <v>500</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>367</v>
+        <v>316</v>
       </c>
       <c r="F22" s="15"/>
       <c r="G22" s="21"/>
@@ -2973,10 +2951,10 @@
         <v>500</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>381</v>
+        <v>330</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>406</v>
+        <v>355</v>
       </c>
       <c r="F23" s="15"/>
     </row>
@@ -2991,7 +2969,7 @@
         <v>500</v>
       </c>
       <c r="D24" s="21" t="s">
-        <v>379</v>
+        <v>328</v>
       </c>
       <c r="E24" s="16" t="s">
         <v>227</v>
@@ -3012,11 +2990,11 @@
         <v>240</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>404</v>
+        <v>353</v>
       </c>
       <c r="F25" s="26"/>
       <c r="G25" s="27" t="s">
-        <v>460</v>
+        <v>409</v>
       </c>
       <c r="H25" s="27"/>
     </row>
@@ -3034,7 +3012,7 @@
         <v>240</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>405</v>
+        <v>354</v>
       </c>
       <c r="F26" s="26"/>
       <c r="G26" s="27"/>
@@ -3056,7 +3034,7 @@
         <v>240</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>408</v>
+        <v>357</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="27"/>
@@ -3076,7 +3054,7 @@
         <v>240</v>
       </c>
       <c r="E28" s="26" t="s">
-        <v>407</v>
+        <v>356</v>
       </c>
       <c r="F28" s="26"/>
       <c r="G28" s="27"/>
@@ -3093,10 +3071,10 @@
         <v>1000</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>368</v>
+        <v>317</v>
       </c>
       <c r="F29" s="15"/>
       <c r="G29" s="21"/>
@@ -3113,7 +3091,7 @@
         <v>1000</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>381</v>
+        <v>330</v>
       </c>
       <c r="E30" s="15" t="s">
         <v>238</v>
@@ -3131,7 +3109,7 @@
         <v>1000</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>380</v>
+        <v>329</v>
       </c>
       <c r="E31" s="16" t="s">
         <v>228</v>
@@ -3152,11 +3130,11 @@
         <v>240</v>
       </c>
       <c r="E32" s="26" t="s">
-        <v>409</v>
+        <v>358</v>
       </c>
       <c r="F32" s="26"/>
       <c r="G32" s="27" t="s">
-        <v>460</v>
+        <v>409</v>
       </c>
       <c r="H32" s="27"/>
     </row>
@@ -3174,7 +3152,7 @@
         <v>240</v>
       </c>
       <c r="E33" s="26" t="s">
-        <v>410</v>
+        <v>359</v>
       </c>
       <c r="F33" s="26"/>
       <c r="G33" s="27"/>
@@ -3196,7 +3174,7 @@
         <v>240</v>
       </c>
       <c r="E34" s="26" t="s">
-        <v>411</v>
+        <v>360</v>
       </c>
       <c r="F34" s="26"/>
       <c r="G34" s="27"/>
@@ -3216,7 +3194,7 @@
         <v>240</v>
       </c>
       <c r="E35" s="26" t="s">
-        <v>412</v>
+        <v>361</v>
       </c>
       <c r="F35" s="26"/>
       <c r="G35" s="27"/>
@@ -3236,7 +3214,7 @@
         <v>244</v>
       </c>
       <c r="E36" s="28" t="s">
-        <v>413</v>
+        <v>362</v>
       </c>
       <c r="F36" s="28"/>
       <c r="G36" s="27"/>
@@ -3253,10 +3231,10 @@
         <v>2000</v>
       </c>
       <c r="D37" s="21" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>369</v>
+        <v>318</v>
       </c>
       <c r="F37" s="15"/>
       <c r="G37" s="21"/>
@@ -3273,10 +3251,10 @@
         <v>2000</v>
       </c>
       <c r="D38" s="21" t="s">
-        <v>382</v>
+        <v>331</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>416</v>
+        <v>365</v>
       </c>
       <c r="F38" s="15"/>
       <c r="G38" s="22"/>
@@ -3293,7 +3271,7 @@
         <v>2000</v>
       </c>
       <c r="D39" s="21" t="s">
-        <v>383</v>
+        <v>332</v>
       </c>
       <c r="E39" s="16" t="s">
         <v>229</v>
@@ -3313,7 +3291,7 @@
         <v>2000</v>
       </c>
       <c r="D40" s="21" t="s">
-        <v>378</v>
+        <v>327</v>
       </c>
       <c r="E40" s="16" t="s">
         <v>230</v>
@@ -3336,7 +3314,7 @@
         <v>240</v>
       </c>
       <c r="E41" s="26" t="s">
-        <v>414</v>
+        <v>363</v>
       </c>
       <c r="F41" s="26"/>
       <c r="G41" s="27"/>
@@ -3355,10 +3333,10 @@
         <v>2000</v>
       </c>
       <c r="D42" s="27" t="s">
-        <v>415</v>
+        <v>364</v>
       </c>
       <c r="E42" s="26" t="s">
-        <v>417</v>
+        <v>366</v>
       </c>
       <c r="F42" s="26"/>
       <c r="G42" s="27"/>
@@ -3375,10 +3353,10 @@
         <v>2000</v>
       </c>
       <c r="D43" s="27" t="s">
-        <v>415</v>
+        <v>364</v>
       </c>
       <c r="E43" s="26" t="s">
-        <v>418</v>
+        <v>367</v>
       </c>
       <c r="F43" s="26"/>
       <c r="G43" s="27"/>
@@ -3395,10 +3373,10 @@
         <v>5000</v>
       </c>
       <c r="D44" s="21" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>370</v>
+        <v>319</v>
       </c>
       <c r="F44" s="15"/>
       <c r="G44" s="21"/>
@@ -3415,10 +3393,10 @@
         <v>5000</v>
       </c>
       <c r="D45" s="21" t="s">
-        <v>384</v>
+        <v>333</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>419</v>
+        <v>368</v>
       </c>
       <c r="F45" s="15"/>
     </row>
@@ -3433,7 +3411,7 @@
         <v>5000</v>
       </c>
       <c r="D46" s="21" t="s">
-        <v>378</v>
+        <v>327</v>
       </c>
       <c r="E46" s="16" t="s">
         <v>231</v>
@@ -3456,7 +3434,7 @@
         <v>241</v>
       </c>
       <c r="E47" s="26" t="s">
-        <v>420</v>
+        <v>369</v>
       </c>
       <c r="F47" s="26"/>
       <c r="G47" s="27"/>
@@ -3476,7 +3454,7 @@
         <v>240</v>
       </c>
       <c r="E48" s="26" t="s">
-        <v>421</v>
+        <v>370</v>
       </c>
       <c r="F48" s="26"/>
       <c r="G48" s="27"/>
@@ -3493,7 +3471,7 @@
         <v>10000</v>
       </c>
       <c r="D49" s="21" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="E49" s="15" t="s">
         <v>236</v>
@@ -3513,10 +3491,10 @@
         <v>10000</v>
       </c>
       <c r="D50" s="21" t="s">
-        <v>381</v>
+        <v>330</v>
       </c>
       <c r="E50" s="15" t="s">
-        <v>422</v>
+        <v>371</v>
       </c>
       <c r="F50" s="15"/>
       <c r="G50" s="22"/>
@@ -3533,7 +3511,7 @@
         <v>10000</v>
       </c>
       <c r="D51" s="21" t="s">
-        <v>381</v>
+        <v>330</v>
       </c>
       <c r="E51" s="16" t="s">
         <v>232</v>
@@ -3556,7 +3534,7 @@
         <v>242</v>
       </c>
       <c r="E52" s="26" t="s">
-        <v>423</v>
+        <v>372</v>
       </c>
       <c r="F52" s="26"/>
       <c r="G52" s="27"/>
@@ -3576,7 +3554,7 @@
         <v>240</v>
       </c>
       <c r="E53" s="26" t="s">
-        <v>426</v>
+        <v>375</v>
       </c>
       <c r="F53" s="26"/>
       <c r="G53" s="27"/>
@@ -3593,7 +3571,7 @@
         <v>20000</v>
       </c>
       <c r="D54" s="21" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="E54" s="15" t="s">
         <v>236</v>
@@ -3613,10 +3591,10 @@
         <v>20000</v>
       </c>
       <c r="D55" s="21" t="s">
-        <v>380</v>
+        <v>329</v>
       </c>
       <c r="E55" s="15" t="s">
-        <v>424</v>
+        <v>373</v>
       </c>
       <c r="F55" s="15"/>
       <c r="G55" s="22"/>
@@ -3633,7 +3611,7 @@
         <v>20000</v>
       </c>
       <c r="D56" s="21" t="s">
-        <v>378</v>
+        <v>327</v>
       </c>
       <c r="E56" s="16" t="s">
         <v>233</v>
@@ -3656,7 +3634,7 @@
         <v>240</v>
       </c>
       <c r="E57" s="26" t="s">
-        <v>425</v>
+        <v>374</v>
       </c>
       <c r="F57" s="26"/>
       <c r="G57" s="27"/>
@@ -3676,7 +3654,7 @@
         <v>240</v>
       </c>
       <c r="E58" s="26" t="s">
-        <v>429</v>
+        <v>378</v>
       </c>
       <c r="F58" s="26"/>
       <c r="G58" s="27"/>
@@ -3693,7 +3671,7 @@
         <v>30000</v>
       </c>
       <c r="D59" s="21" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="E59" s="23" t="s">
         <v>236</v>
@@ -3713,10 +3691,10 @@
         <v>30000</v>
       </c>
       <c r="D60" s="21" t="s">
-        <v>381</v>
+        <v>330</v>
       </c>
       <c r="E60" s="23" t="s">
-        <v>427</v>
+        <v>376</v>
       </c>
       <c r="F60" s="23"/>
       <c r="G60" s="22"/>
@@ -3733,7 +3711,7 @@
         <v>30000</v>
       </c>
       <c r="D61" s="21" t="s">
-        <v>385</v>
+        <v>334</v>
       </c>
       <c r="E61" s="20" t="s">
         <v>234</v>
@@ -3756,7 +3734,7 @@
         <v>243</v>
       </c>
       <c r="E62" s="26" t="s">
-        <v>428</v>
+        <v>377</v>
       </c>
       <c r="F62" s="26"/>
       <c r="G62" s="27"/>
@@ -3776,7 +3754,7 @@
         <v>240</v>
       </c>
       <c r="E63" s="26" t="s">
-        <v>431</v>
+        <v>380</v>
       </c>
       <c r="F63" s="26"/>
       <c r="G63" s="27"/>
@@ -3793,7 +3771,7 @@
         <v>50000</v>
       </c>
       <c r="D64" s="21" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="E64" s="23" t="s">
         <v>236</v>
@@ -3813,10 +3791,10 @@
         <v>50000</v>
       </c>
       <c r="D65" s="21" t="s">
-        <v>386</v>
+        <v>335</v>
       </c>
       <c r="E65" s="23" t="s">
-        <v>430</v>
+        <v>379</v>
       </c>
       <c r="F65" s="23"/>
       <c r="G65" s="22"/>
@@ -3833,7 +3811,7 @@
         <v>50000</v>
       </c>
       <c r="D66" s="21" t="s">
-        <v>381</v>
+        <v>330</v>
       </c>
       <c r="E66" s="20" t="s">
         <v>235</v>
@@ -3853,10 +3831,10 @@
         <v>50000</v>
       </c>
       <c r="D67" s="27" t="s">
-        <v>341</v>
+        <v>300</v>
       </c>
       <c r="E67" s="26" t="s">
-        <v>372</v>
+        <v>321</v>
       </c>
       <c r="F67" s="26"/>
       <c r="G67" s="27"/>
@@ -3876,7 +3854,7 @@
         <v>240</v>
       </c>
       <c r="E68" s="26" t="s">
-        <v>432</v>
+        <v>381</v>
       </c>
       <c r="F68" s="26"/>
       <c r="G68" s="27"/>
@@ -3890,10 +3868,10 @@
         <v>11</v>
       </c>
       <c r="D69" s="27" t="s">
-        <v>341</v>
+        <v>300</v>
       </c>
       <c r="E69" s="12" t="s">
-        <v>342</v>
+        <v>301</v>
       </c>
       <c r="F69" s="1">
         <v>15000</v>
@@ -3907,10 +3885,10 @@
         <v>11</v>
       </c>
       <c r="D70" s="27" t="s">
-        <v>341</v>
+        <v>300</v>
       </c>
       <c r="E70" s="12" t="s">
-        <v>343</v>
+        <v>302</v>
       </c>
       <c r="F70" s="1">
         <v>15000</v>
@@ -3924,10 +3902,10 @@
         <v>11</v>
       </c>
       <c r="D71" s="27" t="s">
-        <v>371</v>
+        <v>320</v>
       </c>
       <c r="E71" s="12" t="s">
-        <v>376</v>
+        <v>325</v>
       </c>
       <c r="F71" s="1">
         <v>15000</v>
@@ -3941,10 +3919,10 @@
         <v>11</v>
       </c>
       <c r="D72" s="27" t="s">
-        <v>341</v>
+        <v>300</v>
       </c>
       <c r="E72" s="12" t="s">
-        <v>373</v>
+        <v>322</v>
       </c>
       <c r="F72" s="1">
         <v>15000</v>
@@ -3958,10 +3936,10 @@
         <v>11</v>
       </c>
       <c r="D73" s="27" t="s">
-        <v>341</v>
+        <v>300</v>
       </c>
       <c r="E73" s="12" t="s">
-        <v>348</v>
+        <v>307</v>
       </c>
       <c r="F73" s="1">
         <v>15000</v>
@@ -3975,10 +3953,10 @@
         <v>11</v>
       </c>
       <c r="D74" s="27" t="s">
-        <v>341</v>
+        <v>300</v>
       </c>
       <c r="E74" s="12" t="s">
-        <v>344</v>
+        <v>303</v>
       </c>
       <c r="F74" s="1">
         <v>15000</v>
@@ -3992,10 +3970,10 @@
         <v>12</v>
       </c>
       <c r="D75" s="27" t="s">
-        <v>341</v>
+        <v>300</v>
       </c>
       <c r="E75" s="12" t="s">
-        <v>345</v>
+        <v>304</v>
       </c>
       <c r="F75" s="1">
         <v>40000</v>
@@ -4009,10 +3987,10 @@
         <v>12</v>
       </c>
       <c r="D76" s="27" t="s">
-        <v>341</v>
+        <v>300</v>
       </c>
       <c r="E76" s="12" t="s">
-        <v>346</v>
+        <v>305</v>
       </c>
       <c r="F76" s="1">
         <v>40000</v>
@@ -4026,10 +4004,10 @@
         <v>12</v>
       </c>
       <c r="D77" s="27" t="s">
-        <v>371</v>
+        <v>320</v>
       </c>
       <c r="E77" s="12" t="s">
-        <v>374</v>
+        <v>323</v>
       </c>
       <c r="F77" s="1">
         <v>40000</v>
@@ -4043,10 +4021,10 @@
         <v>12</v>
       </c>
       <c r="D78" s="27" t="s">
-        <v>341</v>
+        <v>300</v>
       </c>
       <c r="E78" s="12" t="s">
-        <v>375</v>
+        <v>324</v>
       </c>
       <c r="F78" s="1">
         <v>40000</v>
@@ -4060,10 +4038,10 @@
         <v>12</v>
       </c>
       <c r="D79" s="27" t="s">
-        <v>341</v>
+        <v>300</v>
       </c>
       <c r="E79" s="12" t="s">
-        <v>340</v>
+        <v>299</v>
       </c>
       <c r="F79" s="1">
         <v>40000</v>
@@ -4077,10 +4055,10 @@
         <v>12</v>
       </c>
       <c r="D80" s="27" t="s">
-        <v>341</v>
+        <v>300</v>
       </c>
       <c r="E80" s="12" t="s">
-        <v>347</v>
+        <v>306</v>
       </c>
       <c r="F80" s="1">
         <v>40000</v>
@@ -4099,7 +4077,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4121,7 +4099,7 @@
         <v>165</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>313</v>
+        <v>293</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>166</v>
@@ -4155,10 +4133,10 @@
         <v>6</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>245</v>
+        <v>433</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>249</v>
+        <v>439</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -4176,10 +4154,10 @@
         <v>28</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>245</v>
+        <v>463</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>258</v>
+        <v>440</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -4197,10 +4175,10 @@
         <v>48</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>245</v>
+        <v>433</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>257</v>
+        <v>441</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -4218,10 +4196,10 @@
         <v>99</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>246</v>
+        <v>434</v>
       </c>
       <c r="H5" s="24" t="s">
-        <v>256</v>
+        <v>442</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -4239,10 +4217,10 @@
         <v>198</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>246</v>
+        <v>434</v>
       </c>
       <c r="H6" s="24" t="s">
-        <v>255</v>
+        <v>443</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -4260,10 +4238,10 @@
         <v>298</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>246</v>
+        <v>434</v>
       </c>
       <c r="H7" s="24" t="s">
-        <v>254</v>
+        <v>444</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -4281,10 +4259,10 @@
         <v>398</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>247</v>
+        <v>435</v>
       </c>
       <c r="H8" s="24" t="s">
-        <v>253</v>
+        <v>445</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -4302,10 +4280,10 @@
         <v>498</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>247</v>
+        <v>435</v>
       </c>
       <c r="H9" s="24" t="s">
-        <v>252</v>
+        <v>446</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -4323,10 +4301,10 @@
         <v>598</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>248</v>
+        <v>436</v>
       </c>
       <c r="H10" s="24" t="s">
-        <v>251</v>
+        <v>447</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -4344,10 +4322,10 @@
         <v>698</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>248</v>
+        <v>436</v>
       </c>
       <c r="H11" s="24" t="s">
-        <v>250</v>
+        <v>448</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -4358,19 +4336,19 @@
         <v>10411</v>
       </c>
       <c r="C12" t="s">
-        <v>358</v>
+        <v>313</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>350</v>
+        <v>309</v>
       </c>
       <c r="F12">
         <v>798</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>352</v>
+        <v>437</v>
       </c>
       <c r="H12" s="24" t="s">
-        <v>355</v>
+        <v>449</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -4381,19 +4359,19 @@
         <v>10412</v>
       </c>
       <c r="C13" t="s">
-        <v>358</v>
+        <v>313</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>351</v>
+        <v>310</v>
       </c>
       <c r="F13">
         <v>898</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>353</v>
+        <v>438</v>
       </c>
       <c r="H13" s="24" t="s">
-        <v>354</v>
+        <v>450</v>
       </c>
     </row>
   </sheetData>
@@ -4407,7 +4385,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="G32" sqref="G31:G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4421,7 +4399,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="54" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>349</v>
+        <v>308</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>13</v>
@@ -4430,7 +4408,7 @@
         <v>181</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>313</v>
+        <v>293</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>182</v>
@@ -4459,10 +4437,10 @@
         <v>21341</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>314</v>
+        <v>294</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>433</v>
+        <v>382</v>
       </c>
       <c r="F2" s="17">
         <v>500000</v>
@@ -4488,7 +4466,7 @@
         <v>21341</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>315</v>
+        <v>295</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>186</v>
@@ -4517,7 +4495,7 @@
         <v>21341</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>187</v>
@@ -4546,7 +4524,7 @@
         <v>21341</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>188</v>
@@ -4575,7 +4553,7 @@
         <v>21341</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>189</v>
@@ -4604,7 +4582,7 @@
         <v>21341</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>190</v>
@@ -4633,7 +4611,7 @@
         <v>21341</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>191</v>
@@ -4662,7 +4640,7 @@
         <v>21341</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
       <c r="E9" s="17" t="s">
         <v>192</v>
@@ -4691,7 +4669,7 @@
         <v>21341</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>193</v>
@@ -4720,7 +4698,7 @@
         <v>21341</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>194</v>
@@ -4749,7 +4727,7 @@
         <v>21341</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>195</v>
@@ -4778,7 +4756,7 @@
         <v>21341</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
       <c r="E13" s="17" t="s">
         <v>196</v>
@@ -4807,7 +4785,7 @@
         <v>1000157</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
       <c r="E14" s="17" t="s">
         <v>185</v>
@@ -4816,10 +4794,10 @@
         <v>2000000</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>332</v>
+        <v>464</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>320</v>
+        <v>451</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -4836,7 +4814,7 @@
         <v>1000157</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
       <c r="E15" s="17" t="s">
         <v>186</v>
@@ -4845,10 +4823,10 @@
         <v>5000000</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>332</v>
+        <v>464</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>321</v>
+        <v>452</v>
       </c>
       <c r="I15">
         <v>2</v>
@@ -4865,7 +4843,7 @@
         <v>1000157</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
       <c r="E16" s="17" t="s">
         <v>187</v>
@@ -4874,10 +4852,10 @@
         <v>10000000</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>333</v>
+        <v>465</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>322</v>
+        <v>453</v>
       </c>
       <c r="I16">
         <v>3</v>
@@ -4894,7 +4872,7 @@
         <v>1000157</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
       <c r="E17" s="17" t="s">
         <v>188</v>
@@ -4903,10 +4881,10 @@
         <v>20000000</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>334</v>
+        <v>466</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>323</v>
+        <v>454</v>
       </c>
       <c r="I17">
         <v>4</v>
@@ -4923,7 +4901,7 @@
         <v>1000157</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
       <c r="E18" s="17" t="s">
         <v>189</v>
@@ -4932,10 +4910,10 @@
         <v>50000000</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>335</v>
+        <v>467</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>324</v>
+        <v>455</v>
       </c>
       <c r="I18">
         <v>5</v>
@@ -4952,7 +4930,7 @@
         <v>1000157</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
       <c r="E19" s="17" t="s">
         <v>190</v>
@@ -4961,10 +4939,10 @@
         <v>100000000</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>245</v>
+        <v>433</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>325</v>
+        <v>456</v>
       </c>
       <c r="I19">
         <v>6</v>
@@ -4981,7 +4959,7 @@
         <v>1000157</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
       <c r="E20" s="17" t="s">
         <v>191</v>
@@ -4990,10 +4968,10 @@
         <v>200000000</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>246</v>
+        <v>434</v>
       </c>
       <c r="H20" s="17" t="s">
-        <v>326</v>
+        <v>457</v>
       </c>
       <c r="I20">
         <v>7</v>
@@ -5010,7 +4988,7 @@
         <v>1000157</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
       <c r="E21" s="17" t="s">
         <v>192</v>
@@ -5019,10 +4997,10 @@
         <v>500000000</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>247</v>
+        <v>435</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>327</v>
+        <v>458</v>
       </c>
       <c r="I21">
         <v>8</v>
@@ -5039,7 +5017,7 @@
         <v>1000157</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
       <c r="E22" s="17" t="s">
         <v>193</v>
@@ -5048,10 +5026,10 @@
         <v>1000000000</v>
       </c>
       <c r="G22" s="17" t="s">
-        <v>248</v>
+        <v>436</v>
       </c>
       <c r="H22" s="17" t="s">
-        <v>328</v>
+        <v>459</v>
       </c>
       <c r="I22">
         <v>9</v>
@@ -5068,7 +5046,7 @@
         <v>1000157</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
       <c r="E23" s="17" t="s">
         <v>194</v>
@@ -5077,10 +5055,10 @@
         <v>2000000000</v>
       </c>
       <c r="G23" s="17" t="s">
-        <v>336</v>
+        <v>468</v>
       </c>
       <c r="H23" s="17" t="s">
-        <v>329</v>
+        <v>460</v>
       </c>
       <c r="I23">
         <v>10</v>
@@ -5097,7 +5075,7 @@
         <v>1000157</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
       <c r="E24" s="17" t="s">
         <v>195</v>
@@ -5106,10 +5084,10 @@
         <v>3000000000</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>337</v>
+        <v>437</v>
       </c>
       <c r="H24" s="17" t="s">
-        <v>330</v>
+        <v>461</v>
       </c>
       <c r="I24">
         <v>11</v>
@@ -5126,7 +5104,7 @@
         <v>1000157</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
       <c r="E25" s="17" t="s">
         <v>196</v>
@@ -5135,10 +5113,10 @@
         <v>5000000000</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>338</v>
+        <v>438</v>
       </c>
       <c r="H25" s="17" t="s">
-        <v>331</v>
+        <v>462</v>
       </c>
       <c r="I25">
         <v>12</v>
@@ -5154,8 +5132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5169,19 +5147,19 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="29" t="s">
-        <v>434</v>
+        <v>383</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>435</v>
+        <v>384</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>438</v>
+        <v>387</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>437</v>
+        <v>386</v>
       </c>
       <c r="E1" s="29" t="s">
-        <v>436</v>
+        <v>385</v>
       </c>
       <c r="F1" s="29"/>
     </row>
@@ -5193,13 +5171,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>444</v>
+        <v>393</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>445</v>
+        <v>394</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>451</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -5210,13 +5188,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>455</v>
+        <v>404</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>441</v>
+        <v>390</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>452</v>
+        <v>401</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -5227,13 +5205,13 @@
         <v>3</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>456</v>
+        <v>405</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>459</v>
+        <v>408</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>458</v>
+        <v>407</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -5244,13 +5222,13 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>439</v>
+        <v>388</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>442</v>
+        <v>391</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>457</v>
+        <v>406</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -5261,13 +5239,13 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>440</v>
+        <v>389</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>443</v>
+        <v>392</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>454</v>
+        <v>403</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -5278,13 +5256,13 @@
         <v>6</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>448</v>
+        <v>397</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>446</v>
+        <v>395</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>453</v>
+        <v>402</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -5295,13 +5273,13 @@
         <v>7</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>449</v>
+        <v>398</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>447</v>
+        <v>396</v>
       </c>
       <c r="E8" t="s">
-        <v>450</v>
+        <v>399</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -5312,13 +5290,13 @@
         <v>8</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>449</v>
+        <v>398</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>446</v>
+        <v>395</v>
       </c>
       <c r="E9" t="s">
-        <v>450</v>
+        <v>399</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -5329,13 +5307,13 @@
         <v>9</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>449</v>
+        <v>398</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>447</v>
+        <v>396</v>
       </c>
       <c r="E10" t="s">
-        <v>450</v>
+        <v>399</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -5346,13 +5324,13 @@
         <v>10</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>448</v>
+        <v>397</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>465</v>
+        <v>414</v>
       </c>
       <c r="E11" t="s">
-        <v>468</v>
+        <v>417</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -5363,13 +5341,13 @@
         <v>11</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>471</v>
+        <v>420</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>466</v>
+        <v>415</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>469</v>
+        <v>418</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -5380,13 +5358,13 @@
         <v>12</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>471</v>
+        <v>420</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>467</v>
+        <v>416</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>470</v>
+        <v>419</v>
       </c>
     </row>
   </sheetData>
@@ -5400,8 +5378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G17:G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5418,13 +5396,13 @@
         <v>57</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>313</v>
+        <v>293</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>339</v>
+        <v>298</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>56</v>
@@ -5436,10 +5414,10 @@
         <v>54</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>274</v>
+        <v>254</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -5450,25 +5428,25 @@
         <v>21314</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>314</v>
+        <v>294</v>
       </c>
       <c r="D2" s="5">
         <v>2</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>267</v>
+        <v>421</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>270</v>
+        <v>425</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>364</v>
+        <v>423</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -5479,25 +5457,25 @@
         <v>21016</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>315</v>
+        <v>295</v>
       </c>
       <c r="D3" s="5">
         <v>5</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>268</v>
+        <v>421</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>263</v>
+        <v>426</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>364</v>
+        <v>422</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -5508,25 +5486,25 @@
         <v>21017</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
       <c r="D4" s="5">
         <v>7</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>268</v>
+        <v>421</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>271</v>
+        <v>427</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>357</v>
+        <v>312</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>364</v>
+        <v>422</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -5537,25 +5515,25 @@
         <v>1000152</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
       <c r="D5" s="5">
         <v>12</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>269</v>
+        <v>421</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>318</v>
+        <v>428</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>364</v>
+        <v>422</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -5566,25 +5544,25 @@
         <v>1000153</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
       <c r="D6" s="5">
         <v>2</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>319</v>
+        <v>469</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>360</v>
+        <v>429</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>359</v>
+        <v>424</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -5595,25 +5573,25 @@
         <v>1000154</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
       <c r="D7" s="5">
         <v>5</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>319</v>
+        <v>469</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>361</v>
+        <v>430</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>359</v>
+        <v>424</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -5624,25 +5602,25 @@
         <v>1000155</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
       <c r="D8" s="5">
         <v>7</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>319</v>
+        <v>469</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>362</v>
+        <v>431</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>357</v>
+        <v>312</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>359</v>
+        <v>424</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -5653,25 +5631,25 @@
         <v>1000156</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
       <c r="D9" s="5">
         <v>12</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>319</v>
+        <v>469</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>363</v>
+        <v>432</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>359</v>
+        <v>424</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -6219,7 +6197,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6416,13 +6394,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>311</v>
+        <v>291</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>293</v>
+        <v>273</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -6433,13 +6411,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>312</v>
+        <v>292</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>294</v>
+        <v>274</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -6450,13 +6428,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>295</v>
+        <v>275</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>281</v>
+        <v>261</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -6467,13 +6445,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>296</v>
+        <v>276</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>282</v>
+        <v>262</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -6484,10 +6462,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>37</v>
@@ -6501,13 +6479,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -6518,13 +6496,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>299</v>
+        <v>279</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -6535,13 +6513,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>285</v>
+        <v>265</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -6552,13 +6530,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>307</v>
+        <v>287</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>301</v>
+        <v>281</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>286</v>
+        <v>266</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -6572,10 +6550,10 @@
         <v>29</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -6589,10 +6567,10 @@
         <v>30</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>303</v>
+        <v>283</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>288</v>
+        <v>268</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -6606,10 +6584,10 @@
         <v>31</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>304</v>
+        <v>284</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -6623,10 +6601,10 @@
         <v>32</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>365</v>
+        <v>314</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -6640,10 +6618,10 @@
         <v>33</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>291</v>
+        <v>271</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -6657,10 +6635,10 @@
         <v>34</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>292</v>
+        <v>272</v>
       </c>
       <c r="E16">
         <v>1</v>
